--- a/문서 관리/04. 테이블정의서.xlsx
+++ b/문서 관리/04. 테이블정의서.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
   <si>
     <t>작성자</t>
   </si>
@@ -404,6 +404,62 @@
   </si>
   <si>
     <t>restrict_eddt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판상담 게시글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 고유번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 고유번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 작성 일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 수정 일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판상담 비유저 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자 성별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자 이메일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자 거주지역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 비밀번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 고유번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -896,7 +952,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,6 +1010,72 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,69 +1093,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1360,74 +1419,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="40" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -1851,13 +1910,13 @@
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27"/>
@@ -1871,34 +1930,34 @@
     </row>
     <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="37"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38" t="s">
+      <c r="E30" s="23"/>
+      <c r="F30" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="39"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
@@ -2154,40 +2213,42 @@
       <c r="A50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="30"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="21"/>
     </row>
     <row r="53" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="37"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="15"/>
-      <c r="D54" s="37" t="s">
+      <c r="D54" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="37"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="39"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="25"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="28"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="29"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
@@ -2220,7 +2281,9 @@
         <v>1</v>
       </c>
       <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
+      <c r="C57" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="D57" s="6"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
@@ -2232,7 +2295,9 @@
         <v>2</v>
       </c>
       <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
+      <c r="C58" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="D58" s="6"/>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
@@ -2244,7 +2309,9 @@
         <v>3</v>
       </c>
       <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
+      <c r="C59" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="D59" s="6"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
@@ -2256,7 +2323,9 @@
         <v>4</v>
       </c>
       <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
+      <c r="C60" s="19" t="s">
+        <v>103</v>
+      </c>
       <c r="D60" s="6"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -2268,7 +2337,9 @@
         <v>5</v>
       </c>
       <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
+      <c r="C61" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="D61" s="6"/>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
@@ -2280,7 +2351,9 @@
         <v>6</v>
       </c>
       <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
+      <c r="C62" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="D62" s="6"/>
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
@@ -2292,7 +2365,9 @@
         <v>7</v>
       </c>
       <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
+      <c r="C63" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="D63" s="6"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
@@ -2304,7 +2379,7 @@
         <v>8</v>
       </c>
       <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="6"/>
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
@@ -2423,40 +2498,42 @@
       <c r="A74" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="30"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="21"/>
     </row>
     <row r="77" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="36" t="s">
+      <c r="A78" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="37"/>
+      <c r="B78" s="23"/>
       <c r="C78" s="16"/>
-      <c r="D78" s="37" t="s">
+      <c r="D78" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E78" s="37"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="39"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="25"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="26"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="28"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="29"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
@@ -2489,7 +2566,9 @@
         <v>1</v>
       </c>
       <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
+      <c r="C81" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="D81" s="17"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
@@ -2501,7 +2580,9 @@
         <v>2</v>
       </c>
       <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
+      <c r="C82" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
@@ -2513,7 +2594,9 @@
         <v>3</v>
       </c>
       <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
+      <c r="C83" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="D83" s="17"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
@@ -2525,7 +2608,9 @@
         <v>4</v>
       </c>
       <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
+      <c r="C84" s="17" t="s">
+        <v>111</v>
+      </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
@@ -2537,7 +2622,9 @@
         <v>5</v>
       </c>
       <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
+      <c r="C85" s="17" t="s">
+        <v>113</v>
+      </c>
       <c r="D85" s="17"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
@@ -2692,40 +2779,40 @@
       <c r="A98" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="30"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="21"/>
     </row>
     <row r="101" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="36" t="s">
+      <c r="A102" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B102" s="37"/>
+      <c r="B102" s="23"/>
       <c r="C102" s="16"/>
-      <c r="D102" s="37" t="s">
+      <c r="D102" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E102" s="37"/>
-      <c r="F102" s="38"/>
-      <c r="G102" s="38"/>
-      <c r="H102" s="39"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="25"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="25" t="s">
+      <c r="A103" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="26"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="28"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="29"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
@@ -2961,40 +3048,18 @@
       <c r="A122" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B122" s="29"/>
-      <c r="C122" s="29"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="29"/>
-      <c r="H122" s="30"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B122:H122"/>
-    <mergeCell ref="B98:H98"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:H5"/>
@@ -3003,8 +3068,30 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="B122:H122"/>
+    <mergeCell ref="B98:H98"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:H103"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3042,30 +3129,30 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
@@ -3301,22 +3388,22 @@
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C22:I22"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:I3"/>
-    <mergeCell ref="C22:I22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문서 관리/04. 테이블정의서.xlsx
+++ b/문서 관리/04. 테이블정의서.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIG603-03\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIG603-03\Desktop\문서 버전관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="테이블 정의서" sheetId="1" r:id="rId1"/>
     <sheet name="테이블 양식" sheetId="5" r:id="rId2"/>
     <sheet name="비고" sheetId="4" r:id="rId3"/>
   </sheets>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="326">
   <si>
     <t>작성자</t>
   </si>
@@ -363,10 +363,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시글 고유번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>제목</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -524,13 +520,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시글 고유번호</t>
-  </si>
-  <si>
-    <t>게시글 고유번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>제목</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -638,10 +627,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시글 고유번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>회원고유번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -749,10 +734,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시판 상담 게시글 고유번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>미완성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -913,26 +894,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>좋아요 이모티콘 카운트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유익해요 이모티콘 카운트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천해요 이모티콘 카운트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>useful_emo_cnt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>recm_emo_cnt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -997,10 +958,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>board_cd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시판 구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1049,153 +1006,277 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>result_cd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_cd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWeetBoard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스윗게시판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스윗게시판 게시글 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweet_board_cd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_cd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_yn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_yn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rep_img_yn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_div</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SweetComm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comm_cd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comm_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori_comm_cd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReserveSchedule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 일정 관리 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve_schedule_cd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_dt</t>
+  </si>
+  <si>
+    <t>reg_dt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mod_dt</t>
+  </si>
+  <si>
+    <t>mod_dt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReserveApply</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 일정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 신청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 신청 관리 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve_apply_cd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve_dt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cons_div</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>canc_dt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료된 상담 내용 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompCons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cons_cd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 고유번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약신청 고유번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청자회원 고유번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약일정 고유번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cons_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 요청 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cons_req_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>like_cnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>useful_cnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recm_cnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요 카운트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유익해요 카운트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천해요 카운트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>마음건강검사 결과 데이터 테이블</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>result_cd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>majorC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>midC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>subC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>result_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_cd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWeetBoard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스윗게시판</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스윗게시판 게시글 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sweet_board_cd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem_cd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>del_yn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_yn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rep_img_yn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_div</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 구분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nice_emo_cnt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SweetComm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>comm_cd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>comm_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ori_comm_cd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReserveSchedule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 일정 관리 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>reserve_schedule_cd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>reg_dt</t>
-  </si>
-  <si>
-    <t>reg_dt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mod_dt</t>
-  </si>
-  <si>
-    <t>mod_dt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>reserve_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>reserve_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReserveApply</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 일정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 신청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 신청 관리 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>reserve_apply_cd</t>
+    <t>major_div</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid_div</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>minor_div</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판상담 고유번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_cons_cd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판상담 고유번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 상담 고유번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판상담 고유번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>like_cnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요 카운트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스윗게시판 댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스윗게시판 고유번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1203,71 +1284,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>state</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cons_div</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>canc_dt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담 완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료된 상담 내용 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CompCons</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cons_cd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담 고유번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약신청 고유번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청자회원 고유번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약일정 고유번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cons_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담 요청 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cons_req_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
+    <t>스윗게시판 고유번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1363,7 +1388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1397,12 +1422,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1862,9 +1881,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1873,6 +1889,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1902,12 +1921,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1961,8 +1974,14 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2273,7 +2292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -2289,74 +2308,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="53"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -2401,7 +2420,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>63</v>
+        <v>324</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
@@ -2477,14 +2496,14 @@
         <v>5</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>65</v>
@@ -2499,14 +2518,14 @@
         <v>6</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>65</v>
@@ -2519,7 +2538,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>38</v>
@@ -2539,7 +2558,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>37</v>
@@ -2559,7 +2578,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>36</v>
@@ -2679,14 +2698,14 @@
         <v>15</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>65</v>
@@ -2759,14 +2778,14 @@
         <v>19</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>65</v>
@@ -2822,18 +2841,18 @@
         <v>1</v>
       </c>
       <c r="B30" s="34"/>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="58" t="s">
         <v>78</v>
       </c>
       <c r="D30" s="34" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="34"/>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="60"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
@@ -2841,7 +2860,7 @@
       </c>
       <c r="B31" s="38"/>
       <c r="C31" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
@@ -2886,10 +2905,10 @@
         <v>85</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>95</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>63</v>
@@ -2908,10 +2927,10 @@
         <v>81</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>63</v>
@@ -2931,7 +2950,7 @@
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>67</v>
@@ -2951,7 +2970,7 @@
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F36" s="17" t="s">
         <v>67</v>
@@ -2971,7 +2990,7 @@
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F37" s="17" t="s">
         <v>65</v>
@@ -3058,14 +3077,14 @@
       </c>
       <c r="B46" s="34"/>
       <c r="C46" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D46" s="34" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="34"/>
       <c r="F46" s="35" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G46" s="35"/>
       <c r="H46" s="36"/>
@@ -3076,7 +3095,7 @@
       </c>
       <c r="B47" s="38"/>
       <c r="C47" s="39" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D47" s="39"/>
       <c r="E47" s="39"/>
@@ -3115,16 +3134,16 @@
         <v>1</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F49" s="21" t="s">
         <v>63</v>
@@ -3137,16 +3156,16 @@
         <v>2</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F50" s="21" t="s">
         <v>63</v>
@@ -3159,16 +3178,16 @@
         <v>3</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F51" s="21" t="s">
         <v>63</v>
@@ -3181,17 +3200,17 @@
         <v>4</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>65</v>
+        <v>325</v>
       </c>
       <c r="G52" s="21"/>
       <c r="H52" s="22"/>
@@ -3287,14 +3306,14 @@
       </c>
       <c r="B62" s="34"/>
       <c r="C62" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D62" s="34" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="34"/>
       <c r="F62" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G62" s="35"/>
       <c r="H62" s="36"/>
@@ -3305,7 +3324,7 @@
       </c>
       <c r="B63" s="38"/>
       <c r="C63" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D63" s="39"/>
       <c r="E63" s="39"/>
@@ -3344,16 +3363,16 @@
         <v>1</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F65" s="17" t="s">
         <v>63</v>
@@ -3366,16 +3385,16 @@
         <v>2</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D66" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>120</v>
       </c>
       <c r="F66" s="17" t="s">
         <v>63</v>
@@ -3388,14 +3407,14 @@
         <v>3</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F67" s="17" t="s">
         <v>65</v>
@@ -3408,14 +3427,14 @@
         <v>4</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>65</v>
@@ -3428,17 +3447,17 @@
         <v>5</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="7"/>
@@ -3448,14 +3467,14 @@
         <v>6</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F70" s="17" t="s">
         <v>67</v>
@@ -3468,14 +3487,14 @@
         <v>7</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F71" s="17" t="s">
         <v>67</v>
@@ -3487,15 +3506,15 @@
       <c r="A72" s="1">
         <v>8</v>
       </c>
-      <c r="B72" s="29" t="s">
-        <v>277</v>
+      <c r="B72" s="28" t="s">
+        <v>262</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F72" s="17" t="s">
         <v>65</v>
@@ -3507,15 +3526,15 @@
       <c r="A73" s="1">
         <v>9</v>
       </c>
-      <c r="B73" s="29" t="s">
-        <v>278</v>
+      <c r="B73" s="28" t="s">
+        <v>263</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F73" s="17" t="s">
         <v>65</v>
@@ -3554,14 +3573,14 @@
       </c>
       <c r="B78" s="34"/>
       <c r="C78" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D78" s="34" t="s">
         <v>2</v>
       </c>
       <c r="E78" s="34"/>
       <c r="F78" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G78" s="35"/>
       <c r="H78" s="36"/>
@@ -3572,7 +3591,7 @@
       </c>
       <c r="B79" s="38"/>
       <c r="C79" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D79" s="39"/>
       <c r="E79" s="39"/>
@@ -3611,16 +3630,16 @@
         <v>1</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F81" s="17" t="s">
         <v>63</v>
@@ -3632,15 +3651,15 @@
       <c r="A82" s="1">
         <v>2</v>
       </c>
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="C82" s="28" t="s">
         <v>45</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F82" s="17" t="s">
         <v>65</v>
@@ -3652,15 +3671,15 @@
       <c r="A83" s="1">
         <v>3</v>
       </c>
-      <c r="B83" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C83" s="29" t="s">
-        <v>112</v>
+      <c r="B83" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>111</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F83" s="17" t="s">
         <v>65</v>
@@ -3672,15 +3691,15 @@
       <c r="A84" s="1">
         <v>4</v>
       </c>
-      <c r="B84" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C84" s="29" t="s">
-        <v>113</v>
+      <c r="B84" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>112</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F84" s="17" t="s">
         <v>65</v>
@@ -3692,15 +3711,15 @@
       <c r="A85" s="1">
         <v>5</v>
       </c>
-      <c r="B85" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C85" s="29" t="s">
-        <v>114</v>
+      <c r="B85" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" s="28" t="s">
+        <v>113</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F85" s="17" t="s">
         <v>65</v>
@@ -3712,17 +3731,17 @@
       <c r="A86" s="1">
         <v>6</v>
       </c>
-      <c r="B86" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C86" s="29" t="s">
-        <v>189</v>
+      <c r="B86" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>316</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F86" s="17" t="s">
         <v>63</v>
@@ -3881,19 +3900,19 @@
       </c>
       <c r="B101" s="34"/>
       <c r="C101" s="16" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D101" s="34" t="s">
         <v>2</v>
       </c>
       <c r="E101" s="34"/>
       <c r="F101" s="35" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G101" s="35"/>
       <c r="H101" s="36"/>
-      <c r="I101" s="60" t="s">
-        <v>190</v>
+      <c r="I101" s="30" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -3902,7 +3921,7 @@
       </c>
       <c r="B102" s="38"/>
       <c r="C102" s="39" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D102" s="39"/>
       <c r="E102" s="39"/>
@@ -3942,7 +3961,7 @@
       </c>
       <c r="B104" s="17"/>
       <c r="C104" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="17"/>
@@ -4077,14 +4096,14 @@
       </c>
       <c r="B117" s="34"/>
       <c r="C117" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D117" s="34" t="s">
         <v>2</v>
       </c>
       <c r="E117" s="34"/>
       <c r="F117" s="35" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G117" s="35"/>
       <c r="H117" s="36"/>
@@ -4095,7 +4114,7 @@
       </c>
       <c r="B118" s="38"/>
       <c r="C118" s="39" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D118" s="39"/>
       <c r="E118" s="39"/>
@@ -4134,16 +4153,16 @@
         <v>1</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E120" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F120" s="21" t="s">
         <v>63</v>
@@ -4156,14 +4175,14 @@
         <v>2</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D121" s="21"/>
       <c r="E121" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F121" s="21" t="s">
         <v>65</v>
@@ -4176,14 +4195,14 @@
         <v>3</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D122" s="21"/>
       <c r="E122" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F122" s="21" t="s">
         <v>65</v>
@@ -4196,14 +4215,14 @@
         <v>4</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D123" s="21"/>
       <c r="E123" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F123" s="21" t="s">
         <v>65</v>
@@ -4216,14 +4235,14 @@
         <v>5</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D124" s="21"/>
       <c r="E124" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F124" s="21" t="s">
         <v>65</v>
@@ -4236,14 +4255,14 @@
         <v>6</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D125" s="21"/>
       <c r="E125" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F125" s="21" t="s">
         <v>65</v>
@@ -4256,14 +4275,14 @@
         <v>7</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D126" s="21"/>
       <c r="E126" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F126" s="21" t="s">
         <v>65</v>
@@ -4276,14 +4295,14 @@
         <v>8</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D127" s="21"/>
       <c r="E127" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F127" s="21" t="s">
         <v>65</v>
@@ -4334,14 +4353,14 @@
       </c>
       <c r="B133" s="34"/>
       <c r="C133" s="20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D133" s="34" t="s">
         <v>2</v>
       </c>
       <c r="E133" s="34"/>
       <c r="F133" s="35" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G133" s="35"/>
       <c r="H133" s="36"/>
@@ -4352,7 +4371,7 @@
       </c>
       <c r="B134" s="38"/>
       <c r="C134" s="39" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D134" s="39"/>
       <c r="E134" s="39"/>
@@ -4391,16 +4410,16 @@
         <v>1</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F136" s="21" t="s">
         <v>63</v>
@@ -4413,14 +4432,14 @@
         <v>2</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D137" s="21"/>
       <c r="E137" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F137" s="21" t="s">
         <v>65</v>
@@ -4433,14 +4452,14 @@
         <v>3</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D138" s="21"/>
       <c r="E138" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F138" s="21" t="s">
         <v>65</v>
@@ -4453,14 +4472,14 @@
         <v>4</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D139" s="21"/>
       <c r="E139" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F139" s="21" t="s">
         <v>65</v>
@@ -4559,14 +4578,14 @@
       </c>
       <c r="B149" s="34"/>
       <c r="C149" s="20" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D149" s="34" t="s">
         <v>2</v>
       </c>
       <c r="E149" s="34"/>
       <c r="F149" s="35" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G149" s="35"/>
       <c r="H149" s="36"/>
@@ -4577,7 +4596,7 @@
       </c>
       <c r="B150" s="38"/>
       <c r="C150" s="39" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D150" s="39"/>
       <c r="E150" s="39"/>
@@ -4616,16 +4635,16 @@
         <v>1</v>
       </c>
       <c r="B152" s="21" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D152" s="21" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E152" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F152" s="21" t="s">
         <v>63</v>
@@ -4638,14 +4657,14 @@
         <v>2</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D153" s="21"/>
       <c r="E153" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F153" s="21" t="s">
         <v>65</v>
@@ -4658,17 +4677,17 @@
         <v>3</v>
       </c>
       <c r="B154" s="21" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D154" s="21"/>
       <c r="E154" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F154" s="21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G154" s="21"/>
       <c r="H154" s="22"/>
@@ -4677,15 +4696,15 @@
       <c r="A155" s="1">
         <v>4</v>
       </c>
-      <c r="B155" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="C155" s="29" t="s">
-        <v>100</v>
+      <c r="B155" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C155" s="28" t="s">
+        <v>99</v>
       </c>
       <c r="D155" s="21"/>
       <c r="E155" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F155" s="21" t="s">
         <v>67</v>
@@ -4697,15 +4716,15 @@
       <c r="A156" s="1">
         <v>5</v>
       </c>
-      <c r="B156" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="C156" s="29" t="s">
-        <v>101</v>
+      <c r="B156" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C156" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="D156" s="21"/>
       <c r="E156" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F156" s="21" t="s">
         <v>67</v>
@@ -4718,7 +4737,7 @@
         <v>6</v>
       </c>
       <c r="B157" s="21"/>
-      <c r="C157" s="29"/>
+      <c r="C157" s="28"/>
       <c r="D157" s="21"/>
       <c r="E157" s="21"/>
       <c r="F157" s="21"/>
@@ -4730,7 +4749,7 @@
         <v>7</v>
       </c>
       <c r="B158" s="21"/>
-      <c r="C158" s="29"/>
+      <c r="C158" s="28"/>
       <c r="D158" s="21"/>
       <c r="E158" s="21"/>
       <c r="F158" s="21"/>
@@ -4791,15 +4810,15 @@
         <v>1</v>
       </c>
       <c r="B165" s="34"/>
-      <c r="C165" s="28" t="s">
-        <v>223</v>
+      <c r="C165" s="27" t="s">
+        <v>218</v>
       </c>
       <c r="D165" s="34" t="s">
         <v>2</v>
       </c>
       <c r="E165" s="34"/>
       <c r="F165" s="35" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G165" s="35"/>
       <c r="H165" s="36"/>
@@ -4810,7 +4829,7 @@
       </c>
       <c r="B166" s="38"/>
       <c r="C166" s="39" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D166" s="39"/>
       <c r="E166" s="39"/>
@@ -4848,187 +4867,187 @@
       <c r="A168" s="1">
         <v>1</v>
       </c>
-      <c r="B168" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="C168" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="D168" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="E168" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F168" s="29" t="s">
+      <c r="B168" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C168" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D168" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E168" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F168" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G168" s="29"/>
-      <c r="H168" s="30"/>
+      <c r="G168" s="28"/>
+      <c r="H168" s="29"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>2</v>
       </c>
-      <c r="B169" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="C169" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D169" s="29"/>
-      <c r="E169" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F169" s="29" t="s">
+      <c r="B169" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C169" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D169" s="28"/>
+      <c r="E169" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F169" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="G169" s="29"/>
-      <c r="H169" s="30"/>
+      <c r="G169" s="28"/>
+      <c r="H169" s="29"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>3</v>
       </c>
-      <c r="B170" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="C170" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D170" s="29"/>
-      <c r="E170" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F170" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="G170" s="29"/>
-      <c r="H170" s="30"/>
+      <c r="B170" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C170" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D170" s="28"/>
+      <c r="E170" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F170" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="G170" s="28"/>
+      <c r="H170" s="29"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>4</v>
       </c>
-      <c r="B171" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="C171" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D171" s="29"/>
-      <c r="E171" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F171" s="29" t="s">
+      <c r="B171" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C171" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D171" s="28"/>
+      <c r="E171" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F171" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="G171" s="29"/>
-      <c r="H171" s="30"/>
+      <c r="G171" s="28"/>
+      <c r="H171" s="29"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>5</v>
       </c>
-      <c r="B172" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="C172" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D172" s="29"/>
-      <c r="E172" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F172" s="29" t="s">
+      <c r="B172" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C172" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D172" s="28"/>
+      <c r="E172" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F172" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="G172" s="29"/>
-      <c r="H172" s="30"/>
+      <c r="G172" s="28"/>
+      <c r="H172" s="29"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>6</v>
       </c>
-      <c r="B173" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="C173" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="D173" s="29"/>
-      <c r="E173" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F173" s="29" t="s">
+      <c r="B173" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="C173" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="D173" s="28"/>
+      <c r="E173" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F173" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G173" s="29"/>
-      <c r="H173" s="30"/>
+      <c r="G173" s="28"/>
+      <c r="H173" s="29"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>7</v>
       </c>
-      <c r="B174" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="C174" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="D174" s="29"/>
-      <c r="E174" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F174" s="29" t="s">
+      <c r="B174" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C174" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="D174" s="28"/>
+      <c r="E174" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F174" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G174" s="29"/>
-      <c r="H174" s="30"/>
+      <c r="G174" s="28"/>
+      <c r="H174" s="29"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>8</v>
       </c>
-      <c r="B175" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="C175" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="D175" s="29"/>
-      <c r="E175" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F175" s="29" t="s">
+      <c r="B175" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="C175" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="D175" s="28"/>
+      <c r="E175" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F175" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G175" s="29"/>
-      <c r="H175" s="30"/>
+      <c r="G175" s="28"/>
+      <c r="H175" s="29"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>9</v>
       </c>
-      <c r="B176" s="29"/>
-      <c r="C176" s="29"/>
-      <c r="D176" s="29"/>
-      <c r="E176" s="29"/>
-      <c r="F176" s="29"/>
-      <c r="G176" s="29"/>
-      <c r="H176" s="30"/>
+      <c r="B176" s="28"/>
+      <c r="C176" s="28"/>
+      <c r="D176" s="28"/>
+      <c r="E176" s="28"/>
+      <c r="F176" s="28"/>
+      <c r="G176" s="28"/>
+      <c r="H176" s="29"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>10</v>
       </c>
-      <c r="B177" s="29"/>
-      <c r="C177" s="29"/>
-      <c r="D177" s="29"/>
-      <c r="E177" s="29"/>
-      <c r="F177" s="29"/>
-      <c r="G177" s="29"/>
-      <c r="H177" s="30"/>
+      <c r="B177" s="28"/>
+      <c r="C177" s="28"/>
+      <c r="D177" s="28"/>
+      <c r="E177" s="28"/>
+      <c r="F177" s="28"/>
+      <c r="G177" s="28"/>
+      <c r="H177" s="29"/>
     </row>
     <row r="178" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
@@ -5049,14 +5068,14 @@
       </c>
       <c r="B180" s="34"/>
       <c r="C180" s="20" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D180" s="34" t="s">
         <v>2</v>
       </c>
       <c r="E180" s="34"/>
       <c r="F180" s="35" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G180" s="35"/>
       <c r="H180" s="36"/>
@@ -5067,7 +5086,7 @@
       </c>
       <c r="B181" s="38"/>
       <c r="C181" s="39" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D181" s="39"/>
       <c r="E181" s="39"/>
@@ -5106,16 +5125,16 @@
         <v>1</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="C183" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="D183" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="E183" s="29" t="s">
-        <v>95</v>
+        <v>238</v>
+      </c>
+      <c r="C183" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="D183" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E183" s="28" t="s">
+        <v>94</v>
       </c>
       <c r="F183" s="21" t="s">
         <v>63</v>
@@ -5128,14 +5147,14 @@
         <v>2</v>
       </c>
       <c r="B184" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="C184" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="D184" s="29"/>
-      <c r="E184" s="29" t="s">
-        <v>96</v>
+        <v>237</v>
+      </c>
+      <c r="C184" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D184" s="28"/>
+      <c r="E184" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="F184" s="21" t="s">
         <v>65</v>
@@ -5148,14 +5167,14 @@
         <v>3</v>
       </c>
       <c r="B185" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="C185" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="D185" s="29"/>
-      <c r="E185" s="29" t="s">
-        <v>96</v>
+        <v>239</v>
+      </c>
+      <c r="C185" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="D185" s="28"/>
+      <c r="E185" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="F185" s="21" t="s">
         <v>65</v>
@@ -5168,14 +5187,14 @@
         <v>4</v>
       </c>
       <c r="B186" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="C186" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="D186" s="29"/>
-      <c r="E186" s="29" t="s">
-        <v>96</v>
+        <v>240</v>
+      </c>
+      <c r="C186" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="D186" s="28"/>
+      <c r="E186" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="F186" s="21" t="s">
         <v>65</v>
@@ -5188,14 +5207,14 @@
         <v>5</v>
       </c>
       <c r="B187" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="C187" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="D187" s="29"/>
-      <c r="E187" s="29" t="s">
-        <v>96</v>
+        <v>264</v>
+      </c>
+      <c r="C187" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D187" s="28"/>
+      <c r="E187" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="F187" s="21" t="s">
         <v>65</v>
@@ -5208,16 +5227,16 @@
         <v>6</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="C188" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D188" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="E188" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C188" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="D188" s="28" t="s">
         <v>96</v>
+      </c>
+      <c r="E188" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="F188" s="21" t="s">
         <v>63</v>
@@ -5230,14 +5249,14 @@
         <v>7</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D189" s="21"/>
       <c r="E189" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F189" s="21" t="s">
         <v>65</v>
@@ -5299,15 +5318,15 @@
         <v>1</v>
       </c>
       <c r="B195" s="34"/>
-      <c r="C195" s="28" t="s">
-        <v>239</v>
+      <c r="C195" s="27" t="s">
+        <v>229</v>
       </c>
       <c r="D195" s="34" t="s">
         <v>2</v>
       </c>
       <c r="E195" s="34"/>
       <c r="F195" s="35" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G195" s="35"/>
       <c r="H195" s="36"/>
@@ -5318,7 +5337,7 @@
       </c>
       <c r="B196" s="38"/>
       <c r="C196" s="39" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D196" s="39"/>
       <c r="E196" s="39"/>
@@ -5356,163 +5375,163 @@
       <c r="A198" s="1">
         <v>1</v>
       </c>
-      <c r="B198" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="C198" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="D198" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="E198" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F198" s="29"/>
-      <c r="G198" s="29"/>
-      <c r="H198" s="30"/>
+      <c r="B198" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C198" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="D198" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E198" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F198" s="28"/>
+      <c r="G198" s="28"/>
+      <c r="H198" s="29"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>2</v>
       </c>
-      <c r="B199" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="C199" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="D199" s="29"/>
-      <c r="E199" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F199" s="29"/>
-      <c r="G199" s="29"/>
-      <c r="H199" s="30"/>
+      <c r="B199" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="C199" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="D199" s="28"/>
+      <c r="E199" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F199" s="28"/>
+      <c r="G199" s="28"/>
+      <c r="H199" s="29"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>3</v>
       </c>
-      <c r="B200" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="C200" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="D200" s="29"/>
-      <c r="E200" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F200" s="29"/>
-      <c r="G200" s="29"/>
-      <c r="H200" s="30"/>
+      <c r="B200" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C200" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D200" s="28"/>
+      <c r="E200" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F200" s="28"/>
+      <c r="G200" s="28"/>
+      <c r="H200" s="29"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>4</v>
       </c>
-      <c r="B201" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="C201" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="D201" s="29"/>
-      <c r="E201" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F201" s="29"/>
-      <c r="G201" s="29"/>
-      <c r="H201" s="30"/>
+      <c r="B201" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C201" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="D201" s="28"/>
+      <c r="E201" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F201" s="28"/>
+      <c r="G201" s="28"/>
+      <c r="H201" s="29"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>5</v>
       </c>
-      <c r="B202" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="C202" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D202" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="E202" s="29" t="s">
+      <c r="B202" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C202" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="D202" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="F202" s="29"/>
-      <c r="G202" s="29"/>
-      <c r="H202" s="30"/>
+      <c r="E202" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F202" s="28"/>
+      <c r="G202" s="28"/>
+      <c r="H202" s="29"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>6</v>
       </c>
-      <c r="B203" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="C203" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="D203" s="29"/>
-      <c r="E203" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F203" s="29" t="s">
+      <c r="B203" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C203" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D203" s="28"/>
+      <c r="E203" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F203" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="G203" s="29"/>
-      <c r="H203" s="30"/>
+      <c r="G203" s="28"/>
+      <c r="H203" s="29"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>7</v>
       </c>
-      <c r="B204" s="29"/>
-      <c r="C204" s="29"/>
-      <c r="D204" s="29"/>
-      <c r="E204" s="29"/>
-      <c r="F204" s="29"/>
-      <c r="G204" s="29"/>
-      <c r="H204" s="30"/>
+      <c r="B204" s="28"/>
+      <c r="C204" s="28"/>
+      <c r="D204" s="28"/>
+      <c r="E204" s="28"/>
+      <c r="F204" s="28"/>
+      <c r="G204" s="28"/>
+      <c r="H204" s="29"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>8</v>
       </c>
-      <c r="B205" s="29"/>
-      <c r="C205" s="29"/>
-      <c r="D205" s="29"/>
-      <c r="E205" s="29"/>
-      <c r="F205" s="29"/>
-      <c r="G205" s="29"/>
-      <c r="H205" s="30"/>
+      <c r="B205" s="28"/>
+      <c r="C205" s="28"/>
+      <c r="D205" s="28"/>
+      <c r="E205" s="28"/>
+      <c r="F205" s="28"/>
+      <c r="G205" s="28"/>
+      <c r="H205" s="29"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>9</v>
       </c>
-      <c r="B206" s="29"/>
-      <c r="C206" s="29"/>
-      <c r="D206" s="29"/>
-      <c r="E206" s="29"/>
-      <c r="F206" s="29"/>
-      <c r="G206" s="29"/>
-      <c r="H206" s="30"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="28"/>
+      <c r="D206" s="28"/>
+      <c r="E206" s="28"/>
+      <c r="F206" s="28"/>
+      <c r="G206" s="28"/>
+      <c r="H206" s="29"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>10</v>
       </c>
-      <c r="B207" s="29"/>
-      <c r="C207" s="29"/>
-      <c r="D207" s="29"/>
-      <c r="E207" s="29"/>
-      <c r="F207" s="29"/>
-      <c r="G207" s="29"/>
-      <c r="H207" s="30"/>
+      <c r="B207" s="28"/>
+      <c r="C207" s="28"/>
+      <c r="D207" s="28"/>
+      <c r="E207" s="28"/>
+      <c r="F207" s="28"/>
+      <c r="G207" s="28"/>
+      <c r="H207" s="29"/>
     </row>
     <row r="208" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
@@ -5533,14 +5552,14 @@
       </c>
       <c r="B210" s="34"/>
       <c r="C210" s="20" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D210" s="34" t="s">
         <v>2</v>
       </c>
       <c r="E210" s="34"/>
       <c r="F210" s="35" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="G210" s="35"/>
       <c r="H210" s="36"/>
@@ -5551,7 +5570,7 @@
       </c>
       <c r="B211" s="38"/>
       <c r="C211" s="39" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c r="D211" s="39"/>
       <c r="E211" s="39"/>
@@ -5590,16 +5609,16 @@
         <v>1</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E213" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F213" s="21" t="s">
         <v>63</v>
@@ -5612,14 +5631,14 @@
         <v>2</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="C214" s="21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D214" s="21"/>
-      <c r="E214" s="29" t="s">
-        <v>96</v>
+      <c r="E214" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="F214" s="21" t="s">
         <v>65</v>
@@ -5632,14 +5651,14 @@
         <v>3</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="C215" s="21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D215" s="21"/>
-      <c r="E215" s="29" t="s">
-        <v>96</v>
+      <c r="E215" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="F215" s="21" t="s">
         <v>65</v>
@@ -5652,14 +5671,14 @@
         <v>4</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="C216" s="21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D216" s="21"/>
-      <c r="E216" s="29" t="s">
-        <v>96</v>
+      <c r="E216" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="F216" s="21" t="s">
         <v>65</v>
@@ -5672,17 +5691,17 @@
         <v>5</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C217" s="21" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D217" s="21"/>
-      <c r="E217" s="29" t="s">
-        <v>96</v>
+      <c r="E217" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="F217" s="21" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="G217" s="21"/>
       <c r="H217" s="22"/>
@@ -5692,16 +5711,16 @@
         <v>6</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C218" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E218" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F218" s="21" t="s">
         <v>63</v>
@@ -5776,14 +5795,14 @@
       </c>
       <c r="B226" s="34"/>
       <c r="C226" s="20" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D226" s="34" t="s">
         <v>2</v>
       </c>
       <c r="E226" s="34"/>
       <c r="F226" s="35" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="G226" s="35"/>
       <c r="H226" s="36"/>
@@ -5794,7 +5813,7 @@
       </c>
       <c r="B227" s="38"/>
       <c r="C227" s="39" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D227" s="39"/>
       <c r="E227" s="39"/>
@@ -5833,16 +5852,16 @@
         <v>1</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C229" s="21" t="s">
-        <v>131</v>
+        <v>323</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>205</v>
+        <v>51</v>
       </c>
       <c r="E229" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F229" s="21" t="s">
         <v>63</v>
@@ -5855,14 +5874,14 @@
         <v>2</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C230" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D230" s="21"/>
       <c r="E230" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F230" s="21" t="s">
         <v>65</v>
@@ -5875,17 +5894,17 @@
         <v>3</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C231" s="21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D231" s="21"/>
       <c r="E231" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F231" s="21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G231" s="21"/>
       <c r="H231" s="22"/>
@@ -5895,16 +5914,16 @@
         <v>4</v>
       </c>
       <c r="B232" s="21" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C232" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E232" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F232" s="21" t="s">
         <v>63</v>
@@ -5916,15 +5935,15 @@
       <c r="A233" s="1">
         <v>5</v>
       </c>
-      <c r="B233" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="C233" s="29" t="s">
-        <v>100</v>
+      <c r="B233" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C233" s="28" t="s">
+        <v>99</v>
       </c>
       <c r="D233" s="21"/>
-      <c r="E233" s="29" t="s">
-        <v>96</v>
+      <c r="E233" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="F233" s="21" t="s">
         <v>67</v>
@@ -5936,15 +5955,15 @@
       <c r="A234" s="1">
         <v>6</v>
       </c>
-      <c r="B234" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="C234" s="29" t="s">
-        <v>101</v>
+      <c r="B234" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C234" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="D234" s="21"/>
-      <c r="E234" s="29" t="s">
-        <v>96</v>
+      <c r="E234" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="F234" s="21" t="s">
         <v>67</v>
@@ -5957,14 +5976,14 @@
         <v>7</v>
       </c>
       <c r="B235" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="C235" s="29" t="s">
-        <v>281</v>
+        <v>265</v>
+      </c>
+      <c r="C235" s="28" t="s">
+        <v>266</v>
       </c>
       <c r="D235" s="21"/>
-      <c r="E235" s="29" t="s">
-        <v>96</v>
+      <c r="E235" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="F235" s="21" t="s">
         <v>65</v>
@@ -5976,17 +5995,17 @@
       <c r="A236" s="1">
         <v>8</v>
       </c>
-      <c r="B236" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="C236" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="D236" s="29"/>
-      <c r="E236" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F236" s="29" t="s">
+      <c r="B236" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C236" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="D236" s="28"/>
+      <c r="E236" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F236" s="28" t="s">
         <v>63</v>
       </c>
       <c r="G236" s="21"/>
@@ -5997,14 +6016,14 @@
         <v>9</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C237" s="29" t="s">
-        <v>156</v>
+        <v>262</v>
+      </c>
+      <c r="C237" s="28" t="s">
+        <v>153</v>
       </c>
       <c r="D237" s="21"/>
       <c r="E237" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F237" s="21" t="s">
         <v>65</v>
@@ -6043,13 +6062,15 @@
       </c>
       <c r="B242" s="34"/>
       <c r="C242" s="20" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D242" s="34" t="s">
         <v>2</v>
       </c>
       <c r="E242" s="34"/>
-      <c r="F242" s="35"/>
+      <c r="F242" s="35" t="s">
+        <v>320</v>
+      </c>
       <c r="G242" s="35"/>
       <c r="H242" s="36"/>
     </row>
@@ -6059,7 +6080,7 @@
       </c>
       <c r="B243" s="38"/>
       <c r="C243" s="39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D243" s="39"/>
       <c r="E243" s="39"/>
@@ -6098,16 +6119,16 @@
         <v>1</v>
       </c>
       <c r="B245" s="21" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C245" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D245" s="21" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E245" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F245" s="21" t="s">
         <v>63</v>
@@ -6120,16 +6141,16 @@
         <v>2</v>
       </c>
       <c r="B246" s="21" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C246" s="21" t="s">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="D246" s="21" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E246" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F246" s="21" t="s">
         <v>63</v>
@@ -6142,16 +6163,16 @@
         <v>3</v>
       </c>
       <c r="B247" s="21" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C247" s="21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D247" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E247" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F247" s="21" t="s">
         <v>63</v>
@@ -6163,17 +6184,17 @@
       <c r="A248" s="1">
         <v>4</v>
       </c>
-      <c r="B248" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="C248" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D248" s="29"/>
-      <c r="E248" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F248" s="29" t="s">
+      <c r="B248" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C248" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D248" s="28"/>
+      <c r="E248" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F248" s="28" t="s">
         <v>67</v>
       </c>
       <c r="G248" s="21"/>
@@ -6183,17 +6204,17 @@
       <c r="A249" s="1">
         <v>5</v>
       </c>
-      <c r="B249" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="C249" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D249" s="29"/>
-      <c r="E249" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F249" s="29" t="s">
+      <c r="B249" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C249" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D249" s="28"/>
+      <c r="E249" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F249" s="28" t="s">
         <v>67</v>
       </c>
       <c r="G249" s="21"/>
@@ -6204,17 +6225,17 @@
         <v>6</v>
       </c>
       <c r="B250" s="21" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C250" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D250" s="21"/>
       <c r="E250" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F250" s="21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G250" s="21"/>
       <c r="H250" s="22"/>
@@ -6224,14 +6245,14 @@
         <v>7</v>
       </c>
       <c r="B251" s="21" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C251" s="21" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D251" s="21"/>
       <c r="E251" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F251" s="21" t="s">
         <v>65</v>
@@ -6244,16 +6265,16 @@
         <v>8</v>
       </c>
       <c r="B252" s="21" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="C252" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D252" s="29" t="s">
-        <v>188</v>
+        <v>159</v>
+      </c>
+      <c r="D252" s="28" t="s">
+        <v>184</v>
       </c>
       <c r="E252" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F252" s="21" t="s">
         <v>63</v>
@@ -6304,14 +6325,14 @@
       </c>
       <c r="B257" s="34"/>
       <c r="C257" s="23" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D257" s="34" t="s">
         <v>2</v>
       </c>
       <c r="E257" s="34"/>
       <c r="F257" s="35" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="G257" s="35"/>
       <c r="H257" s="36"/>
@@ -6322,7 +6343,7 @@
       </c>
       <c r="B258" s="38"/>
       <c r="C258" s="39" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D258" s="39"/>
       <c r="E258" s="39"/>
@@ -6361,16 +6382,16 @@
         <v>1</v>
       </c>
       <c r="B260" s="24" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C260" s="24" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D260" s="24" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E260" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F260" s="24" t="s">
         <v>63</v>
@@ -6383,14 +6404,14 @@
         <v>2</v>
       </c>
       <c r="B261" s="24" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="C261" s="24" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D261" s="24"/>
       <c r="E261" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F261" s="24" t="s">
         <v>67</v>
@@ -6403,14 +6424,14 @@
         <v>3</v>
       </c>
       <c r="B262" s="24" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C262" s="24" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D262" s="24"/>
       <c r="E262" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F262" s="24" t="s">
         <v>65</v>
@@ -6521,14 +6542,14 @@
       </c>
       <c r="B272" s="34"/>
       <c r="C272" s="23" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="D272" s="34" t="s">
         <v>2</v>
       </c>
       <c r="E272" s="34"/>
       <c r="F272" s="35" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="G272" s="35"/>
       <c r="H272" s="36"/>
@@ -6539,7 +6560,7 @@
       </c>
       <c r="B273" s="38"/>
       <c r="C273" s="39" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="D273" s="39"/>
       <c r="E273" s="39"/>
@@ -6578,16 +6599,16 @@
         <v>1</v>
       </c>
       <c r="B275" s="24" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C275" s="24" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="D275" s="24" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E275" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F275" s="24" t="s">
         <v>63</v>
@@ -6600,16 +6621,16 @@
         <v>2</v>
       </c>
       <c r="B276" s="24" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C276" s="24" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="D276" s="24" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="E276" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F276" s="24" t="s">
         <v>63</v>
@@ -6622,14 +6643,14 @@
         <v>3</v>
       </c>
       <c r="B277" s="24" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C277" s="24" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D277" s="24"/>
       <c r="E277" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F277" s="24" t="s">
         <v>67</v>
@@ -6642,14 +6663,14 @@
         <v>4</v>
       </c>
       <c r="B278" s="24" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="C278" s="24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D278" s="24"/>
       <c r="E278" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F278" s="24" t="s">
         <v>65</v>
@@ -6662,16 +6683,16 @@
         <v>5</v>
       </c>
       <c r="B279" s="24" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C279" s="24" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="D279" s="24" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E279" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F279" s="24" t="s">
         <v>63</v>
@@ -6684,14 +6705,14 @@
         <v>6</v>
       </c>
       <c r="B280" s="24" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C280" s="24" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D280" s="24"/>
       <c r="E280" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F280" s="24" t="s">
         <v>65</v>
@@ -6704,17 +6725,17 @@
         <v>7</v>
       </c>
       <c r="B281" s="24" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="C281" s="24" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="D281" s="24"/>
       <c r="E281" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F281" s="24" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G281" s="24"/>
       <c r="H281" s="25"/>
@@ -6724,14 +6745,14 @@
         <v>8</v>
       </c>
       <c r="B282" s="24" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C282" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D282" s="24"/>
       <c r="E282" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F282" s="24" t="s">
         <v>67</v>
@@ -6782,14 +6803,14 @@
       </c>
       <c r="B288" s="34"/>
       <c r="C288" s="23" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="D288" s="34" t="s">
         <v>2</v>
       </c>
       <c r="E288" s="34"/>
       <c r="F288" s="35" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="G288" s="35"/>
       <c r="H288" s="36"/>
@@ -6800,7 +6821,7 @@
       </c>
       <c r="B289" s="38"/>
       <c r="C289" s="39" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="D289" s="39"/>
       <c r="E289" s="39"/>
@@ -6839,16 +6860,16 @@
         <v>1</v>
       </c>
       <c r="B291" s="24" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C291" s="24" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="D291" s="24" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="E291" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F291" s="24" t="s">
         <v>63</v>
@@ -6861,16 +6882,16 @@
         <v>2</v>
       </c>
       <c r="B292" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="C292" s="29" t="s">
-        <v>312</v>
+        <v>284</v>
+      </c>
+      <c r="C292" s="28" t="s">
+        <v>295</v>
       </c>
       <c r="D292" s="24" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="E292" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F292" s="24" t="s">
         <v>63</v>
@@ -6883,17 +6904,17 @@
         <v>3</v>
       </c>
       <c r="B293" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="C293" s="29" t="s">
-        <v>169</v>
+        <v>298</v>
+      </c>
+      <c r="C293" s="28" t="s">
+        <v>165</v>
       </c>
       <c r="D293" s="24"/>
       <c r="E293" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F293" s="24" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G293" s="24"/>
       <c r="H293" s="25"/>
@@ -6903,7 +6924,7 @@
         <v>4</v>
       </c>
       <c r="B294" s="24"/>
-      <c r="C294" s="29"/>
+      <c r="C294" s="28"/>
       <c r="D294" s="24"/>
       <c r="E294" s="24"/>
       <c r="F294" s="24"/>
@@ -6996,12 +7017,9 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="B208:H208"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="F195:H195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="C196:H196"/>
+    <mergeCell ref="B223:H223"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="C211:H211"/>
     <mergeCell ref="B255:H255"/>
     <mergeCell ref="B239:H239"/>
     <mergeCell ref="A242:B242"/>
@@ -7014,24 +7032,6 @@
     <mergeCell ref="F226:H226"/>
     <mergeCell ref="A227:B227"/>
     <mergeCell ref="C227:H227"/>
-    <mergeCell ref="B223:H223"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B193:H193"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="F210:H210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="C211:H211"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="C181:H181"/>
     <mergeCell ref="B146:H146"/>
     <mergeCell ref="A149:B149"/>
     <mergeCell ref="D149:E149"/>
@@ -7041,6 +7041,21 @@
     <mergeCell ref="A165:B165"/>
     <mergeCell ref="D165:E165"/>
     <mergeCell ref="F165:H165"/>
+    <mergeCell ref="B193:H193"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="F210:H210"/>
+    <mergeCell ref="B162:H162"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:H181"/>
+    <mergeCell ref="B208:H208"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="F195:H195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="C196:H196"/>
     <mergeCell ref="A166:B166"/>
     <mergeCell ref="C166:H166"/>
     <mergeCell ref="B178:H178"/>
@@ -7065,6 +7080,10 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:H118"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="A133:B133"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="D62:E62"/>
@@ -7076,8 +7095,12 @@
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:H79"/>
     <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="C273:H273"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="B59:H59"/>
     <mergeCell ref="B114:H114"/>
     <mergeCell ref="B98:H98"/>
     <mergeCell ref="A101:B101"/>
@@ -7088,10 +7111,6 @@
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="D117:E117"/>
     <mergeCell ref="F117:H117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="A133:B133"/>
     <mergeCell ref="B301:H301"/>
     <mergeCell ref="A257:B257"/>
     <mergeCell ref="D257:E257"/>
@@ -7108,6 +7127,8 @@
     <mergeCell ref="A272:B272"/>
     <mergeCell ref="D272:E272"/>
     <mergeCell ref="F272:H272"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="C273:H273"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7137,9 +7158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -7448,9 +7467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -7496,7 +7513,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
@@ -7551,10 +7568,10 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/문서 관리/04. 테이블정의서.xlsx
+++ b/문서 관리/04. 테이블정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIG603-03\Desktop\문서 버전관리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\teamproject\문서 관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -198,10 +198,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>state</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>탈퇴일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1136,10 +1132,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>state</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cons_div</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1293,6 +1285,13 @@
   </si>
   <si>
     <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>status</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1893,10 +1892,25 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1909,18 +1923,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1972,9 +1974,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2308,74 +2307,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
       <c r="G2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49" t="s">
+      <c r="E4" s="49"/>
+      <c r="F4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -2414,13 +2413,13 @@
         <v>18</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
@@ -2437,10 +2436,10 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="17">
         <v>50</v>
@@ -2459,10 +2458,10 @@
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="17">
         <v>100</v>
@@ -2481,10 +2480,10 @@
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="17">
         <v>50</v>
@@ -2496,17 +2495,17 @@
         <v>5</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="17">
         <v>100</v>
@@ -2518,17 +2517,17 @@
         <v>6</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>132</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>133</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
@@ -2538,17 +2537,17 @@
         <v>7</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
@@ -2558,17 +2557,17 @@
         <v>8</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
@@ -2578,17 +2577,17 @@
         <v>9</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
@@ -2605,10 +2604,10 @@
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
@@ -2625,10 +2624,10 @@
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
@@ -2645,10 +2644,10 @@
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="18"/>
@@ -2665,10 +2664,10 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="18"/>
@@ -2685,10 +2684,10 @@
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="18"/>
@@ -2698,17 +2697,17 @@
         <v>15</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="22"/>
@@ -2725,10 +2724,10 @@
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="18"/>
@@ -2741,14 +2740,14 @@
         <v>43</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
@@ -2758,17 +2757,17 @@
         <v>18</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>47</v>
+        <v>324</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="7"/>
@@ -2778,17 +2777,17 @@
         <v>19</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -2801,14 +2800,14 @@
         <v>23</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
@@ -2817,13 +2816,13 @@
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28"/>
@@ -2837,36 +2836,36 @@
     </row>
     <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="58" t="s">
+      <c r="B30" s="39"/>
+      <c r="C30" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="39"/>
+      <c r="F30" s="59" t="s">
         <v>78</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="59" t="s">
-        <v>79</v>
       </c>
       <c r="G30" s="59"/>
       <c r="H30" s="60"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="40"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
@@ -2899,19 +2898,19 @@
         <v>1</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="D33" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>94</v>
-      </c>
       <c r="F33" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="7"/>
@@ -2921,19 +2920,19 @@
         <v>2</v>
       </c>
       <c r="B34" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>81</v>
-      </c>
       <c r="D34" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="7"/>
@@ -2943,17 +2942,17 @@
         <v>3</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="7"/>
@@ -2963,17 +2962,17 @@
         <v>4</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="7"/>
@@ -2983,17 +2982,17 @@
         <v>5</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>47</v>
+        <v>324</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="7"/>
@@ -3062,46 +3061,46 @@
       <c r="A43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="33"/>
     </row>
     <row r="45" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="34"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="39"/>
+      <c r="F46" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="D46" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="35" t="s">
+      <c r="G46" s="40"/>
+      <c r="H46" s="41"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="35"/>
+      <c r="C47" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="40"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="37"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
@@ -3134,19 +3133,19 @@
         <v>1</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="22"/>
@@ -3156,19 +3155,19 @@
         <v>2</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="21"/>
       <c r="H50" s="22"/>
@@ -3178,19 +3177,19 @@
         <v>3</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="22"/>
@@ -3200,17 +3199,17 @@
         <v>4</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G52" s="21"/>
       <c r="H52" s="22"/>
@@ -3291,46 +3290,46 @@
       <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="33"/>
     </row>
     <row r="61" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="34"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="39"/>
+      <c r="F62" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="D62" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="34"/>
-      <c r="F62" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="G62" s="35"/>
-      <c r="H62" s="36"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="41"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="37" t="s">
+      <c r="A63" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="38"/>
-      <c r="C63" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="40"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="37"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
@@ -3363,19 +3362,19 @@
         <v>1</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="7"/>
@@ -3385,19 +3384,19 @@
         <v>2</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D66" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E66" s="17" t="s">
-        <v>119</v>
-      </c>
       <c r="F66" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="7"/>
@@ -3407,17 +3406,17 @@
         <v>3</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="7"/>
@@ -3427,17 +3426,17 @@
         <v>4</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="7"/>
@@ -3447,17 +3446,17 @@
         <v>5</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="7"/>
@@ -3467,17 +3466,17 @@
         <v>6</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="7"/>
@@ -3487,17 +3486,17 @@
         <v>7</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="7"/>
@@ -3507,17 +3506,17 @@
         <v>8</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="7"/>
@@ -3527,17 +3526,17 @@
         <v>9</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="7"/>
@@ -3558,46 +3557,46 @@
       <c r="A75" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="32"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="33"/>
     </row>
     <row r="77" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="34"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D78" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E78" s="34"/>
-      <c r="F78" s="35" t="s">
+      <c r="E78" s="39"/>
+      <c r="F78" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G78" s="40"/>
+      <c r="H78" s="41"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="35"/>
+      <c r="C79" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="G78" s="35"/>
-      <c r="H78" s="36"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="38"/>
-      <c r="C79" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="40"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="37"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
@@ -3630,19 +3629,19 @@
         <v>1</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G81" s="17"/>
       <c r="H81" s="18"/>
@@ -3659,10 +3658,10 @@
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G82" s="17"/>
       <c r="H82" s="18"/>
@@ -3672,17 +3671,17 @@
         <v>3</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G83" s="17"/>
       <c r="H83" s="18"/>
@@ -3692,17 +3691,17 @@
         <v>4</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G84" s="17"/>
       <c r="H84" s="18"/>
@@ -3712,17 +3711,17 @@
         <v>5</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G85" s="17"/>
       <c r="H85" s="18"/>
@@ -3732,19 +3731,19 @@
         <v>6</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G86" s="17"/>
       <c r="H86" s="18"/>
@@ -3885,49 +3884,49 @@
       <c r="A98" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="31"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="32"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="33"/>
     </row>
     <row r="100" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="33" t="s">
+      <c r="A101" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="34"/>
+      <c r="B101" s="39"/>
       <c r="C101" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D101" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" s="39"/>
+      <c r="F101" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="D101" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E101" s="34"/>
-      <c r="F101" s="35" t="s">
+      <c r="G101" s="40"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="35"/>
+      <c r="C102" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="G101" s="35"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" s="38"/>
-      <c r="C102" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="40"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="37"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
@@ -3961,7 +3960,7 @@
       </c>
       <c r="B104" s="17"/>
       <c r="C104" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="17"/>
@@ -4081,46 +4080,46 @@
       <c r="A114" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B114" s="31"/>
-      <c r="C114" s="31"/>
-      <c r="D114" s="31"/>
-      <c r="E114" s="31"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="31"/>
-      <c r="H114" s="32"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="32"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="33"/>
     </row>
     <row r="116" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="33" t="s">
+      <c r="A117" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B117" s="34"/>
+      <c r="B117" s="39"/>
       <c r="C117" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D117" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D117" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E117" s="34"/>
-      <c r="F117" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="G117" s="35"/>
-      <c r="H117" s="36"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="G117" s="40"/>
+      <c r="H117" s="41"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="37" t="s">
+      <c r="A118" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="38"/>
-      <c r="C118" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="D118" s="39"/>
-      <c r="E118" s="39"/>
-      <c r="F118" s="39"/>
-      <c r="G118" s="39"/>
-      <c r="H118" s="40"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="37"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
@@ -4153,19 +4152,19 @@
         <v>1</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E120" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F120" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G120" s="21"/>
       <c r="H120" s="22"/>
@@ -4175,17 +4174,17 @@
         <v>2</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D121" s="21"/>
       <c r="E121" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F121" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G121" s="21"/>
       <c r="H121" s="22"/>
@@ -4195,17 +4194,17 @@
         <v>3</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D122" s="21"/>
       <c r="E122" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F122" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G122" s="21"/>
       <c r="H122" s="22"/>
@@ -4215,17 +4214,17 @@
         <v>4</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D123" s="21"/>
       <c r="E123" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F123" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G123" s="21"/>
       <c r="H123" s="22"/>
@@ -4235,17 +4234,17 @@
         <v>5</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D124" s="21"/>
       <c r="E124" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F124" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G124" s="21"/>
       <c r="H124" s="22"/>
@@ -4255,17 +4254,17 @@
         <v>6</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D125" s="21"/>
       <c r="E125" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F125" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G125" s="21"/>
       <c r="H125" s="22"/>
@@ -4275,17 +4274,17 @@
         <v>7</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D126" s="21"/>
       <c r="E126" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F126" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G126" s="21"/>
       <c r="H126" s="22"/>
@@ -4295,17 +4294,17 @@
         <v>8</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D127" s="21"/>
       <c r="E127" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F127" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G127" s="21"/>
       <c r="H127" s="22"/>
@@ -4338,46 +4337,46 @@
       <c r="A130" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B130" s="31"/>
-      <c r="C130" s="31"/>
-      <c r="D130" s="31"/>
-      <c r="E130" s="31"/>
-      <c r="F130" s="31"/>
-      <c r="G130" s="31"/>
-      <c r="H130" s="32"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="33"/>
     </row>
     <row r="132" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="33" t="s">
+      <c r="A133" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B133" s="34"/>
+      <c r="B133" s="39"/>
       <c r="C133" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D133" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133" s="39"/>
+      <c r="F133" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="D133" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E133" s="34"/>
-      <c r="F133" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="G133" s="35"/>
-      <c r="H133" s="36"/>
+      <c r="G133" s="40"/>
+      <c r="H133" s="41"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="37" t="s">
+      <c r="A134" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B134" s="38"/>
-      <c r="C134" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="D134" s="39"/>
-      <c r="E134" s="39"/>
-      <c r="F134" s="39"/>
-      <c r="G134" s="39"/>
-      <c r="H134" s="40"/>
+      <c r="B134" s="35"/>
+      <c r="C134" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D134" s="36"/>
+      <c r="E134" s="36"/>
+      <c r="F134" s="36"/>
+      <c r="G134" s="36"/>
+      <c r="H134" s="37"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
@@ -4410,19 +4409,19 @@
         <v>1</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F136" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G136" s="21"/>
       <c r="H136" s="22"/>
@@ -4432,17 +4431,17 @@
         <v>2</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D137" s="21"/>
       <c r="E137" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F137" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G137" s="21"/>
       <c r="H137" s="22"/>
@@ -4452,17 +4451,17 @@
         <v>3</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D138" s="21"/>
       <c r="E138" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F138" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G138" s="21"/>
       <c r="H138" s="22"/>
@@ -4472,17 +4471,17 @@
         <v>4</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D139" s="21"/>
       <c r="E139" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F139" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G139" s="21"/>
       <c r="H139" s="22"/>
@@ -4563,46 +4562,46 @@
       <c r="A146" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B146" s="31"/>
-      <c r="C146" s="31"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="31"/>
-      <c r="F146" s="31"/>
-      <c r="G146" s="31"/>
-      <c r="H146" s="32"/>
+      <c r="B146" s="32"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="32"/>
+      <c r="G146" s="32"/>
+      <c r="H146" s="33"/>
     </row>
     <row r="148" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="33" t="s">
+      <c r="A149" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="34"/>
+      <c r="B149" s="39"/>
       <c r="C149" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D149" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149" s="39"/>
+      <c r="F149" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="D149" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E149" s="34"/>
-      <c r="F149" s="35" t="s">
+      <c r="G149" s="40"/>
+      <c r="H149" s="41"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" s="35"/>
+      <c r="C150" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="G149" s="35"/>
-      <c r="H149" s="36"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B150" s="38"/>
-      <c r="C150" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="D150" s="39"/>
-      <c r="E150" s="39"/>
-      <c r="F150" s="39"/>
-      <c r="G150" s="39"/>
-      <c r="H150" s="40"/>
+      <c r="D150" s="36"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="36"/>
+      <c r="H150" s="37"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
@@ -4635,19 +4634,19 @@
         <v>1</v>
       </c>
       <c r="B152" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C152" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="C152" s="21" t="s">
-        <v>215</v>
-      </c>
       <c r="D152" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E152" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F152" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G152" s="21"/>
       <c r="H152" s="22"/>
@@ -4657,17 +4656,17 @@
         <v>2</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D153" s="21"/>
       <c r="E153" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F153" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G153" s="21"/>
       <c r="H153" s="22"/>
@@ -4677,17 +4676,17 @@
         <v>3</v>
       </c>
       <c r="B154" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D154" s="21"/>
       <c r="E154" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F154" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G154" s="21"/>
       <c r="H154" s="22"/>
@@ -4697,17 +4696,17 @@
         <v>4</v>
       </c>
       <c r="B155" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C155" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D155" s="21"/>
       <c r="E155" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F155" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G155" s="21"/>
       <c r="H155" s="22"/>
@@ -4717,17 +4716,17 @@
         <v>5</v>
       </c>
       <c r="B156" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C156" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D156" s="21"/>
       <c r="E156" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F156" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G156" s="21"/>
       <c r="H156" s="22"/>
@@ -4796,46 +4795,46 @@
       <c r="A162" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B162" s="31"/>
-      <c r="C162" s="31"/>
-      <c r="D162" s="31"/>
-      <c r="E162" s="31"/>
-      <c r="F162" s="31"/>
-      <c r="G162" s="31"/>
-      <c r="H162" s="32"/>
+      <c r="B162" s="32"/>
+      <c r="C162" s="32"/>
+      <c r="D162" s="32"/>
+      <c r="E162" s="32"/>
+      <c r="F162" s="32"/>
+      <c r="G162" s="32"/>
+      <c r="H162" s="33"/>
     </row>
     <row r="164" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="33" t="s">
+      <c r="A165" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B165" s="34"/>
+      <c r="B165" s="39"/>
       <c r="C165" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D165" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E165" s="39"/>
+      <c r="F165" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="D165" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E165" s="34"/>
-      <c r="F165" s="35" t="s">
+      <c r="G165" s="40"/>
+      <c r="H165" s="41"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" s="35"/>
+      <c r="C166" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="G165" s="35"/>
-      <c r="H165" s="36"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B166" s="38"/>
-      <c r="C166" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="D166" s="39"/>
-      <c r="E166" s="39"/>
-      <c r="F166" s="39"/>
-      <c r="G166" s="39"/>
-      <c r="H166" s="40"/>
+      <c r="D166" s="36"/>
+      <c r="E166" s="36"/>
+      <c r="F166" s="36"/>
+      <c r="G166" s="36"/>
+      <c r="H166" s="37"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
@@ -4868,19 +4867,19 @@
         <v>1</v>
       </c>
       <c r="B168" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C168" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D168" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E168" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F168" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G168" s="28"/>
       <c r="H168" s="29"/>
@@ -4890,17 +4889,17 @@
         <v>2</v>
       </c>
       <c r="B169" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C169" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D169" s="28"/>
       <c r="E169" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F169" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G169" s="28"/>
       <c r="H169" s="29"/>
@@ -4910,17 +4909,17 @@
         <v>3</v>
       </c>
       <c r="B170" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C170" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D170" s="28"/>
       <c r="E170" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F170" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G170" s="28"/>
       <c r="H170" s="29"/>
@@ -4930,17 +4929,17 @@
         <v>4</v>
       </c>
       <c r="B171" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C171" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D171" s="28"/>
       <c r="E171" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F171" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G171" s="28"/>
       <c r="H171" s="29"/>
@@ -4950,17 +4949,17 @@
         <v>5</v>
       </c>
       <c r="B172" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C172" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D172" s="28"/>
       <c r="E172" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F172" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G172" s="28"/>
       <c r="H172" s="29"/>
@@ -4970,17 +4969,17 @@
         <v>6</v>
       </c>
       <c r="B173" s="28" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C173" s="28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D173" s="28"/>
       <c r="E173" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F173" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G173" s="28"/>
       <c r="H173" s="29"/>
@@ -4990,17 +4989,17 @@
         <v>7</v>
       </c>
       <c r="B174" s="28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C174" s="28" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D174" s="28"/>
       <c r="E174" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F174" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G174" s="28"/>
       <c r="H174" s="29"/>
@@ -5010,17 +5009,17 @@
         <v>8</v>
       </c>
       <c r="B175" s="28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C175" s="28" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D175" s="28"/>
       <c r="E175" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F175" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G175" s="28"/>
       <c r="H175" s="29"/>
@@ -5053,46 +5052,46 @@
       <c r="A178" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B178" s="31"/>
-      <c r="C178" s="31"/>
-      <c r="D178" s="31"/>
-      <c r="E178" s="31"/>
-      <c r="F178" s="31"/>
-      <c r="G178" s="31"/>
-      <c r="H178" s="32"/>
+      <c r="B178" s="32"/>
+      <c r="C178" s="32"/>
+      <c r="D178" s="32"/>
+      <c r="E178" s="32"/>
+      <c r="F178" s="32"/>
+      <c r="G178" s="32"/>
+      <c r="H178" s="33"/>
     </row>
     <row r="179" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="33" t="s">
+      <c r="A180" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B180" s="34"/>
+      <c r="B180" s="39"/>
       <c r="C180" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="D180" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="D180" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E180" s="34"/>
-      <c r="F180" s="35" t="s">
+      <c r="E180" s="39"/>
+      <c r="F180" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="G180" s="40"/>
+      <c r="H180" s="41"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B181" s="35"/>
+      <c r="C181" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="G180" s="35"/>
-      <c r="H180" s="36"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B181" s="38"/>
-      <c r="C181" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="D181" s="39"/>
-      <c r="E181" s="39"/>
-      <c r="F181" s="39"/>
-      <c r="G181" s="39"/>
-      <c r="H181" s="40"/>
+      <c r="D181" s="36"/>
+      <c r="E181" s="36"/>
+      <c r="F181" s="36"/>
+      <c r="G181" s="36"/>
+      <c r="H181" s="37"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
@@ -5125,19 +5124,19 @@
         <v>1</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C183" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E183" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F183" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G183" s="21"/>
       <c r="H183" s="22"/>
@@ -5147,17 +5146,17 @@
         <v>2</v>
       </c>
       <c r="B184" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C184" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D184" s="28"/>
       <c r="E184" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F184" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G184" s="21"/>
       <c r="H184" s="22"/>
@@ -5167,17 +5166,17 @@
         <v>3</v>
       </c>
       <c r="B185" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D185" s="28"/>
       <c r="E185" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F185" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G185" s="21"/>
       <c r="H185" s="22"/>
@@ -5187,17 +5186,17 @@
         <v>4</v>
       </c>
       <c r="B186" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C186" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D186" s="28"/>
       <c r="E186" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F186" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G186" s="21"/>
       <c r="H186" s="22"/>
@@ -5207,17 +5206,17 @@
         <v>5</v>
       </c>
       <c r="B187" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C187" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D187" s="28"/>
       <c r="E187" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F187" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G187" s="21"/>
       <c r="H187" s="22"/>
@@ -5227,19 +5226,19 @@
         <v>6</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C188" s="28" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D188" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E188" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F188" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G188" s="21"/>
       <c r="H188" s="22"/>
@@ -5249,17 +5248,17 @@
         <v>7</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D189" s="21"/>
       <c r="E189" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F189" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G189" s="21"/>
       <c r="H189" s="22"/>
@@ -5304,46 +5303,46 @@
       <c r="A193" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B193" s="31"/>
-      <c r="C193" s="31"/>
-      <c r="D193" s="31"/>
-      <c r="E193" s="31"/>
-      <c r="F193" s="31"/>
-      <c r="G193" s="31"/>
-      <c r="H193" s="32"/>
+      <c r="B193" s="32"/>
+      <c r="C193" s="32"/>
+      <c r="D193" s="32"/>
+      <c r="E193" s="32"/>
+      <c r="F193" s="32"/>
+      <c r="G193" s="32"/>
+      <c r="H193" s="33"/>
     </row>
     <row r="194" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A195" s="33" t="s">
+      <c r="A195" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B195" s="34"/>
+      <c r="B195" s="39"/>
       <c r="C195" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D195" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E195" s="39"/>
+      <c r="F195" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="D195" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E195" s="34"/>
-      <c r="F195" s="35" t="s">
+      <c r="G195" s="40"/>
+      <c r="H195" s="41"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B196" s="35"/>
+      <c r="C196" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="G195" s="35"/>
-      <c r="H195" s="36"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B196" s="38"/>
-      <c r="C196" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="D196" s="39"/>
-      <c r="E196" s="39"/>
-      <c r="F196" s="39"/>
-      <c r="G196" s="39"/>
-      <c r="H196" s="40"/>
+      <c r="D196" s="36"/>
+      <c r="E196" s="36"/>
+      <c r="F196" s="36"/>
+      <c r="G196" s="36"/>
+      <c r="H196" s="37"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="s">
@@ -5376,16 +5375,16 @@
         <v>1</v>
       </c>
       <c r="B198" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D198" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E198" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F198" s="28"/>
       <c r="G198" s="28"/>
@@ -5396,14 +5395,14 @@
         <v>2</v>
       </c>
       <c r="B199" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D199" s="28"/>
       <c r="E199" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F199" s="28"/>
       <c r="G199" s="28"/>
@@ -5414,14 +5413,14 @@
         <v>3</v>
       </c>
       <c r="B200" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D200" s="28"/>
       <c r="E200" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F200" s="28"/>
       <c r="G200" s="28"/>
@@ -5432,14 +5431,14 @@
         <v>4</v>
       </c>
       <c r="B201" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D201" s="28"/>
       <c r="E201" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F201" s="28"/>
       <c r="G201" s="28"/>
@@ -5450,16 +5449,16 @@
         <v>5</v>
       </c>
       <c r="B202" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D202" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E202" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F202" s="28"/>
       <c r="G202" s="28"/>
@@ -5470,17 +5469,17 @@
         <v>6</v>
       </c>
       <c r="B203" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C203" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D203" s="28"/>
       <c r="E203" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F203" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G203" s="28"/>
       <c r="H203" s="29"/>
@@ -5537,46 +5536,46 @@
       <c r="A208" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B208" s="31"/>
-      <c r="C208" s="31"/>
-      <c r="D208" s="31"/>
-      <c r="E208" s="31"/>
-      <c r="F208" s="31"/>
-      <c r="G208" s="31"/>
-      <c r="H208" s="32"/>
+      <c r="B208" s="32"/>
+      <c r="C208" s="32"/>
+      <c r="D208" s="32"/>
+      <c r="E208" s="32"/>
+      <c r="F208" s="32"/>
+      <c r="G208" s="32"/>
+      <c r="H208" s="33"/>
     </row>
     <row r="209" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A210" s="33" t="s">
+      <c r="A210" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B210" s="34"/>
+      <c r="B210" s="39"/>
       <c r="C210" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="D210" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E210" s="39"/>
+      <c r="F210" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="D210" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E210" s="34"/>
-      <c r="F210" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="G210" s="35"/>
-      <c r="H210" s="36"/>
+      <c r="G210" s="40"/>
+      <c r="H210" s="41"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A211" s="37" t="s">
+      <c r="A211" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B211" s="38"/>
-      <c r="C211" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="D211" s="39"/>
-      <c r="E211" s="39"/>
-      <c r="F211" s="39"/>
-      <c r="G211" s="39"/>
-      <c r="H211" s="40"/>
+      <c r="B211" s="35"/>
+      <c r="C211" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="D211" s="36"/>
+      <c r="E211" s="36"/>
+      <c r="F211" s="36"/>
+      <c r="G211" s="36"/>
+      <c r="H211" s="37"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="10" t="s">
@@ -5609,19 +5608,19 @@
         <v>1</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E213" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F213" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G213" s="21"/>
       <c r="H213" s="22"/>
@@ -5631,17 +5630,17 @@
         <v>2</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C214" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D214" s="21"/>
       <c r="E214" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F214" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G214" s="21"/>
       <c r="H214" s="22"/>
@@ -5651,17 +5650,17 @@
         <v>3</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C215" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D215" s="21"/>
       <c r="E215" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F215" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G215" s="21"/>
       <c r="H215" s="22"/>
@@ -5671,17 +5670,17 @@
         <v>4</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C216" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D216" s="21"/>
       <c r="E216" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F216" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G216" s="21"/>
       <c r="H216" s="22"/>
@@ -5691,17 +5690,17 @@
         <v>5</v>
       </c>
       <c r="B217" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C217" s="21" t="s">
         <v>254</v>
-      </c>
-      <c r="C217" s="21" t="s">
-        <v>255</v>
       </c>
       <c r="D217" s="21"/>
       <c r="E217" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F217" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G217" s="21"/>
       <c r="H217" s="22"/>
@@ -5711,19 +5710,19 @@
         <v>6</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C218" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E218" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F218" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G218" s="21"/>
       <c r="H218" s="22"/>
@@ -5780,46 +5779,46 @@
       <c r="A223" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B223" s="31"/>
-      <c r="C223" s="31"/>
-      <c r="D223" s="31"/>
-      <c r="E223" s="31"/>
-      <c r="F223" s="31"/>
-      <c r="G223" s="31"/>
-      <c r="H223" s="32"/>
+      <c r="B223" s="32"/>
+      <c r="C223" s="32"/>
+      <c r="D223" s="32"/>
+      <c r="E223" s="32"/>
+      <c r="F223" s="32"/>
+      <c r="G223" s="32"/>
+      <c r="H223" s="33"/>
     </row>
     <row r="225" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A226" s="33" t="s">
+      <c r="A226" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B226" s="34"/>
+      <c r="B226" s="39"/>
       <c r="C226" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="D226" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E226" s="39"/>
+      <c r="F226" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="D226" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E226" s="34"/>
-      <c r="F226" s="35" t="s">
+      <c r="G226" s="40"/>
+      <c r="H226" s="41"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B227" s="35"/>
+      <c r="C227" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="G226" s="35"/>
-      <c r="H226" s="36"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A227" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B227" s="38"/>
-      <c r="C227" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="D227" s="39"/>
-      <c r="E227" s="39"/>
-      <c r="F227" s="39"/>
-      <c r="G227" s="39"/>
-      <c r="H227" s="40"/>
+      <c r="D227" s="36"/>
+      <c r="E227" s="36"/>
+      <c r="F227" s="36"/>
+      <c r="G227" s="36"/>
+      <c r="H227" s="37"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="10" t="s">
@@ -5852,19 +5851,19 @@
         <v>1</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C229" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E229" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F229" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G229" s="21"/>
       <c r="H229" s="22"/>
@@ -5874,17 +5873,17 @@
         <v>2</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C230" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D230" s="21"/>
       <c r="E230" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F230" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G230" s="21"/>
       <c r="H230" s="22"/>
@@ -5894,17 +5893,17 @@
         <v>3</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C231" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D231" s="21"/>
       <c r="E231" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F231" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G231" s="21"/>
       <c r="H231" s="22"/>
@@ -5914,19 +5913,19 @@
         <v>4</v>
       </c>
       <c r="B232" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C232" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E232" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F232" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G232" s="21"/>
       <c r="H232" s="22"/>
@@ -5936,17 +5935,17 @@
         <v>5</v>
       </c>
       <c r="B233" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C233" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D233" s="21"/>
       <c r="E233" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F233" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G233" s="21"/>
       <c r="H233" s="22"/>
@@ -5956,17 +5955,17 @@
         <v>6</v>
       </c>
       <c r="B234" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C234" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D234" s="21"/>
       <c r="E234" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F234" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G234" s="21"/>
       <c r="H234" s="22"/>
@@ -5976,17 +5975,17 @@
         <v>7</v>
       </c>
       <c r="B235" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C235" s="28" t="s">
         <v>265</v>
-      </c>
-      <c r="C235" s="28" t="s">
-        <v>266</v>
       </c>
       <c r="D235" s="21"/>
       <c r="E235" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F235" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G235" s="21"/>
       <c r="H235" s="22"/>
@@ -5996,17 +5995,17 @@
         <v>8</v>
       </c>
       <c r="B236" s="28" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C236" s="28" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D236" s="28"/>
       <c r="E236" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F236" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G236" s="21"/>
       <c r="H236" s="22"/>
@@ -6016,17 +6015,17 @@
         <v>9</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C237" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D237" s="21"/>
       <c r="E237" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F237" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G237" s="21"/>
       <c r="H237" s="22"/>
@@ -6047,46 +6046,46 @@
       <c r="A239" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B239" s="31"/>
-      <c r="C239" s="31"/>
-      <c r="D239" s="31"/>
-      <c r="E239" s="31"/>
-      <c r="F239" s="31"/>
-      <c r="G239" s="31"/>
-      <c r="H239" s="32"/>
+      <c r="B239" s="32"/>
+      <c r="C239" s="32"/>
+      <c r="D239" s="32"/>
+      <c r="E239" s="32"/>
+      <c r="F239" s="32"/>
+      <c r="G239" s="32"/>
+      <c r="H239" s="33"/>
     </row>
     <row r="241" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A242" s="33" t="s">
+      <c r="A242" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B242" s="34"/>
+      <c r="B242" s="39"/>
       <c r="C242" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="D242" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="D242" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E242" s="34"/>
-      <c r="F242" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="G242" s="35"/>
-      <c r="H242" s="36"/>
+      <c r="E242" s="39"/>
+      <c r="F242" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="G242" s="40"/>
+      <c r="H242" s="41"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A243" s="37" t="s">
+      <c r="A243" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B243" s="38"/>
-      <c r="C243" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="D243" s="39"/>
-      <c r="E243" s="39"/>
-      <c r="F243" s="39"/>
-      <c r="G243" s="39"/>
-      <c r="H243" s="40"/>
+      <c r="B243" s="35"/>
+      <c r="C243" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D243" s="36"/>
+      <c r="E243" s="36"/>
+      <c r="F243" s="36"/>
+      <c r="G243" s="36"/>
+      <c r="H243" s="37"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="10" t="s">
@@ -6119,19 +6118,19 @@
         <v>1</v>
       </c>
       <c r="B245" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C245" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D245" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E245" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F245" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G245" s="21"/>
       <c r="H245" s="22"/>
@@ -6141,19 +6140,19 @@
         <v>2</v>
       </c>
       <c r="B246" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C246" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D246" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E246" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F246" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G246" s="21"/>
       <c r="H246" s="22"/>
@@ -6163,19 +6162,19 @@
         <v>3</v>
       </c>
       <c r="B247" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C247" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D247" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E247" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F247" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G247" s="21"/>
       <c r="H247" s="22"/>
@@ -6185,17 +6184,17 @@
         <v>4</v>
       </c>
       <c r="B248" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C248" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D248" s="28"/>
       <c r="E248" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F248" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G248" s="21"/>
       <c r="H248" s="22"/>
@@ -6205,17 +6204,17 @@
         <v>5</v>
       </c>
       <c r="B249" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C249" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D249" s="28"/>
       <c r="E249" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F249" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G249" s="21"/>
       <c r="H249" s="22"/>
@@ -6225,17 +6224,17 @@
         <v>6</v>
       </c>
       <c r="B250" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C250" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D250" s="21"/>
       <c r="E250" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F250" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G250" s="21"/>
       <c r="H250" s="22"/>
@@ -6245,17 +6244,17 @@
         <v>7</v>
       </c>
       <c r="B251" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C251" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D251" s="21"/>
       <c r="E251" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F251" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G251" s="21"/>
       <c r="H251" s="22"/>
@@ -6265,19 +6264,19 @@
         <v>8</v>
       </c>
       <c r="B252" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C252" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D252" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E252" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F252" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G252" s="21"/>
       <c r="H252" s="22"/>
@@ -6310,46 +6309,46 @@
       <c r="A255" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B255" s="31"/>
-      <c r="C255" s="31"/>
-      <c r="D255" s="31"/>
-      <c r="E255" s="31"/>
-      <c r="F255" s="31"/>
-      <c r="G255" s="31"/>
-      <c r="H255" s="32"/>
+      <c r="B255" s="32"/>
+      <c r="C255" s="32"/>
+      <c r="D255" s="32"/>
+      <c r="E255" s="32"/>
+      <c r="F255" s="32"/>
+      <c r="G255" s="32"/>
+      <c r="H255" s="33"/>
     </row>
     <row r="256" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A257" s="33" t="s">
+      <c r="A257" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B257" s="34"/>
+      <c r="B257" s="39"/>
       <c r="C257" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D257" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E257" s="39"/>
+      <c r="F257" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="G257" s="40"/>
+      <c r="H257" s="41"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B258" s="35"/>
+      <c r="C258" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="D257" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E257" s="34"/>
-      <c r="F257" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="G257" s="35"/>
-      <c r="H257" s="36"/>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A258" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B258" s="38"/>
-      <c r="C258" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="D258" s="39"/>
-      <c r="E258" s="39"/>
-      <c r="F258" s="39"/>
-      <c r="G258" s="39"/>
-      <c r="H258" s="40"/>
+      <c r="D258" s="36"/>
+      <c r="E258" s="36"/>
+      <c r="F258" s="36"/>
+      <c r="G258" s="36"/>
+      <c r="H258" s="37"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="10" t="s">
@@ -6382,19 +6381,19 @@
         <v>1</v>
       </c>
       <c r="B260" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C260" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D260" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E260" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F260" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G260" s="24"/>
       <c r="H260" s="25"/>
@@ -6404,17 +6403,17 @@
         <v>2</v>
       </c>
       <c r="B261" s="24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C261" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D261" s="24"/>
       <c r="E261" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F261" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G261" s="24"/>
       <c r="H261" s="25"/>
@@ -6424,17 +6423,17 @@
         <v>3</v>
       </c>
       <c r="B262" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C262" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D262" s="24"/>
       <c r="E262" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F262" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G262" s="24"/>
       <c r="H262" s="25"/>
@@ -6527,46 +6526,46 @@
       <c r="A270" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B270" s="31"/>
-      <c r="C270" s="31"/>
-      <c r="D270" s="31"/>
-      <c r="E270" s="31"/>
-      <c r="F270" s="31"/>
-      <c r="G270" s="31"/>
-      <c r="H270" s="32"/>
+      <c r="B270" s="32"/>
+      <c r="C270" s="32"/>
+      <c r="D270" s="32"/>
+      <c r="E270" s="32"/>
+      <c r="F270" s="32"/>
+      <c r="G270" s="32"/>
+      <c r="H270" s="33"/>
     </row>
     <row r="271" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A272" s="33" t="s">
+      <c r="A272" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B272" s="34"/>
+      <c r="B272" s="39"/>
       <c r="C272" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="D272" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="D272" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E272" s="34"/>
-      <c r="F272" s="35" t="s">
+      <c r="E272" s="39"/>
+      <c r="F272" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="G272" s="40"/>
+      <c r="H272" s="41"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B273" s="35"/>
+      <c r="C273" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="G272" s="35"/>
-      <c r="H272" s="36"/>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A273" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B273" s="38"/>
-      <c r="C273" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="D273" s="39"/>
-      <c r="E273" s="39"/>
-      <c r="F273" s="39"/>
-      <c r="G273" s="39"/>
-      <c r="H273" s="40"/>
+      <c r="D273" s="36"/>
+      <c r="E273" s="36"/>
+      <c r="F273" s="36"/>
+      <c r="G273" s="36"/>
+      <c r="H273" s="37"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="10" t="s">
@@ -6599,19 +6598,19 @@
         <v>1</v>
       </c>
       <c r="B275" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C275" s="24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D275" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E275" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F275" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G275" s="24"/>
       <c r="H275" s="25"/>
@@ -6621,19 +6620,19 @@
         <v>2</v>
       </c>
       <c r="B276" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C276" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D276" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E276" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F276" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G276" s="24"/>
       <c r="H276" s="25"/>
@@ -6643,17 +6642,17 @@
         <v>3</v>
       </c>
       <c r="B277" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C277" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D277" s="24"/>
       <c r="E277" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F277" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G277" s="24"/>
       <c r="H277" s="25"/>
@@ -6663,17 +6662,17 @@
         <v>4</v>
       </c>
       <c r="B278" s="24" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="C278" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D278" s="24"/>
       <c r="E278" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F278" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G278" s="24"/>
       <c r="H278" s="25"/>
@@ -6683,19 +6682,19 @@
         <v>5</v>
       </c>
       <c r="B279" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C279" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D279" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E279" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F279" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G279" s="24"/>
       <c r="H279" s="25"/>
@@ -6705,17 +6704,17 @@
         <v>6</v>
       </c>
       <c r="B280" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C280" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D280" s="24"/>
       <c r="E280" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F280" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G280" s="24"/>
       <c r="H280" s="25"/>
@@ -6725,17 +6724,17 @@
         <v>7</v>
       </c>
       <c r="B281" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C281" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D281" s="24"/>
       <c r="E281" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F281" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G281" s="24"/>
       <c r="H281" s="25"/>
@@ -6745,17 +6744,17 @@
         <v>8</v>
       </c>
       <c r="B282" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C282" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D282" s="24"/>
       <c r="E282" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F282" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G282" s="24"/>
       <c r="H282" s="25"/>
@@ -6788,46 +6787,46 @@
       <c r="A285" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B285" s="31"/>
-      <c r="C285" s="31"/>
-      <c r="D285" s="31"/>
-      <c r="E285" s="31"/>
-      <c r="F285" s="31"/>
-      <c r="G285" s="31"/>
-      <c r="H285" s="32"/>
+      <c r="B285" s="32"/>
+      <c r="C285" s="32"/>
+      <c r="D285" s="32"/>
+      <c r="E285" s="32"/>
+      <c r="F285" s="32"/>
+      <c r="G285" s="32"/>
+      <c r="H285" s="33"/>
     </row>
     <row r="287" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A288" s="33" t="s">
+      <c r="A288" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B288" s="34"/>
+      <c r="B288" s="39"/>
       <c r="C288" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="D288" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="D288" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E288" s="34"/>
-      <c r="F288" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="G288" s="35"/>
-      <c r="H288" s="36"/>
+      <c r="E288" s="39"/>
+      <c r="F288" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="G288" s="40"/>
+      <c r="H288" s="41"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A289" s="37" t="s">
+      <c r="A289" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B289" s="38"/>
-      <c r="C289" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="D289" s="39"/>
-      <c r="E289" s="39"/>
-      <c r="F289" s="39"/>
-      <c r="G289" s="39"/>
-      <c r="H289" s="40"/>
+      <c r="B289" s="35"/>
+      <c r="C289" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="D289" s="36"/>
+      <c r="E289" s="36"/>
+      <c r="F289" s="36"/>
+      <c r="G289" s="36"/>
+      <c r="H289" s="37"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="10" t="s">
@@ -6860,19 +6859,19 @@
         <v>1</v>
       </c>
       <c r="B291" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C291" s="24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D291" s="24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E291" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F291" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G291" s="24"/>
       <c r="H291" s="25"/>
@@ -6882,19 +6881,19 @@
         <v>2</v>
       </c>
       <c r="B292" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C292" s="28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D292" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E292" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F292" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G292" s="24"/>
       <c r="H292" s="25"/>
@@ -6904,17 +6903,17 @@
         <v>3</v>
       </c>
       <c r="B293" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C293" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D293" s="24"/>
       <c r="E293" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F293" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G293" s="24"/>
       <c r="H293" s="25"/>
@@ -7007,58 +7006,62 @@
       <c r="A301" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B301" s="31"/>
-      <c r="C301" s="31"/>
-      <c r="D301" s="31"/>
-      <c r="E301" s="31"/>
-      <c r="F301" s="31"/>
-      <c r="G301" s="31"/>
-      <c r="H301" s="32"/>
+      <c r="B301" s="32"/>
+      <c r="C301" s="32"/>
+      <c r="D301" s="32"/>
+      <c r="E301" s="32"/>
+      <c r="F301" s="32"/>
+      <c r="G301" s="32"/>
+      <c r="H301" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="B223:H223"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="C211:H211"/>
-    <mergeCell ref="B255:H255"/>
-    <mergeCell ref="B239:H239"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="F242:H242"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="C243:H243"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="F226:H226"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="C227:H227"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="C150:H150"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="F165:H165"/>
-    <mergeCell ref="B193:H193"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="F210:H210"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="C181:H181"/>
-    <mergeCell ref="B208:H208"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="F195:H195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="C196:H196"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="C166:H166"/>
-    <mergeCell ref="B178:H178"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="B301:H301"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="F257:H257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="C258:H258"/>
+    <mergeCell ref="B270:H270"/>
+    <mergeCell ref="B285:H285"/>
+    <mergeCell ref="A288:B288"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="F288:H288"/>
+    <mergeCell ref="A289:B289"/>
+    <mergeCell ref="C289:H289"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="D272:E272"/>
+    <mergeCell ref="F272:H272"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="C273:H273"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="B98:H98"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="A102:B102"/>
     <mergeCell ref="D133:E133"/>
     <mergeCell ref="F133:H133"/>
     <mergeCell ref="A134:B134"/>
@@ -7083,52 +7086,48 @@
     <mergeCell ref="A118:B118"/>
     <mergeCell ref="C118:H118"/>
     <mergeCell ref="B130:H130"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B114:H114"/>
-    <mergeCell ref="B98:H98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="B301:H301"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="F257:H257"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="C258:H258"/>
-    <mergeCell ref="B270:H270"/>
-    <mergeCell ref="B285:H285"/>
-    <mergeCell ref="A288:B288"/>
-    <mergeCell ref="D288:E288"/>
-    <mergeCell ref="F288:H288"/>
-    <mergeCell ref="A289:B289"/>
-    <mergeCell ref="C289:H289"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="D272:E272"/>
-    <mergeCell ref="F272:H272"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="C273:H273"/>
+    <mergeCell ref="B193:H193"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="F210:H210"/>
+    <mergeCell ref="B162:H162"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:H181"/>
+    <mergeCell ref="B208:H208"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="F195:H195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="C196:H196"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C166:H166"/>
+    <mergeCell ref="B178:H178"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:H150"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="F165:H165"/>
+    <mergeCell ref="B223:H223"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="C211:H211"/>
+    <mergeCell ref="B255:H255"/>
+    <mergeCell ref="B239:H239"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="F242:H242"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="C243:H243"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="F226:H226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="C227:H227"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7164,30 +7163,30 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
@@ -7423,13 +7422,13 @@
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7473,47 +7472,47 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
@@ -7523,7 +7522,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -7531,7 +7530,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -7539,7 +7538,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -7547,35 +7546,36 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>47</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
         <v>74</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
         <v>136</v>
-      </c>
-      <c r="C17" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/문서 관리/04. 테이블정의서.xlsx
+++ b/문서 관리/04. 테이블정의서.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="328">
   <si>
     <t>작성자</t>
   </si>
@@ -1289,9 +1289,18 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>restrict_status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve_status</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1895,12 +1904,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1923,6 +1926,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2757,7 +2766,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>48</v>
@@ -2816,13 +2825,13 @@
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28"/>
@@ -2836,17 +2845,17 @@
     </row>
     <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="39"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="39"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="59" t="s">
         <v>78</v>
       </c>
@@ -2854,18 +2863,18 @@
       <c r="H30" s="60"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="35"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
@@ -2982,7 +2991,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>85</v>
@@ -3061,46 +3070,46 @@
       <c r="A43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="33"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="41"/>
     </row>
     <row r="45" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="39"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="39"/>
-      <c r="F46" s="40" t="s">
+      <c r="E46" s="37"/>
+      <c r="F46" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="G46" s="40"/>
-      <c r="H46" s="41"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="39"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="36" t="s">
+      <c r="B47" s="33"/>
+      <c r="C47" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="35"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
@@ -3290,46 +3299,46 @@
       <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="33"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="41"/>
     </row>
     <row r="61" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="38" t="s">
+      <c r="A62" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="39"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="39" t="s">
+      <c r="D62" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E62" s="39"/>
-      <c r="F62" s="40" t="s">
+      <c r="E62" s="37"/>
+      <c r="F62" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="G62" s="40"/>
-      <c r="H62" s="41"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="39"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="36" t="s">
+      <c r="B63" s="33"/>
+      <c r="C63" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="37"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="35"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
@@ -3557,46 +3566,46 @@
       <c r="A75" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="33"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="41"/>
     </row>
     <row r="77" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="38" t="s">
+      <c r="A78" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="39"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D78" s="39" t="s">
+      <c r="D78" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E78" s="39"/>
-      <c r="F78" s="40" t="s">
+      <c r="E78" s="37"/>
+      <c r="F78" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="G78" s="40"/>
-      <c r="H78" s="41"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="39"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="34" t="s">
+      <c r="A79" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="35"/>
-      <c r="C79" s="36" t="s">
+      <c r="B79" s="33"/>
+      <c r="C79" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="37"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="35"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
@@ -3884,49 +3893,49 @@
       <c r="A98" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="33"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="41"/>
     </row>
     <row r="100" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="38" t="s">
+      <c r="A101" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="39"/>
+      <c r="B101" s="37"/>
       <c r="C101" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D101" s="39" t="s">
+      <c r="D101" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E101" s="39"/>
-      <c r="F101" s="40" t="s">
+      <c r="E101" s="37"/>
+      <c r="F101" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="G101" s="40"/>
-      <c r="H101" s="41"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="39"/>
       <c r="I101" s="30" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="34" t="s">
+      <c r="A102" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="35"/>
-      <c r="C102" s="36" t="s">
+      <c r="B102" s="33"/>
+      <c r="C102" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="37"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="35"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
@@ -4080,46 +4089,46 @@
       <c r="A114" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B114" s="32"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="32"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="33"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="40"/>
+      <c r="E114" s="40"/>
+      <c r="F114" s="40"/>
+      <c r="G114" s="40"/>
+      <c r="H114" s="41"/>
     </row>
     <row r="116" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="38" t="s">
+      <c r="A117" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B117" s="39"/>
+      <c r="B117" s="37"/>
       <c r="C117" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D117" s="39" t="s">
+      <c r="D117" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E117" s="39"/>
-      <c r="F117" s="40" t="s">
+      <c r="E117" s="37"/>
+      <c r="F117" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="G117" s="40"/>
-      <c r="H117" s="41"/>
+      <c r="G117" s="38"/>
+      <c r="H117" s="39"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="34" t="s">
+      <c r="A118" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="35"/>
-      <c r="C118" s="36" t="s">
+      <c r="B118" s="33"/>
+      <c r="C118" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="36"/>
-      <c r="G118" s="36"/>
-      <c r="H118" s="37"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="35"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
@@ -4337,46 +4346,46 @@
       <c r="A130" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B130" s="32"/>
-      <c r="C130" s="32"/>
-      <c r="D130" s="32"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="32"/>
-      <c r="G130" s="32"/>
-      <c r="H130" s="33"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="40"/>
+      <c r="E130" s="40"/>
+      <c r="F130" s="40"/>
+      <c r="G130" s="40"/>
+      <c r="H130" s="41"/>
     </row>
     <row r="132" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="38" t="s">
+      <c r="A133" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B133" s="39"/>
+      <c r="B133" s="37"/>
       <c r="C133" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="D133" s="39" t="s">
+      <c r="D133" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E133" s="39"/>
-      <c r="F133" s="40" t="s">
+      <c r="E133" s="37"/>
+      <c r="F133" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="G133" s="40"/>
-      <c r="H133" s="41"/>
+      <c r="G133" s="38"/>
+      <c r="H133" s="39"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="34" t="s">
+      <c r="A134" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B134" s="35"/>
-      <c r="C134" s="36" t="s">
+      <c r="B134" s="33"/>
+      <c r="C134" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="D134" s="36"/>
-      <c r="E134" s="36"/>
-      <c r="F134" s="36"/>
-      <c r="G134" s="36"/>
-      <c r="H134" s="37"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="34"/>
+      <c r="F134" s="34"/>
+      <c r="G134" s="34"/>
+      <c r="H134" s="35"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
@@ -4562,46 +4571,46 @@
       <c r="A146" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B146" s="32"/>
-      <c r="C146" s="32"/>
-      <c r="D146" s="32"/>
-      <c r="E146" s="32"/>
-      <c r="F146" s="32"/>
-      <c r="G146" s="32"/>
-      <c r="H146" s="33"/>
+      <c r="B146" s="40"/>
+      <c r="C146" s="40"/>
+      <c r="D146" s="40"/>
+      <c r="E146" s="40"/>
+      <c r="F146" s="40"/>
+      <c r="G146" s="40"/>
+      <c r="H146" s="41"/>
     </row>
     <row r="148" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="38" t="s">
+      <c r="A149" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="39"/>
+      <c r="B149" s="37"/>
       <c r="C149" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D149" s="39" t="s">
+      <c r="D149" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E149" s="39"/>
-      <c r="F149" s="40" t="s">
+      <c r="E149" s="37"/>
+      <c r="F149" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="G149" s="40"/>
-      <c r="H149" s="41"/>
+      <c r="G149" s="38"/>
+      <c r="H149" s="39"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="34" t="s">
+      <c r="A150" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B150" s="35"/>
-      <c r="C150" s="36" t="s">
+      <c r="B150" s="33"/>
+      <c r="C150" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="D150" s="36"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="36"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="37"/>
+      <c r="D150" s="34"/>
+      <c r="E150" s="34"/>
+      <c r="F150" s="34"/>
+      <c r="G150" s="34"/>
+      <c r="H150" s="35"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
@@ -4795,46 +4804,46 @@
       <c r="A162" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B162" s="32"/>
-      <c r="C162" s="32"/>
-      <c r="D162" s="32"/>
-      <c r="E162" s="32"/>
-      <c r="F162" s="32"/>
-      <c r="G162" s="32"/>
-      <c r="H162" s="33"/>
+      <c r="B162" s="40"/>
+      <c r="C162" s="40"/>
+      <c r="D162" s="40"/>
+      <c r="E162" s="40"/>
+      <c r="F162" s="40"/>
+      <c r="G162" s="40"/>
+      <c r="H162" s="41"/>
     </row>
     <row r="164" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="38" t="s">
+      <c r="A165" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B165" s="39"/>
+      <c r="B165" s="37"/>
       <c r="C165" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D165" s="39" t="s">
+      <c r="D165" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E165" s="39"/>
-      <c r="F165" s="40" t="s">
+      <c r="E165" s="37"/>
+      <c r="F165" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="G165" s="40"/>
-      <c r="H165" s="41"/>
+      <c r="G165" s="38"/>
+      <c r="H165" s="39"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="34" t="s">
+      <c r="A166" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B166" s="35"/>
-      <c r="C166" s="36" t="s">
+      <c r="B166" s="33"/>
+      <c r="C166" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="D166" s="36"/>
-      <c r="E166" s="36"/>
-      <c r="F166" s="36"/>
-      <c r="G166" s="36"/>
-      <c r="H166" s="37"/>
+      <c r="D166" s="34"/>
+      <c r="E166" s="34"/>
+      <c r="F166" s="34"/>
+      <c r="G166" s="34"/>
+      <c r="H166" s="35"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
@@ -5052,46 +5061,46 @@
       <c r="A178" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B178" s="32"/>
-      <c r="C178" s="32"/>
-      <c r="D178" s="32"/>
-      <c r="E178" s="32"/>
-      <c r="F178" s="32"/>
-      <c r="G178" s="32"/>
-      <c r="H178" s="33"/>
+      <c r="B178" s="40"/>
+      <c r="C178" s="40"/>
+      <c r="D178" s="40"/>
+      <c r="E178" s="40"/>
+      <c r="F178" s="40"/>
+      <c r="G178" s="40"/>
+      <c r="H178" s="41"/>
     </row>
     <row r="179" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="38" t="s">
+      <c r="A180" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B180" s="39"/>
+      <c r="B180" s="37"/>
       <c r="C180" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="D180" s="39" t="s">
+      <c r="D180" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E180" s="39"/>
-      <c r="F180" s="40" t="s">
+      <c r="E180" s="37"/>
+      <c r="F180" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="G180" s="40"/>
-      <c r="H180" s="41"/>
+      <c r="G180" s="38"/>
+      <c r="H180" s="39"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="34" t="s">
+      <c r="A181" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B181" s="35"/>
-      <c r="C181" s="36" t="s">
+      <c r="B181" s="33"/>
+      <c r="C181" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="D181" s="36"/>
-      <c r="E181" s="36"/>
-      <c r="F181" s="36"/>
-      <c r="G181" s="36"/>
-      <c r="H181" s="37"/>
+      <c r="D181" s="34"/>
+      <c r="E181" s="34"/>
+      <c r="F181" s="34"/>
+      <c r="G181" s="34"/>
+      <c r="H181" s="35"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
@@ -5303,46 +5312,46 @@
       <c r="A193" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B193" s="32"/>
-      <c r="C193" s="32"/>
-      <c r="D193" s="32"/>
-      <c r="E193" s="32"/>
-      <c r="F193" s="32"/>
-      <c r="G193" s="32"/>
-      <c r="H193" s="33"/>
+      <c r="B193" s="40"/>
+      <c r="C193" s="40"/>
+      <c r="D193" s="40"/>
+      <c r="E193" s="40"/>
+      <c r="F193" s="40"/>
+      <c r="G193" s="40"/>
+      <c r="H193" s="41"/>
     </row>
     <row r="194" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A195" s="38" t="s">
+      <c r="A195" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B195" s="39"/>
+      <c r="B195" s="37"/>
       <c r="C195" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="D195" s="39" t="s">
+      <c r="D195" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E195" s="39"/>
-      <c r="F195" s="40" t="s">
+      <c r="E195" s="37"/>
+      <c r="F195" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="G195" s="40"/>
-      <c r="H195" s="41"/>
+      <c r="G195" s="38"/>
+      <c r="H195" s="39"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196" s="34" t="s">
+      <c r="A196" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B196" s="35"/>
-      <c r="C196" s="36" t="s">
+      <c r="B196" s="33"/>
+      <c r="C196" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="D196" s="36"/>
-      <c r="E196" s="36"/>
-      <c r="F196" s="36"/>
-      <c r="G196" s="36"/>
-      <c r="H196" s="37"/>
+      <c r="D196" s="34"/>
+      <c r="E196" s="34"/>
+      <c r="F196" s="34"/>
+      <c r="G196" s="34"/>
+      <c r="H196" s="35"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="s">
@@ -5536,46 +5545,46 @@
       <c r="A208" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B208" s="32"/>
-      <c r="C208" s="32"/>
-      <c r="D208" s="32"/>
-      <c r="E208" s="32"/>
-      <c r="F208" s="32"/>
-      <c r="G208" s="32"/>
-      <c r="H208" s="33"/>
+      <c r="B208" s="40"/>
+      <c r="C208" s="40"/>
+      <c r="D208" s="40"/>
+      <c r="E208" s="40"/>
+      <c r="F208" s="40"/>
+      <c r="G208" s="40"/>
+      <c r="H208" s="41"/>
     </row>
     <row r="209" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A210" s="38" t="s">
+      <c r="A210" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B210" s="39"/>
+      <c r="B210" s="37"/>
       <c r="C210" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="D210" s="39" t="s">
+      <c r="D210" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E210" s="39"/>
-      <c r="F210" s="40" t="s">
+      <c r="E210" s="37"/>
+      <c r="F210" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="G210" s="40"/>
-      <c r="H210" s="41"/>
+      <c r="G210" s="38"/>
+      <c r="H210" s="39"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A211" s="34" t="s">
+      <c r="A211" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B211" s="35"/>
-      <c r="C211" s="36" t="s">
+      <c r="B211" s="33"/>
+      <c r="C211" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="D211" s="36"/>
-      <c r="E211" s="36"/>
-      <c r="F211" s="36"/>
-      <c r="G211" s="36"/>
-      <c r="H211" s="37"/>
+      <c r="D211" s="34"/>
+      <c r="E211" s="34"/>
+      <c r="F211" s="34"/>
+      <c r="G211" s="34"/>
+      <c r="H211" s="35"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="10" t="s">
@@ -5779,46 +5788,46 @@
       <c r="A223" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B223" s="32"/>
-      <c r="C223" s="32"/>
-      <c r="D223" s="32"/>
-      <c r="E223" s="32"/>
-      <c r="F223" s="32"/>
-      <c r="G223" s="32"/>
-      <c r="H223" s="33"/>
+      <c r="B223" s="40"/>
+      <c r="C223" s="40"/>
+      <c r="D223" s="40"/>
+      <c r="E223" s="40"/>
+      <c r="F223" s="40"/>
+      <c r="G223" s="40"/>
+      <c r="H223" s="41"/>
     </row>
     <row r="225" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A226" s="38" t="s">
+      <c r="A226" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B226" s="39"/>
+      <c r="B226" s="37"/>
       <c r="C226" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="D226" s="39" t="s">
+      <c r="D226" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E226" s="39"/>
-      <c r="F226" s="40" t="s">
+      <c r="E226" s="37"/>
+      <c r="F226" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="G226" s="40"/>
-      <c r="H226" s="41"/>
+      <c r="G226" s="38"/>
+      <c r="H226" s="39"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A227" s="34" t="s">
+      <c r="A227" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B227" s="35"/>
-      <c r="C227" s="36" t="s">
+      <c r="B227" s="33"/>
+      <c r="C227" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="D227" s="36"/>
-      <c r="E227" s="36"/>
-      <c r="F227" s="36"/>
-      <c r="G227" s="36"/>
-      <c r="H227" s="37"/>
+      <c r="D227" s="34"/>
+      <c r="E227" s="34"/>
+      <c r="F227" s="34"/>
+      <c r="G227" s="34"/>
+      <c r="H227" s="35"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="10" t="s">
@@ -6046,46 +6055,46 @@
       <c r="A239" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B239" s="32"/>
-      <c r="C239" s="32"/>
-      <c r="D239" s="32"/>
-      <c r="E239" s="32"/>
-      <c r="F239" s="32"/>
-      <c r="G239" s="32"/>
-      <c r="H239" s="33"/>
+      <c r="B239" s="40"/>
+      <c r="C239" s="40"/>
+      <c r="D239" s="40"/>
+      <c r="E239" s="40"/>
+      <c r="F239" s="40"/>
+      <c r="G239" s="40"/>
+      <c r="H239" s="41"/>
     </row>
     <row r="241" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A242" s="38" t="s">
+      <c r="A242" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B242" s="39"/>
+      <c r="B242" s="37"/>
       <c r="C242" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="D242" s="39" t="s">
+      <c r="D242" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E242" s="39"/>
-      <c r="F242" s="40" t="s">
+      <c r="E242" s="37"/>
+      <c r="F242" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="G242" s="40"/>
-      <c r="H242" s="41"/>
+      <c r="G242" s="38"/>
+      <c r="H242" s="39"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A243" s="34" t="s">
+      <c r="A243" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B243" s="35"/>
-      <c r="C243" s="36" t="s">
+      <c r="B243" s="33"/>
+      <c r="C243" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="D243" s="36"/>
-      <c r="E243" s="36"/>
-      <c r="F243" s="36"/>
-      <c r="G243" s="36"/>
-      <c r="H243" s="37"/>
+      <c r="D243" s="34"/>
+      <c r="E243" s="34"/>
+      <c r="F243" s="34"/>
+      <c r="G243" s="34"/>
+      <c r="H243" s="35"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="10" t="s">
@@ -6309,46 +6318,46 @@
       <c r="A255" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B255" s="32"/>
-      <c r="C255" s="32"/>
-      <c r="D255" s="32"/>
-      <c r="E255" s="32"/>
-      <c r="F255" s="32"/>
-      <c r="G255" s="32"/>
-      <c r="H255" s="33"/>
+      <c r="B255" s="40"/>
+      <c r="C255" s="40"/>
+      <c r="D255" s="40"/>
+      <c r="E255" s="40"/>
+      <c r="F255" s="40"/>
+      <c r="G255" s="40"/>
+      <c r="H255" s="41"/>
     </row>
     <row r="256" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A257" s="38" t="s">
+      <c r="A257" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B257" s="39"/>
+      <c r="B257" s="37"/>
       <c r="C257" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="D257" s="39" t="s">
+      <c r="D257" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E257" s="39"/>
-      <c r="F257" s="40" t="s">
+      <c r="E257" s="37"/>
+      <c r="F257" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="G257" s="40"/>
-      <c r="H257" s="41"/>
+      <c r="G257" s="38"/>
+      <c r="H257" s="39"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A258" s="34" t="s">
+      <c r="A258" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B258" s="35"/>
-      <c r="C258" s="36" t="s">
+      <c r="B258" s="33"/>
+      <c r="C258" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="D258" s="36"/>
-      <c r="E258" s="36"/>
-      <c r="F258" s="36"/>
-      <c r="G258" s="36"/>
-      <c r="H258" s="37"/>
+      <c r="D258" s="34"/>
+      <c r="E258" s="34"/>
+      <c r="F258" s="34"/>
+      <c r="G258" s="34"/>
+      <c r="H258" s="35"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="10" t="s">
@@ -6526,46 +6535,46 @@
       <c r="A270" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B270" s="32"/>
-      <c r="C270" s="32"/>
-      <c r="D270" s="32"/>
-      <c r="E270" s="32"/>
-      <c r="F270" s="32"/>
-      <c r="G270" s="32"/>
-      <c r="H270" s="33"/>
+      <c r="B270" s="40"/>
+      <c r="C270" s="40"/>
+      <c r="D270" s="40"/>
+      <c r="E270" s="40"/>
+      <c r="F270" s="40"/>
+      <c r="G270" s="40"/>
+      <c r="H270" s="41"/>
     </row>
     <row r="271" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A272" s="38" t="s">
+      <c r="A272" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B272" s="39"/>
+      <c r="B272" s="37"/>
       <c r="C272" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="D272" s="39" t="s">
+      <c r="D272" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E272" s="39"/>
-      <c r="F272" s="40" t="s">
+      <c r="E272" s="37"/>
+      <c r="F272" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="G272" s="40"/>
-      <c r="H272" s="41"/>
+      <c r="G272" s="38"/>
+      <c r="H272" s="39"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A273" s="34" t="s">
+      <c r="A273" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B273" s="35"/>
-      <c r="C273" s="36" t="s">
+      <c r="B273" s="33"/>
+      <c r="C273" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="D273" s="36"/>
-      <c r="E273" s="36"/>
-      <c r="F273" s="36"/>
-      <c r="G273" s="36"/>
-      <c r="H273" s="37"/>
+      <c r="D273" s="34"/>
+      <c r="E273" s="34"/>
+      <c r="F273" s="34"/>
+      <c r="G273" s="34"/>
+      <c r="H273" s="35"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="10" t="s">
@@ -6662,7 +6671,7 @@
         <v>4</v>
       </c>
       <c r="B278" s="24" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C278" s="24" t="s">
         <v>160</v>
@@ -6787,46 +6796,46 @@
       <c r="A285" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B285" s="32"/>
-      <c r="C285" s="32"/>
-      <c r="D285" s="32"/>
-      <c r="E285" s="32"/>
-      <c r="F285" s="32"/>
-      <c r="G285" s="32"/>
-      <c r="H285" s="33"/>
+      <c r="B285" s="40"/>
+      <c r="C285" s="40"/>
+      <c r="D285" s="40"/>
+      <c r="E285" s="40"/>
+      <c r="F285" s="40"/>
+      <c r="G285" s="40"/>
+      <c r="H285" s="41"/>
     </row>
     <row r="287" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A288" s="38" t="s">
+      <c r="A288" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B288" s="39"/>
+      <c r="B288" s="37"/>
       <c r="C288" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="D288" s="39" t="s">
+      <c r="D288" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E288" s="39"/>
-      <c r="F288" s="40" t="s">
+      <c r="E288" s="37"/>
+      <c r="F288" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="G288" s="40"/>
-      <c r="H288" s="41"/>
+      <c r="G288" s="38"/>
+      <c r="H288" s="39"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A289" s="34" t="s">
+      <c r="A289" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B289" s="35"/>
-      <c r="C289" s="36" t="s">
+      <c r="B289" s="33"/>
+      <c r="C289" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="D289" s="36"/>
-      <c r="E289" s="36"/>
-      <c r="F289" s="36"/>
-      <c r="G289" s="36"/>
-      <c r="H289" s="37"/>
+      <c r="D289" s="34"/>
+      <c r="E289" s="34"/>
+      <c r="F289" s="34"/>
+      <c r="G289" s="34"/>
+      <c r="H289" s="35"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="10" t="s">
@@ -7006,16 +7015,18 @@
       <c r="A301" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B301" s="32"/>
-      <c r="C301" s="32"/>
-      <c r="D301" s="32"/>
-      <c r="E301" s="32"/>
-      <c r="F301" s="32"/>
-      <c r="G301" s="32"/>
-      <c r="H301" s="33"/>
+      <c r="B301" s="40"/>
+      <c r="C301" s="40"/>
+      <c r="D301" s="40"/>
+      <c r="E301" s="40"/>
+      <c r="F301" s="40"/>
+      <c r="G301" s="40"/>
+      <c r="H301" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="B59:H59"/>
     <mergeCell ref="C102:H102"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="D117:E117"/>
@@ -7038,7 +7049,30 @@
     <mergeCell ref="F272:H272"/>
     <mergeCell ref="A273:B273"/>
     <mergeCell ref="C273:H273"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="B98:H98"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:H134"/>
     <mergeCell ref="A133:B133"/>
+    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:H118"/>
+    <mergeCell ref="B130:H130"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="D62:E62"/>
@@ -7054,19 +7088,6 @@
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F46:H46"/>
     <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B114:H114"/>
-    <mergeCell ref="B98:H98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:H134"/>
-    <mergeCell ref="F180:H180"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="B27:H27"/>
@@ -7077,19 +7098,6 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="B193:H193"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="F210:H210"/>
     <mergeCell ref="B162:H162"/>
     <mergeCell ref="A180:B180"/>
     <mergeCell ref="D180:E180"/>
@@ -7104,10 +7112,7 @@
     <mergeCell ref="A166:B166"/>
     <mergeCell ref="C166:H166"/>
     <mergeCell ref="B178:H178"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="F180:H180"/>
     <mergeCell ref="A150:B150"/>
     <mergeCell ref="C150:H150"/>
     <mergeCell ref="A165:B165"/>
@@ -7128,6 +7133,10 @@
     <mergeCell ref="F226:H226"/>
     <mergeCell ref="A227:B227"/>
     <mergeCell ref="C227:H227"/>
+    <mergeCell ref="B193:H193"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="F210:H210"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7163,30 +7172,30 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
@@ -7422,13 +7431,13 @@
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7546,7 +7555,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">

--- a/문서 관리/04. 테이블정의서.xlsx
+++ b/문서 관리/04. 테이블정의서.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="341">
   <si>
     <t>작성자</t>
   </si>
@@ -1288,10 +1288,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>mem_status</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1301,6 +1297,62 @@
   </si>
   <si>
     <t>reserve_status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>restrict_status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESTRICTED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNRESTRICTED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용제한해제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용제한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAITING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약대기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFUSED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPLIED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CANCLED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거절</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1396,7 +1448,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1439,6 +1491,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -1807,7 +1871,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1904,16 +1968,16 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1928,10 +1992,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1985,11 +2055,20 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2316,74 +2395,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -2766,7 +2845,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>48</v>
@@ -2825,13 +2904,13 @@
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="41"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28"/>
@@ -2856,25 +2935,25 @@
         <v>2</v>
       </c>
       <c r="E30" s="37"/>
-      <c r="F30" s="59" t="s">
+      <c r="F30" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="59"/>
-      <c r="H30" s="60"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34" t="s">
+      <c r="B31" s="41"/>
+      <c r="C31" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="35"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
@@ -2991,7 +3070,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>85</v>
@@ -3070,13 +3149,13 @@
       <c r="A43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="41"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="35"/>
     </row>
     <row r="45" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -3098,18 +3177,18 @@
       <c r="H46" s="39"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="34" t="s">
+      <c r="B47" s="41"/>
+      <c r="C47" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="35"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
@@ -3299,13 +3378,13 @@
       <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="41"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="35"/>
     </row>
     <row r="61" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -3327,18 +3406,18 @@
       <c r="H62" s="39"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="34" t="s">
+      <c r="B63" s="41"/>
+      <c r="C63" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="35"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="33"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
@@ -3566,13 +3645,13 @@
       <c r="A75" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="41"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="35"/>
     </row>
     <row r="77" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -3594,18 +3673,18 @@
       <c r="H78" s="39"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="32" t="s">
+      <c r="A79" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="34" t="s">
+      <c r="B79" s="41"/>
+      <c r="C79" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="35"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="33"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
@@ -3893,13 +3972,13 @@
       <c r="A98" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="40"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="40"/>
-      <c r="F98" s="40"/>
-      <c r="G98" s="40"/>
-      <c r="H98" s="41"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="35"/>
     </row>
     <row r="100" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -3924,18 +4003,18 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="32" t="s">
+      <c r="A102" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="33"/>
-      <c r="C102" s="34" t="s">
+      <c r="B102" s="41"/>
+      <c r="C102" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="35"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="33"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
@@ -4089,13 +4168,13 @@
       <c r="A114" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B114" s="40"/>
-      <c r="C114" s="40"/>
-      <c r="D114" s="40"/>
-      <c r="E114" s="40"/>
-      <c r="F114" s="40"/>
-      <c r="G114" s="40"/>
-      <c r="H114" s="41"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="34"/>
+      <c r="H114" s="35"/>
     </row>
     <row r="116" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -4117,18 +4196,18 @@
       <c r="H117" s="39"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="32" t="s">
+      <c r="A118" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="33"/>
-      <c r="C118" s="34" t="s">
+      <c r="B118" s="41"/>
+      <c r="C118" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="D118" s="34"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="34"/>
-      <c r="G118" s="34"/>
-      <c r="H118" s="35"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="33"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
@@ -4346,13 +4425,13 @@
       <c r="A130" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B130" s="40"/>
-      <c r="C130" s="40"/>
-      <c r="D130" s="40"/>
-      <c r="E130" s="40"/>
-      <c r="F130" s="40"/>
-      <c r="G130" s="40"/>
-      <c r="H130" s="41"/>
+      <c r="B130" s="34"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="34"/>
+      <c r="F130" s="34"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="35"/>
     </row>
     <row r="132" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -4374,18 +4453,18 @@
       <c r="H133" s="39"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="32" t="s">
+      <c r="A134" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B134" s="33"/>
-      <c r="C134" s="34" t="s">
+      <c r="B134" s="41"/>
+      <c r="C134" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="D134" s="34"/>
-      <c r="E134" s="34"/>
-      <c r="F134" s="34"/>
-      <c r="G134" s="34"/>
-      <c r="H134" s="35"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="32"/>
+      <c r="G134" s="32"/>
+      <c r="H134" s="33"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
@@ -4571,13 +4650,13 @@
       <c r="A146" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B146" s="40"/>
-      <c r="C146" s="40"/>
-      <c r="D146" s="40"/>
-      <c r="E146" s="40"/>
-      <c r="F146" s="40"/>
-      <c r="G146" s="40"/>
-      <c r="H146" s="41"/>
+      <c r="B146" s="34"/>
+      <c r="C146" s="34"/>
+      <c r="D146" s="34"/>
+      <c r="E146" s="34"/>
+      <c r="F146" s="34"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="35"/>
     </row>
     <row r="148" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -4599,18 +4678,18 @@
       <c r="H149" s="39"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="32" t="s">
+      <c r="A150" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B150" s="33"/>
-      <c r="C150" s="34" t="s">
+      <c r="B150" s="41"/>
+      <c r="C150" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="D150" s="34"/>
-      <c r="E150" s="34"/>
-      <c r="F150" s="34"/>
-      <c r="G150" s="34"/>
-      <c r="H150" s="35"/>
+      <c r="D150" s="32"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="32"/>
+      <c r="G150" s="32"/>
+      <c r="H150" s="33"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
@@ -4804,13 +4883,13 @@
       <c r="A162" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B162" s="40"/>
-      <c r="C162" s="40"/>
-      <c r="D162" s="40"/>
-      <c r="E162" s="40"/>
-      <c r="F162" s="40"/>
-      <c r="G162" s="40"/>
-      <c r="H162" s="41"/>
+      <c r="B162" s="34"/>
+      <c r="C162" s="34"/>
+      <c r="D162" s="34"/>
+      <c r="E162" s="34"/>
+      <c r="F162" s="34"/>
+      <c r="G162" s="34"/>
+      <c r="H162" s="35"/>
     </row>
     <row r="164" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -4832,18 +4911,18 @@
       <c r="H165" s="39"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="32" t="s">
+      <c r="A166" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B166" s="33"/>
-      <c r="C166" s="34" t="s">
+      <c r="B166" s="41"/>
+      <c r="C166" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="D166" s="34"/>
-      <c r="E166" s="34"/>
-      <c r="F166" s="34"/>
-      <c r="G166" s="34"/>
-      <c r="H166" s="35"/>
+      <c r="D166" s="32"/>
+      <c r="E166" s="32"/>
+      <c r="F166" s="32"/>
+      <c r="G166" s="32"/>
+      <c r="H166" s="33"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
@@ -5061,13 +5140,13 @@
       <c r="A178" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B178" s="40"/>
-      <c r="C178" s="40"/>
-      <c r="D178" s="40"/>
-      <c r="E178" s="40"/>
-      <c r="F178" s="40"/>
-      <c r="G178" s="40"/>
-      <c r="H178" s="41"/>
+      <c r="B178" s="34"/>
+      <c r="C178" s="34"/>
+      <c r="D178" s="34"/>
+      <c r="E178" s="34"/>
+      <c r="F178" s="34"/>
+      <c r="G178" s="34"/>
+      <c r="H178" s="35"/>
     </row>
     <row r="179" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -5089,18 +5168,18 @@
       <c r="H180" s="39"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="32" t="s">
+      <c r="A181" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B181" s="33"/>
-      <c r="C181" s="34" t="s">
+      <c r="B181" s="41"/>
+      <c r="C181" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="D181" s="34"/>
-      <c r="E181" s="34"/>
-      <c r="F181" s="34"/>
-      <c r="G181" s="34"/>
-      <c r="H181" s="35"/>
+      <c r="D181" s="32"/>
+      <c r="E181" s="32"/>
+      <c r="F181" s="32"/>
+      <c r="G181" s="32"/>
+      <c r="H181" s="33"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
@@ -5312,13 +5391,13 @@
       <c r="A193" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B193" s="40"/>
-      <c r="C193" s="40"/>
-      <c r="D193" s="40"/>
-      <c r="E193" s="40"/>
-      <c r="F193" s="40"/>
-      <c r="G193" s="40"/>
-      <c r="H193" s="41"/>
+      <c r="B193" s="34"/>
+      <c r="C193" s="34"/>
+      <c r="D193" s="34"/>
+      <c r="E193" s="34"/>
+      <c r="F193" s="34"/>
+      <c r="G193" s="34"/>
+      <c r="H193" s="35"/>
     </row>
     <row r="194" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -5340,18 +5419,18 @@
       <c r="H195" s="39"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196" s="32" t="s">
+      <c r="A196" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B196" s="33"/>
-      <c r="C196" s="34" t="s">
+      <c r="B196" s="41"/>
+      <c r="C196" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="D196" s="34"/>
-      <c r="E196" s="34"/>
-      <c r="F196" s="34"/>
-      <c r="G196" s="34"/>
-      <c r="H196" s="35"/>
+      <c r="D196" s="32"/>
+      <c r="E196" s="32"/>
+      <c r="F196" s="32"/>
+      <c r="G196" s="32"/>
+      <c r="H196" s="33"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="s">
@@ -5545,13 +5624,13 @@
       <c r="A208" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B208" s="40"/>
-      <c r="C208" s="40"/>
-      <c r="D208" s="40"/>
-      <c r="E208" s="40"/>
-      <c r="F208" s="40"/>
-      <c r="G208" s="40"/>
-      <c r="H208" s="41"/>
+      <c r="B208" s="34"/>
+      <c r="C208" s="34"/>
+      <c r="D208" s="34"/>
+      <c r="E208" s="34"/>
+      <c r="F208" s="34"/>
+      <c r="G208" s="34"/>
+      <c r="H208" s="35"/>
     </row>
     <row r="209" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
@@ -5573,18 +5652,18 @@
       <c r="H210" s="39"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A211" s="32" t="s">
+      <c r="A211" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B211" s="33"/>
-      <c r="C211" s="34" t="s">
+      <c r="B211" s="41"/>
+      <c r="C211" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="D211" s="34"/>
-      <c r="E211" s="34"/>
-      <c r="F211" s="34"/>
-      <c r="G211" s="34"/>
-      <c r="H211" s="35"/>
+      <c r="D211" s="32"/>
+      <c r="E211" s="32"/>
+      <c r="F211" s="32"/>
+      <c r="G211" s="32"/>
+      <c r="H211" s="33"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="10" t="s">
@@ -5788,13 +5867,13 @@
       <c r="A223" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B223" s="40"/>
-      <c r="C223" s="40"/>
-      <c r="D223" s="40"/>
-      <c r="E223" s="40"/>
-      <c r="F223" s="40"/>
-      <c r="G223" s="40"/>
-      <c r="H223" s="41"/>
+      <c r="B223" s="34"/>
+      <c r="C223" s="34"/>
+      <c r="D223" s="34"/>
+      <c r="E223" s="34"/>
+      <c r="F223" s="34"/>
+      <c r="G223" s="34"/>
+      <c r="H223" s="35"/>
     </row>
     <row r="225" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
@@ -5816,18 +5895,18 @@
       <c r="H226" s="39"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A227" s="32" t="s">
+      <c r="A227" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B227" s="33"/>
-      <c r="C227" s="34" t="s">
+      <c r="B227" s="41"/>
+      <c r="C227" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="D227" s="34"/>
-      <c r="E227" s="34"/>
-      <c r="F227" s="34"/>
-      <c r="G227" s="34"/>
-      <c r="H227" s="35"/>
+      <c r="D227" s="32"/>
+      <c r="E227" s="32"/>
+      <c r="F227" s="32"/>
+      <c r="G227" s="32"/>
+      <c r="H227" s="33"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="10" t="s">
@@ -6055,13 +6134,13 @@
       <c r="A239" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B239" s="40"/>
-      <c r="C239" s="40"/>
-      <c r="D239" s="40"/>
-      <c r="E239" s="40"/>
-      <c r="F239" s="40"/>
-      <c r="G239" s="40"/>
-      <c r="H239" s="41"/>
+      <c r="B239" s="34"/>
+      <c r="C239" s="34"/>
+      <c r="D239" s="34"/>
+      <c r="E239" s="34"/>
+      <c r="F239" s="34"/>
+      <c r="G239" s="34"/>
+      <c r="H239" s="35"/>
     </row>
     <row r="241" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -6083,18 +6162,18 @@
       <c r="H242" s="39"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A243" s="32" t="s">
+      <c r="A243" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B243" s="33"/>
-      <c r="C243" s="34" t="s">
+      <c r="B243" s="41"/>
+      <c r="C243" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="D243" s="34"/>
-      <c r="E243" s="34"/>
-      <c r="F243" s="34"/>
-      <c r="G243" s="34"/>
-      <c r="H243" s="35"/>
+      <c r="D243" s="32"/>
+      <c r="E243" s="32"/>
+      <c r="F243" s="32"/>
+      <c r="G243" s="32"/>
+      <c r="H243" s="33"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="10" t="s">
@@ -6318,13 +6397,13 @@
       <c r="A255" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B255" s="40"/>
-      <c r="C255" s="40"/>
-      <c r="D255" s="40"/>
-      <c r="E255" s="40"/>
-      <c r="F255" s="40"/>
-      <c r="G255" s="40"/>
-      <c r="H255" s="41"/>
+      <c r="B255" s="34"/>
+      <c r="C255" s="34"/>
+      <c r="D255" s="34"/>
+      <c r="E255" s="34"/>
+      <c r="F255" s="34"/>
+      <c r="G255" s="34"/>
+      <c r="H255" s="35"/>
     </row>
     <row r="256" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
@@ -6346,18 +6425,18 @@
       <c r="H257" s="39"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A258" s="32" t="s">
+      <c r="A258" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B258" s="33"/>
-      <c r="C258" s="34" t="s">
+      <c r="B258" s="41"/>
+      <c r="C258" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="D258" s="34"/>
-      <c r="E258" s="34"/>
-      <c r="F258" s="34"/>
-      <c r="G258" s="34"/>
-      <c r="H258" s="35"/>
+      <c r="D258" s="32"/>
+      <c r="E258" s="32"/>
+      <c r="F258" s="32"/>
+      <c r="G258" s="32"/>
+      <c r="H258" s="33"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="10" t="s">
@@ -6535,13 +6614,13 @@
       <c r="A270" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B270" s="40"/>
-      <c r="C270" s="40"/>
-      <c r="D270" s="40"/>
-      <c r="E270" s="40"/>
-      <c r="F270" s="40"/>
-      <c r="G270" s="40"/>
-      <c r="H270" s="41"/>
+      <c r="B270" s="34"/>
+      <c r="C270" s="34"/>
+      <c r="D270" s="34"/>
+      <c r="E270" s="34"/>
+      <c r="F270" s="34"/>
+      <c r="G270" s="34"/>
+      <c r="H270" s="35"/>
     </row>
     <row r="271" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -6563,18 +6642,18 @@
       <c r="H272" s="39"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A273" s="32" t="s">
+      <c r="A273" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B273" s="33"/>
-      <c r="C273" s="34" t="s">
+      <c r="B273" s="41"/>
+      <c r="C273" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="D273" s="34"/>
-      <c r="E273" s="34"/>
-      <c r="F273" s="34"/>
-      <c r="G273" s="34"/>
-      <c r="H273" s="35"/>
+      <c r="D273" s="32"/>
+      <c r="E273" s="32"/>
+      <c r="F273" s="32"/>
+      <c r="G273" s="32"/>
+      <c r="H273" s="33"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="10" t="s">
@@ -6671,7 +6750,7 @@
         <v>4</v>
       </c>
       <c r="B278" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C278" s="24" t="s">
         <v>160</v>
@@ -6796,13 +6875,13 @@
       <c r="A285" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B285" s="40"/>
-      <c r="C285" s="40"/>
-      <c r="D285" s="40"/>
-      <c r="E285" s="40"/>
-      <c r="F285" s="40"/>
-      <c r="G285" s="40"/>
-      <c r="H285" s="41"/>
+      <c r="B285" s="34"/>
+      <c r="C285" s="34"/>
+      <c r="D285" s="34"/>
+      <c r="E285" s="34"/>
+      <c r="F285" s="34"/>
+      <c r="G285" s="34"/>
+      <c r="H285" s="35"/>
     </row>
     <row r="287" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
@@ -6824,18 +6903,18 @@
       <c r="H288" s="39"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A289" s="32" t="s">
+      <c r="A289" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B289" s="33"/>
-      <c r="C289" s="34" t="s">
+      <c r="B289" s="41"/>
+      <c r="C289" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="D289" s="34"/>
-      <c r="E289" s="34"/>
-      <c r="F289" s="34"/>
-      <c r="G289" s="34"/>
-      <c r="H289" s="35"/>
+      <c r="D289" s="32"/>
+      <c r="E289" s="32"/>
+      <c r="F289" s="32"/>
+      <c r="G289" s="32"/>
+      <c r="H289" s="33"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="10" t="s">
@@ -7015,16 +7094,104 @@
       <c r="A301" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B301" s="40"/>
-      <c r="C301" s="40"/>
-      <c r="D301" s="40"/>
-      <c r="E301" s="40"/>
-      <c r="F301" s="40"/>
-      <c r="G301" s="40"/>
-      <c r="H301" s="41"/>
+      <c r="B301" s="34"/>
+      <c r="C301" s="34"/>
+      <c r="D301" s="34"/>
+      <c r="E301" s="34"/>
+      <c r="F301" s="34"/>
+      <c r="G301" s="34"/>
+      <c r="H301" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:H150"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="F165:H165"/>
+    <mergeCell ref="B223:H223"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="C211:H211"/>
+    <mergeCell ref="B255:H255"/>
+    <mergeCell ref="B239:H239"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="F242:H242"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="C243:H243"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="F226:H226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="C227:H227"/>
+    <mergeCell ref="B193:H193"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="F210:H210"/>
+    <mergeCell ref="B162:H162"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:H181"/>
+    <mergeCell ref="B208:H208"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="F195:H195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="C196:H196"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C166:H166"/>
+    <mergeCell ref="B178:H178"/>
+    <mergeCell ref="F180:H180"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:H118"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="B98:H98"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:H134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="B114:H114"/>
     <mergeCell ref="C47:H47"/>
     <mergeCell ref="B59:H59"/>
     <mergeCell ref="C102:H102"/>
@@ -7049,94 +7216,6 @@
     <mergeCell ref="F272:H272"/>
     <mergeCell ref="A273:B273"/>
     <mergeCell ref="C273:H273"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="B98:H98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:H134"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="B114:H114"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="C181:H181"/>
-    <mergeCell ref="B208:H208"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="F195:H195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="C196:H196"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="C166:H166"/>
-    <mergeCell ref="B178:H178"/>
-    <mergeCell ref="F180:H180"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="C150:H150"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="F165:H165"/>
-    <mergeCell ref="B223:H223"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="C211:H211"/>
-    <mergeCell ref="B255:H255"/>
-    <mergeCell ref="B239:H239"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="F242:H242"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="C243:H243"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="F226:H226"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="C227:H227"/>
-    <mergeCell ref="B193:H193"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="F210:H210"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7186,16 +7265,16 @@
       <c r="I2" s="39"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
@@ -7431,13 +7510,13 @@
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7473,116 +7552,187 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C17"/>
+  <dimension ref="B2:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="61" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="62" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="62" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="62" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="62" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="C7" s="62" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="B9" s="65" t="s">
         <v>23</v>
       </c>
+      <c r="C9" s="65"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="B10" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="62" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="62" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="B12" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="62" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>324</v>
-      </c>
+      <c r="B14" s="65" t="s">
+        <v>327</v>
+      </c>
+      <c r="C14" s="65"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="B15" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="62" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="B16" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="62" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="B17" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="62" t="s">
         <v>136</v>
       </c>
     </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="C19" s="65"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="62" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="C23" s="65"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="62" t="s">
+        <v>337</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="62" t="s">
+        <v>336</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="62" t="s">
+        <v>338</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B23:C23"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/문서 관리/04. 테이블정의서.xlsx
+++ b/문서 관리/04. 테이블정의서.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="348">
   <si>
     <t>작성자</t>
   </si>
@@ -1091,16 +1091,10 @@
   </si>
   <si>
     <t>reg_dt</t>
-  </si>
-  <si>
-    <t>reg_dt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mod_dt</t>
-  </si>
-  <si>
-    <t>mod_dt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1353,6 +1347,42 @@
   </si>
   <si>
     <t>거절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_by</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modified_by</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*_yn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1871,7 +1901,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1974,6 +2004,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2054,18 +2108,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2377,7 +2419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:I296"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -2395,74 +2437,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52" t="s">
+      <c r="E4" s="59"/>
+      <c r="F4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -2507,7 +2549,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
@@ -2845,7 +2887,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>48</v>
@@ -2904,13 +2946,13 @@
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28"/>
@@ -2924,36 +2966,36 @@
     </row>
     <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="37"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="42" t="s">
+      <c r="E30" s="45"/>
+      <c r="F30" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="43"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="32" t="s">
+      <c r="B31" s="49"/>
+      <c r="C31" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="41"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
@@ -3070,7 +3112,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>85</v>
@@ -3149,46 +3191,46 @@
       <c r="A43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="35"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="43"/>
     </row>
     <row r="45" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="37"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="38" t="s">
+      <c r="E46" s="45"/>
+      <c r="F46" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="G46" s="38"/>
-      <c r="H46" s="39"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="47"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="32" t="s">
+      <c r="B47" s="49"/>
+      <c r="C47" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="33"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="41"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
@@ -3297,7 +3339,7 @@
         <v>94</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G52" s="21"/>
       <c r="H52" s="22"/>
@@ -3378,46 +3420,46 @@
       <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="35"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="43"/>
     </row>
     <row r="61" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="37"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="37" t="s">
+      <c r="D62" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E62" s="37"/>
-      <c r="F62" s="38" t="s">
+      <c r="E62" s="45"/>
+      <c r="F62" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="G62" s="38"/>
-      <c r="H62" s="39"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="47"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="40" t="s">
+      <c r="A63" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="41"/>
-      <c r="C63" s="32" t="s">
+      <c r="B63" s="49"/>
+      <c r="C63" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="33"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="41"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
@@ -3453,7 +3495,7 @@
         <v>91</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>116</v>
@@ -3553,18 +3595,18 @@
       <c r="A70" s="1">
         <v>6</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>275</v>
+      <c r="B70" s="28" t="s">
+        <v>261</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="17" t="s">
         <v>94</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="7"/>
@@ -3573,18 +3615,18 @@
       <c r="A71" s="1">
         <v>7</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>99</v>
+      <c r="B71" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="17" t="s">
         <v>94</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="7"/>
@@ -3593,31 +3635,31 @@
       <c r="A72" s="1">
         <v>8</v>
       </c>
-      <c r="B72" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F72" s="17" t="s">
+      <c r="B72" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G72" s="6"/>
-      <c r="H72" s="7"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="33"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>9</v>
       </c>
-      <c r="B73" s="28" t="s">
-        <v>262</v>
+      <c r="B73" s="6" t="s">
+        <v>340</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>141</v>
+        <v>342</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="17" t="s">
@@ -3633,136 +3675,144 @@
       <c r="A74" s="1">
         <v>10</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
+      <c r="B74" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F74" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G74" s="38"/>
+      <c r="H74" s="39"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>11</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F75" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G75" s="38"/>
+      <c r="H75" s="39"/>
+    </row>
+    <row r="76" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="35"/>
-    </row>
-    <row r="77" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="36" t="s">
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="43"/>
+    </row>
+    <row r="78" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="37"/>
-      <c r="C78" s="16" t="s">
+      <c r="B79" s="45"/>
+      <c r="C79" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D78" s="37" t="s">
+      <c r="D79" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E78" s="37"/>
-      <c r="F78" s="38" t="s">
+      <c r="E79" s="45"/>
+      <c r="F79" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="G78" s="38"/>
-      <c r="H78" s="39"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="40" t="s">
+      <c r="G79" s="46"/>
+      <c r="H79" s="47"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="41"/>
-      <c r="C79" s="32" t="s">
+      <c r="B80" s="49"/>
+      <c r="C80" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="33"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="10" t="s">
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="41"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B81" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C81" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D81" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E81" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F80" s="11" t="s">
+      <c r="F81" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G80" s="11" t="s">
+      <c r="G81" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H80" s="12" t="s">
+      <c r="H81" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
         <v>1</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B82" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C82" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D82" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E82" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="F81" s="17" t="s">
+      <c r="F82" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="G81" s="17"/>
-      <c r="H81" s="18"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>2</v>
-      </c>
-      <c r="B82" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C82" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F82" s="17" t="s">
-        <v>64</v>
       </c>
       <c r="G82" s="17"/>
       <c r="H82" s="18"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="17" t="s">
@@ -3774,15 +3824,15 @@
       <c r="G83" s="17"/>
       <c r="H83" s="18"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17" t="s">
@@ -3794,15 +3844,15 @@
       <c r="G84" s="17"/>
       <c r="H84" s="18"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="17" t="s">
@@ -3814,43 +3864,51 @@
       <c r="G85" s="17"/>
       <c r="H85" s="18"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>183</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D86" s="17"/>
       <c r="E86" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G86" s="17"/>
       <c r="H86" s="18"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>7</v>
-      </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
+        <v>6</v>
+      </c>
+      <c r="B87" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="G87" s="17"/>
       <c r="H87" s="18"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
@@ -3860,9 +3918,9 @@
       <c r="G88" s="17"/>
       <c r="H88" s="18"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
@@ -3872,9 +3930,9 @@
       <c r="G89" s="17"/>
       <c r="H89" s="18"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
@@ -3884,9 +3942,9 @@
       <c r="G90" s="17"/>
       <c r="H90" s="18"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
@@ -3896,169 +3954,169 @@
       <c r="G91" s="17"/>
       <c r="H91" s="18"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+    <row r="92" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="18"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>13</v>
-      </c>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="18"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>14</v>
-      </c>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="18"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>15</v>
-      </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="18"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>16</v>
-      </c>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="18"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>17</v>
-      </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="5"/>
-    </row>
-    <row r="98" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B98" s="34"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="35"/>
-    </row>
-    <row r="100" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="36" t="s">
+      <c r="B92" s="42"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="43"/>
+    </row>
+    <row r="94" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="37"/>
-      <c r="C101" s="16" t="s">
+      <c r="B95" s="45"/>
+      <c r="C95" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D101" s="37" t="s">
+      <c r="D95" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E101" s="37"/>
-      <c r="F101" s="38" t="s">
+      <c r="E95" s="45"/>
+      <c r="F95" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="G101" s="38"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="30" t="s">
+      <c r="G95" s="46"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="30" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="40" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="41"/>
-      <c r="C102" s="32" t="s">
+      <c r="B96" s="49"/>
+      <c r="C96" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="33"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="10" t="s">
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="41"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B97" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C97" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="D97" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="E97" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F103" s="11" t="s">
+      <c r="F97" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G103" s="11" t="s">
+      <c r="G97" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H103" s="12" t="s">
+      <c r="H97" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>1</v>
+      </c>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="18"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>2</v>
+      </c>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="18"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>3</v>
+      </c>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="18"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>4</v>
+      </c>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="18"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>5</v>
+      </c>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="18"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>6</v>
+      </c>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="18"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B104" s="17"/>
-      <c r="C104" s="17" t="s">
-        <v>119</v>
-      </c>
+      <c r="C104" s="17"/>
       <c r="D104" s="17"/>
       <c r="E104" s="17"/>
       <c r="F104" s="17"/>
       <c r="G104" s="17"/>
       <c r="H104" s="18"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -4068,9 +4126,9 @@
       <c r="G105" s="17"/>
       <c r="H105" s="18"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
@@ -4080,9 +4138,9 @@
       <c r="G106" s="17"/>
       <c r="H106" s="18"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
@@ -4092,184 +4150,232 @@
       <c r="G107" s="17"/>
       <c r="H107" s="18"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
+    <row r="108" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="42"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="43"/>
+    </row>
+    <row r="110" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="45"/>
+      <c r="C111" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D111" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" s="45"/>
+      <c r="F111" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="G111" s="46"/>
+      <c r="H111" s="47"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="49"/>
+      <c r="C112" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="D112" s="40"/>
+      <c r="E112" s="40"/>
+      <c r="F112" s="40"/>
+      <c r="G112" s="40"/>
+      <c r="H112" s="41"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="18"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
+      <c r="C113" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="18"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
+      <c r="D113" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="18"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
+      <c r="E113" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="18"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
+      <c r="F113" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="18"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
+      <c r="G113" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="18"/>
-    </row>
-    <row r="114" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B114" s="34"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="34"/>
-      <c r="G114" s="34"/>
-      <c r="H114" s="35"/>
-    </row>
-    <row r="116" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="H113" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>1</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E114" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F114" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G114" s="21"/>
+      <c r="H114" s="22"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>2</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F115" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G115" s="21"/>
+      <c r="H115" s="22"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>3</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F116" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G116" s="21"/>
+      <c r="H116" s="22"/>
+    </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B117" s="37"/>
-      <c r="C117" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="D117" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E117" s="37"/>
-      <c r="F117" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="G117" s="38"/>
-      <c r="H117" s="39"/>
+      <c r="A117" s="1">
+        <v>4</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F117" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G117" s="21"/>
+      <c r="H117" s="22"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B118" s="41"/>
-      <c r="C118" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="D118" s="32"/>
-      <c r="E118" s="32"/>
-      <c r="F118" s="32"/>
-      <c r="G118" s="32"/>
-      <c r="H118" s="33"/>
+      <c r="A118" s="1">
+        <v>5</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F118" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G118" s="21"/>
+      <c r="H118" s="22"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" s="11" t="s">
+      <c r="A119" s="1">
         <v>6</v>
       </c>
-      <c r="D119" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H119" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="B119" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F119" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G119" s="21"/>
+      <c r="H119" s="22"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D120" s="21" t="s">
-        <v>199</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D120" s="21"/>
       <c r="E120" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F120" s="21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G120" s="21"/>
       <c r="H120" s="22"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="D121" s="21"/>
       <c r="E121" s="21" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="F121" s="21" t="s">
         <v>64</v>
@@ -4279,714 +4385,730 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>3</v>
-      </c>
-      <c r="B122" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="C122" s="21" t="s">
-        <v>121</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B122" s="21"/>
+      <c r="C122" s="21"/>
       <c r="D122" s="21"/>
-      <c r="E122" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F122" s="21" t="s">
-        <v>64</v>
-      </c>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
       <c r="G122" s="21"/>
       <c r="H122" s="22"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>4</v>
-      </c>
-      <c r="B123" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C123" s="21" t="s">
-        <v>122</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
       <c r="D123" s="21"/>
-      <c r="E123" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F123" s="21" t="s">
-        <v>64</v>
-      </c>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
       <c r="G123" s="21"/>
       <c r="H123" s="22"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
+    <row r="124" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="42"/>
+      <c r="C124" s="42"/>
+      <c r="D124" s="42"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="42"/>
+      <c r="G124" s="42"/>
+      <c r="H124" s="43"/>
+    </row>
+    <row r="126" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="45"/>
+      <c r="C127" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D127" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E127" s="45"/>
+      <c r="F127" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="G127" s="46"/>
+      <c r="H127" s="47"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" s="49"/>
+      <c r="C128" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="D128" s="40"/>
+      <c r="E128" s="40"/>
+      <c r="F128" s="40"/>
+      <c r="G128" s="40"/>
+      <c r="H128" s="41"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B124" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C124" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D124" s="21"/>
-      <c r="E124" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F124" s="21" t="s">
+      <c r="C129" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>1</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E130" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F130" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G130" s="21"/>
+      <c r="H130" s="22"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>2</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F131" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G124" s="21"/>
-      <c r="H124" s="22"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
+      <c r="G131" s="21"/>
+      <c r="H131" s="22"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>3</v>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F132" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G132" s="21"/>
+      <c r="H132" s="22"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>4</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F133" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G133" s="21"/>
+      <c r="H133" s="22"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>5</v>
+      </c>
+      <c r="B134" s="21"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="22"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
         <v>6</v>
       </c>
-      <c r="B125" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="C125" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D125" s="21"/>
-      <c r="E125" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F125" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G125" s="21"/>
-      <c r="H125" s="22"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
-        <v>7</v>
-      </c>
-      <c r="B126" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="C126" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D126" s="21"/>
-      <c r="E126" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F126" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G126" s="21"/>
-      <c r="H126" s="22"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
-        <v>8</v>
-      </c>
-      <c r="B127" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C127" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F127" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G127" s="21"/>
-      <c r="H127" s="22"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
-        <v>9</v>
-      </c>
-      <c r="B128" s="21"/>
-      <c r="C128" s="21"/>
-      <c r="D128" s="21"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="21"/>
-      <c r="H128" s="22"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
-        <v>10</v>
-      </c>
-      <c r="B129" s="21"/>
-      <c r="C129" s="21"/>
-      <c r="D129" s="21"/>
-      <c r="E129" s="21"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="21"/>
-      <c r="H129" s="22"/>
-    </row>
-    <row r="130" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B130" s="34"/>
-      <c r="C130" s="34"/>
-      <c r="D130" s="34"/>
-      <c r="E130" s="34"/>
-      <c r="F130" s="34"/>
-      <c r="G130" s="34"/>
-      <c r="H130" s="35"/>
-    </row>
-    <row r="132" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B133" s="37"/>
-      <c r="C133" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D133" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E133" s="37"/>
-      <c r="F133" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="G133" s="38"/>
-      <c r="H133" s="39"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B134" s="41"/>
-      <c r="C134" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="D134" s="32"/>
-      <c r="E134" s="32"/>
-      <c r="F134" s="32"/>
-      <c r="G134" s="32"/>
-      <c r="H134" s="33"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G135" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H135" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="22"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>1</v>
-      </c>
-      <c r="B136" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C136" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D136" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="E136" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F136" s="21" t="s">
-        <v>62</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B136" s="21"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="21"/>
       <c r="G136" s="21"/>
       <c r="H136" s="22"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>2</v>
-      </c>
-      <c r="B137" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C137" s="21" t="s">
-        <v>126</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
       <c r="D137" s="21"/>
-      <c r="E137" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F137" s="21" t="s">
-        <v>64</v>
-      </c>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
       <c r="G137" s="21"/>
       <c r="H137" s="22"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>3</v>
-      </c>
-      <c r="B138" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C138" s="21" t="s">
-        <v>127</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
       <c r="D138" s="21"/>
-      <c r="E138" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F138" s="21" t="s">
-        <v>64</v>
-      </c>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21"/>
       <c r="G138" s="21"/>
       <c r="H138" s="22"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>4</v>
-      </c>
-      <c r="B139" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C139" s="21" t="s">
-        <v>143</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
       <c r="D139" s="21"/>
-      <c r="E139" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F139" s="21" t="s">
-        <v>64</v>
-      </c>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21"/>
       <c r="G139" s="21"/>
       <c r="H139" s="22"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
+    <row r="140" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="42"/>
+      <c r="C140" s="42"/>
+      <c r="D140" s="42"/>
+      <c r="E140" s="42"/>
+      <c r="F140" s="42"/>
+      <c r="G140" s="42"/>
+      <c r="H140" s="43"/>
+    </row>
+    <row r="142" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="45"/>
+      <c r="C143" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D143" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E143" s="45"/>
+      <c r="F143" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="G143" s="46"/>
+      <c r="H143" s="47"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" s="49"/>
+      <c r="C144" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="D144" s="40"/>
+      <c r="E144" s="40"/>
+      <c r="F144" s="40"/>
+      <c r="G144" s="40"/>
+      <c r="H144" s="41"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B140" s="21"/>
-      <c r="C140" s="21"/>
-      <c r="D140" s="21"/>
-      <c r="E140" s="21"/>
-      <c r="F140" s="21"/>
-      <c r="G140" s="21"/>
-      <c r="H140" s="22"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
+      <c r="C145" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B141" s="21"/>
-      <c r="C141" s="21"/>
-      <c r="D141" s="21"/>
-      <c r="E141" s="21"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="21"/>
-      <c r="H141" s="22"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
+      <c r="D145" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B142" s="21"/>
-      <c r="C142" s="21"/>
-      <c r="D142" s="21"/>
-      <c r="E142" s="21"/>
-      <c r="F142" s="21"/>
-      <c r="G142" s="21"/>
-      <c r="H142" s="22"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
+      <c r="E145" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B143" s="21"/>
-      <c r="C143" s="21"/>
-      <c r="D143" s="21"/>
-      <c r="E143" s="21"/>
-      <c r="F143" s="21"/>
-      <c r="G143" s="21"/>
-      <c r="H143" s="22"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
+      <c r="F145" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B144" s="21"/>
-      <c r="C144" s="21"/>
-      <c r="D144" s="21"/>
-      <c r="E144" s="21"/>
-      <c r="F144" s="21"/>
-      <c r="G144" s="21"/>
-      <c r="H144" s="22"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
+      <c r="G145" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B145" s="21"/>
-      <c r="C145" s="21"/>
-      <c r="D145" s="21"/>
-      <c r="E145" s="21"/>
-      <c r="F145" s="21"/>
-      <c r="G145" s="21"/>
-      <c r="H145" s="22"/>
-    </row>
-    <row r="146" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B146" s="34"/>
-      <c r="C146" s="34"/>
-      <c r="D146" s="34"/>
-      <c r="E146" s="34"/>
-      <c r="F146" s="34"/>
-      <c r="G146" s="34"/>
-      <c r="H146" s="35"/>
-    </row>
-    <row r="148" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="H145" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>1</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D146" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E146" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F146" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G146" s="21"/>
+      <c r="H146" s="22"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>2</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F147" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G147" s="21"/>
+      <c r="H147" s="22"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>3</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F148" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G148" s="21"/>
+      <c r="H148" s="22"/>
+    </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B149" s="37"/>
-      <c r="C149" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="D149" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E149" s="37"/>
+      <c r="A149" s="1">
+        <v>4</v>
+      </c>
+      <c r="B149" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="C149" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="D149" s="38"/>
+      <c r="E149" s="38" t="s">
+        <v>94</v>
+      </c>
       <c r="F149" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="G149" s="38"/>
-      <c r="H149" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="G149" s="21"/>
+      <c r="H149" s="22"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B150" s="41"/>
-      <c r="C150" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="D150" s="32"/>
-      <c r="E150" s="32"/>
-      <c r="F150" s="32"/>
-      <c r="G150" s="32"/>
-      <c r="H150" s="33"/>
+      <c r="A150" s="1">
+        <v>5</v>
+      </c>
+      <c r="B150" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="C150" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="D150" s="38"/>
+      <c r="E150" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F150" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G150" s="21"/>
+      <c r="H150" s="22"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C151" s="11" t="s">
+      <c r="A151" s="1">
         <v>6</v>
       </c>
-      <c r="D151" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F151" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G151" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H151" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="B151" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="C151" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D151" s="38"/>
+      <c r="E151" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F151" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G151" s="21"/>
+      <c r="H151" s="22"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>1</v>
-      </c>
-      <c r="B152" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C152" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="D152" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="E152" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F152" s="21" t="s">
-        <v>62</v>
+        <v>7</v>
+      </c>
+      <c r="B152" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="C152" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D152" s="38"/>
+      <c r="E152" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F152" s="38" t="s">
+        <v>66</v>
       </c>
       <c r="G152" s="21"/>
       <c r="H152" s="22"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>2</v>
-      </c>
-      <c r="B153" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C153" s="21" t="s">
-        <v>128</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B153" s="21"/>
+      <c r="C153" s="21"/>
       <c r="D153" s="21"/>
-      <c r="E153" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F153" s="21" t="s">
-        <v>64</v>
-      </c>
+      <c r="E153" s="21"/>
+      <c r="F153" s="21"/>
       <c r="G153" s="21"/>
       <c r="H153" s="22"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>3</v>
-      </c>
-      <c r="B154" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C154" s="21" t="s">
-        <v>129</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B154" s="21"/>
+      <c r="C154" s="21"/>
       <c r="D154" s="21"/>
-      <c r="E154" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F154" s="21" t="s">
-        <v>177</v>
-      </c>
+      <c r="E154" s="21"/>
+      <c r="F154" s="21"/>
       <c r="G154" s="21"/>
       <c r="H154" s="22"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>4</v>
-      </c>
-      <c r="B155" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="C155" s="28" t="s">
-        <v>98</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B155" s="21"/>
+      <c r="C155" s="21"/>
       <c r="D155" s="21"/>
-      <c r="E155" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F155" s="21" t="s">
-        <v>66</v>
-      </c>
+      <c r="E155" s="21"/>
+      <c r="F155" s="21"/>
       <c r="G155" s="21"/>
       <c r="H155" s="22"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
+    <row r="156" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="42"/>
+      <c r="C156" s="42"/>
+      <c r="D156" s="42"/>
+      <c r="E156" s="42"/>
+      <c r="F156" s="42"/>
+      <c r="G156" s="42"/>
+      <c r="H156" s="43"/>
+    </row>
+    <row r="158" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159" s="45"/>
+      <c r="C159" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D159" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E159" s="45"/>
+      <c r="F159" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="G159" s="46"/>
+      <c r="H159" s="47"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" s="49"/>
+      <c r="C160" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="D160" s="40"/>
+      <c r="E160" s="40"/>
+      <c r="F160" s="40"/>
+      <c r="G160" s="40"/>
+      <c r="H160" s="41"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B156" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="C156" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D156" s="21"/>
-      <c r="E156" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F156" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G156" s="21"/>
-      <c r="H156" s="22"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
+      <c r="C161" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B157" s="21"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="21"/>
-      <c r="E157" s="21"/>
-      <c r="F157" s="21"/>
-      <c r="G157" s="21"/>
-      <c r="H157" s="22"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
+      <c r="D161" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B158" s="21"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="21"/>
-      <c r="E158" s="21"/>
-      <c r="F158" s="21"/>
-      <c r="G158" s="21"/>
-      <c r="H158" s="22"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="1">
+      <c r="E161" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B159" s="21"/>
-      <c r="C159" s="21"/>
-      <c r="D159" s="21"/>
-      <c r="E159" s="21"/>
-      <c r="F159" s="21"/>
-      <c r="G159" s="21"/>
-      <c r="H159" s="22"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="1">
+      <c r="F161" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B160" s="21"/>
-      <c r="C160" s="21"/>
-      <c r="D160" s="21"/>
-      <c r="E160" s="21"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="22"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="1">
+      <c r="G161" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B161" s="21"/>
-      <c r="C161" s="21"/>
-      <c r="D161" s="21"/>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="22"/>
-    </row>
-    <row r="162" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B162" s="34"/>
-      <c r="C162" s="34"/>
-      <c r="D162" s="34"/>
-      <c r="E162" s="34"/>
-      <c r="F162" s="34"/>
-      <c r="G162" s="34"/>
-      <c r="H162" s="35"/>
-    </row>
-    <row r="164" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="H161" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>1</v>
+      </c>
+      <c r="B162" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C162" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D162" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="E162" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F162" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G162" s="28"/>
+      <c r="H162" s="29"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>2</v>
+      </c>
+      <c r="B163" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C163" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D163" s="28"/>
+      <c r="E163" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F163" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G163" s="28"/>
+      <c r="H163" s="29"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>3</v>
+      </c>
+      <c r="B164" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C164" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D164" s="28"/>
+      <c r="E164" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F164" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="G164" s="28"/>
+      <c r="H164" s="29"/>
+    </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B165" s="37"/>
-      <c r="C165" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D165" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E165" s="37"/>
+      <c r="A165" s="1">
+        <v>4</v>
+      </c>
+      <c r="B165" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C165" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="D165" s="38"/>
+      <c r="E165" s="38" t="s">
+        <v>94</v>
+      </c>
       <c r="F165" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="G165" s="38"/>
-      <c r="H165" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="G165" s="28"/>
+      <c r="H165" s="29"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B166" s="41"/>
-      <c r="C166" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="D166" s="32"/>
-      <c r="E166" s="32"/>
-      <c r="F166" s="32"/>
-      <c r="G166" s="32"/>
-      <c r="H166" s="33"/>
+      <c r="A166" s="1">
+        <v>5</v>
+      </c>
+      <c r="B166" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="C166" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="D166" s="38"/>
+      <c r="E166" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F166" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G166" s="28"/>
+      <c r="H166" s="29"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B167" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C167" s="11" t="s">
+      <c r="A167" s="1">
         <v>6</v>
       </c>
-      <c r="D167" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E167" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F167" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G167" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H167" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="B167" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="C167" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="D167" s="38"/>
+      <c r="E167" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F167" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G167" s="28"/>
+      <c r="H167" s="29"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>1</v>
-      </c>
-      <c r="B168" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="C168" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D168" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="E168" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F168" s="28" t="s">
-        <v>62</v>
+        <v>7</v>
+      </c>
+      <c r="B168" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="C168" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="D168" s="38"/>
+      <c r="E168" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F168" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="G168" s="28"/>
       <c r="H168" s="29"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>2</v>
-      </c>
-      <c r="B169" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="C169" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D169" s="28"/>
-      <c r="E169" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F169" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="C169" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="D169" s="38"/>
+      <c r="E169" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F169" s="38" t="s">
         <v>64</v>
       </c>
       <c r="G169" s="28"/>
@@ -4994,1230 +5116,1260 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>3</v>
-      </c>
-      <c r="B170" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="C170" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D170" s="28"/>
-      <c r="E170" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F170" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="G170" s="28"/>
-      <c r="H170" s="29"/>
+        <v>9</v>
+      </c>
+      <c r="B170" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="C170" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D170" s="38"/>
+      <c r="E170" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F170" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G170" s="38"/>
+      <c r="H170" s="39"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>4</v>
-      </c>
-      <c r="B171" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="C171" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D171" s="28"/>
-      <c r="E171" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F171" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="C171" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D171" s="38"/>
+      <c r="E171" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F171" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G171" s="28"/>
       <c r="H171" s="29"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="1">
+    <row r="172" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" s="42"/>
+      <c r="C172" s="42"/>
+      <c r="D172" s="42"/>
+      <c r="E172" s="42"/>
+      <c r="F172" s="42"/>
+      <c r="G172" s="42"/>
+      <c r="H172" s="43"/>
+    </row>
+    <row r="173" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" s="45"/>
+      <c r="C174" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D174" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E174" s="45"/>
+      <c r="F174" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="G174" s="46"/>
+      <c r="H174" s="47"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B175" s="49"/>
+      <c r="C175" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="D175" s="40"/>
+      <c r="E175" s="40"/>
+      <c r="F175" s="40"/>
+      <c r="G175" s="40"/>
+      <c r="H175" s="41"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B172" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="C172" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D172" s="28"/>
-      <c r="E172" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F172" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="G172" s="28"/>
-      <c r="H172" s="29"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="1">
+      <c r="C176" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B173" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="C173" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="D173" s="28"/>
-      <c r="E173" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F173" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G173" s="28"/>
-      <c r="H173" s="29"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="1">
+      <c r="D176" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B174" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="C174" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="D174" s="28"/>
-      <c r="E174" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F174" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G174" s="28"/>
-      <c r="H174" s="29"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" s="1">
+      <c r="E176" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B175" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="C175" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="D175" s="28"/>
-      <c r="E175" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F175" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G175" s="28"/>
-      <c r="H175" s="29"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" s="1">
+      <c r="F176" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B176" s="28"/>
-      <c r="C176" s="28"/>
-      <c r="D176" s="28"/>
-      <c r="E176" s="28"/>
-      <c r="F176" s="28"/>
-      <c r="G176" s="28"/>
-      <c r="H176" s="29"/>
+      <c r="G176" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H176" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>10</v>
-      </c>
-      <c r="B177" s="28"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="28"/>
-      <c r="E177" s="28"/>
-      <c r="F177" s="28"/>
-      <c r="G177" s="28"/>
-      <c r="H177" s="29"/>
-    </row>
-    <row r="178" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B178" s="34"/>
-      <c r="C178" s="34"/>
-      <c r="D178" s="34"/>
-      <c r="E178" s="34"/>
-      <c r="F178" s="34"/>
-      <c r="G178" s="34"/>
-      <c r="H178" s="35"/>
-    </row>
-    <row r="179" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+        <v>1</v>
+      </c>
+      <c r="B177" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C177" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D177" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E177" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F177" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G177" s="21"/>
+      <c r="H177" s="22"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>2</v>
+      </c>
+      <c r="B178" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C178" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D178" s="28"/>
+      <c r="E178" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F178" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G178" s="21"/>
+      <c r="H178" s="22"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>3</v>
+      </c>
+      <c r="B179" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C179" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D179" s="28"/>
+      <c r="E179" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F179" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G179" s="21"/>
+      <c r="H179" s="22"/>
+    </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B180" s="37"/>
-      <c r="C180" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="D180" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E180" s="37"/>
-      <c r="F180" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="G180" s="38"/>
-      <c r="H180" s="39"/>
+      <c r="A180" s="1">
+        <v>4</v>
+      </c>
+      <c r="B180" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C180" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="D180" s="28"/>
+      <c r="E180" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F180" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G180" s="21"/>
+      <c r="H180" s="22"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B181" s="41"/>
-      <c r="C181" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="D181" s="32"/>
-      <c r="E181" s="32"/>
-      <c r="F181" s="32"/>
-      <c r="G181" s="32"/>
-      <c r="H181" s="33"/>
+      <c r="A181" s="1">
+        <v>5</v>
+      </c>
+      <c r="B181" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C181" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="D181" s="28"/>
+      <c r="E181" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F181" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G181" s="21"/>
+      <c r="H181" s="22"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B182" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C182" s="11" t="s">
+      <c r="A182" s="1">
         <v>6</v>
       </c>
-      <c r="D182" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E182" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F182" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G182" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H182" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="B182" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C182" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="D182" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E182" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F182" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G182" s="21"/>
+      <c r="H182" s="22"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="C183" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="D183" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="E183" s="28" t="s">
-        <v>93</v>
+        <v>241</v>
+      </c>
+      <c r="C183" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D183" s="21"/>
+      <c r="E183" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="F183" s="21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G183" s="21"/>
       <c r="H183" s="22"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>2</v>
-      </c>
-      <c r="B184" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="C184" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="D184" s="28"/>
-      <c r="E184" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F184" s="21" t="s">
-        <v>64</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B184" s="21"/>
+      <c r="C184" s="21"/>
+      <c r="D184" s="21"/>
+      <c r="E184" s="21"/>
+      <c r="F184" s="21"/>
       <c r="G184" s="21"/>
       <c r="H184" s="22"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>3</v>
-      </c>
-      <c r="B185" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="C185" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="D185" s="28"/>
-      <c r="E185" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F185" s="21" t="s">
-        <v>64</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B185" s="21"/>
+      <c r="C185" s="21"/>
+      <c r="D185" s="21"/>
+      <c r="E185" s="21"/>
+      <c r="F185" s="21"/>
       <c r="G185" s="21"/>
       <c r="H185" s="22"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>4</v>
-      </c>
-      <c r="B186" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C186" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="D186" s="28"/>
-      <c r="E186" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F186" s="21" t="s">
-        <v>64</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B186" s="21"/>
+      <c r="C186" s="21"/>
+      <c r="D186" s="21"/>
+      <c r="E186" s="21"/>
+      <c r="F186" s="21"/>
       <c r="G186" s="21"/>
       <c r="H186" s="22"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A187" s="1">
+    <row r="187" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B187" s="42"/>
+      <c r="C187" s="42"/>
+      <c r="D187" s="42"/>
+      <c r="E187" s="42"/>
+      <c r="F187" s="42"/>
+      <c r="G187" s="42"/>
+      <c r="H187" s="43"/>
+    </row>
+    <row r="188" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="45"/>
+      <c r="C189" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D189" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E189" s="45"/>
+      <c r="F189" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="G189" s="46"/>
+      <c r="H189" s="47"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B190" s="49"/>
+      <c r="C190" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="D190" s="40"/>
+      <c r="E190" s="40"/>
+      <c r="F190" s="40"/>
+      <c r="G190" s="40"/>
+      <c r="H190" s="41"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B187" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="C187" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="D187" s="28"/>
-      <c r="E187" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F187" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G187" s="21"/>
-      <c r="H187" s="22"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A188" s="1">
+      <c r="C191" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B188" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="C188" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="D188" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="E188" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F188" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G188" s="21"/>
-      <c r="H188" s="22"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A189" s="1">
+      <c r="D191" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B189" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="C189" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="D189" s="21"/>
-      <c r="E189" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F189" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G189" s="21"/>
-      <c r="H189" s="22"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190" s="1">
+      <c r="E191" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B190" s="21"/>
-      <c r="C190" s="21"/>
-      <c r="D190" s="21"/>
-      <c r="E190" s="21"/>
-      <c r="F190" s="21"/>
-      <c r="G190" s="21"/>
-      <c r="H190" s="22"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
+      <c r="F191" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B191" s="21"/>
-      <c r="C191" s="21"/>
-      <c r="D191" s="21"/>
-      <c r="E191" s="21"/>
-      <c r="F191" s="21"/>
-      <c r="G191" s="21"/>
-      <c r="H191" s="22"/>
+      <c r="G191" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H191" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>10</v>
-      </c>
-      <c r="B192" s="21"/>
-      <c r="C192" s="21"/>
-      <c r="D192" s="21"/>
-      <c r="E192" s="21"/>
-      <c r="F192" s="21"/>
-      <c r="G192" s="21"/>
-      <c r="H192" s="22"/>
-    </row>
-    <row r="193" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B193" s="34"/>
-      <c r="C193" s="34"/>
-      <c r="D193" s="34"/>
-      <c r="E193" s="34"/>
-      <c r="F193" s="34"/>
-      <c r="G193" s="34"/>
-      <c r="H193" s="35"/>
-    </row>
-    <row r="194" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+        <v>1</v>
+      </c>
+      <c r="B192" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="C192" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="D192" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E192" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F192" s="28"/>
+      <c r="G192" s="28"/>
+      <c r="H192" s="29"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>2</v>
+      </c>
+      <c r="B193" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C193" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="D193" s="28"/>
+      <c r="E193" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F193" s="28"/>
+      <c r="G193" s="28"/>
+      <c r="H193" s="29"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>3</v>
+      </c>
+      <c r="B194" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="C194" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="D194" s="28"/>
+      <c r="E194" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F194" s="28"/>
+      <c r="G194" s="28"/>
+      <c r="H194" s="29"/>
+    </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A195" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B195" s="37"/>
-      <c r="C195" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="D195" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E195" s="37"/>
-      <c r="F195" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="G195" s="38"/>
-      <c r="H195" s="39"/>
+      <c r="A195" s="1">
+        <v>4</v>
+      </c>
+      <c r="B195" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C195" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D195" s="28"/>
+      <c r="E195" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F195" s="28"/>
+      <c r="G195" s="28"/>
+      <c r="H195" s="29"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B196" s="41"/>
-      <c r="C196" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="D196" s="32"/>
-      <c r="E196" s="32"/>
-      <c r="F196" s="32"/>
-      <c r="G196" s="32"/>
-      <c r="H196" s="33"/>
+      <c r="A196" s="1">
+        <v>5</v>
+      </c>
+      <c r="B196" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C196" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="D196" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E196" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F196" s="28"/>
+      <c r="G196" s="28"/>
+      <c r="H196" s="29"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A197" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B197" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C197" s="11" t="s">
+      <c r="A197" s="1">
         <v>6</v>
       </c>
-      <c r="D197" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E197" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F197" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G197" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H197" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="B197" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C197" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="D197" s="28"/>
+      <c r="E197" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F197" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G197" s="28"/>
+      <c r="H197" s="29"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>1</v>
-      </c>
-      <c r="B198" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="C198" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="D198" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="E198" s="28" t="s">
-        <v>93</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B198" s="28"/>
+      <c r="C198" s="28"/>
+      <c r="D198" s="28"/>
+      <c r="E198" s="28"/>
       <c r="F198" s="28"/>
       <c r="G198" s="28"/>
       <c r="H198" s="29"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>2</v>
-      </c>
-      <c r="B199" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="C199" s="28" t="s">
-        <v>243</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B199" s="28"/>
+      <c r="C199" s="28"/>
       <c r="D199" s="28"/>
-      <c r="E199" s="28" t="s">
-        <v>94</v>
-      </c>
+      <c r="E199" s="28"/>
       <c r="F199" s="28"/>
       <c r="G199" s="28"/>
       <c r="H199" s="29"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>3</v>
-      </c>
-      <c r="B200" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="C200" s="28" t="s">
-        <v>244</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B200" s="28"/>
+      <c r="C200" s="28"/>
       <c r="D200" s="28"/>
-      <c r="E200" s="28" t="s">
-        <v>94</v>
-      </c>
+      <c r="E200" s="28"/>
       <c r="F200" s="28"/>
       <c r="G200" s="28"/>
       <c r="H200" s="29"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>4</v>
-      </c>
-      <c r="B201" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="C201" s="28" t="s">
-        <v>245</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B201" s="28"/>
+      <c r="C201" s="28"/>
       <c r="D201" s="28"/>
-      <c r="E201" s="28" t="s">
-        <v>94</v>
-      </c>
+      <c r="E201" s="28"/>
       <c r="F201" s="28"/>
       <c r="G201" s="28"/>
       <c r="H201" s="29"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A202" s="1">
+    <row r="202" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B202" s="42"/>
+      <c r="C202" s="42"/>
+      <c r="D202" s="42"/>
+      <c r="E202" s="42"/>
+      <c r="F202" s="42"/>
+      <c r="G202" s="42"/>
+      <c r="H202" s="43"/>
+    </row>
+    <row r="203" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B204" s="45"/>
+      <c r="C204" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="D204" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E204" s="45"/>
+      <c r="F204" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="G204" s="46"/>
+      <c r="H204" s="47"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B205" s="49"/>
+      <c r="C205" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="D205" s="40"/>
+      <c r="E205" s="40"/>
+      <c r="F205" s="40"/>
+      <c r="G205" s="40"/>
+      <c r="H205" s="41"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B202" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C202" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="D202" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="E202" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F202" s="28"/>
-      <c r="G202" s="28"/>
-      <c r="H202" s="29"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A203" s="1">
+      <c r="C206" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B203" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="C203" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="D203" s="28"/>
-      <c r="E203" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F203" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G203" s="28"/>
-      <c r="H203" s="29"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A204" s="1">
+      <c r="D206" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B204" s="28"/>
-      <c r="C204" s="28"/>
-      <c r="D204" s="28"/>
-      <c r="E204" s="28"/>
-      <c r="F204" s="28"/>
-      <c r="G204" s="28"/>
-      <c r="H204" s="29"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A205" s="1">
+      <c r="E206" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B205" s="28"/>
-      <c r="C205" s="28"/>
-      <c r="D205" s="28"/>
-      <c r="E205" s="28"/>
-      <c r="F205" s="28"/>
-      <c r="G205" s="28"/>
-      <c r="H205" s="29"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A206" s="1">
+      <c r="F206" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B206" s="28"/>
-      <c r="C206" s="28"/>
-      <c r="D206" s="28"/>
-      <c r="E206" s="28"/>
-      <c r="F206" s="28"/>
-      <c r="G206" s="28"/>
-      <c r="H206" s="29"/>
+      <c r="G206" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H206" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>10</v>
-      </c>
-      <c r="B207" s="28"/>
-      <c r="C207" s="28"/>
-      <c r="D207" s="28"/>
-      <c r="E207" s="28"/>
-      <c r="F207" s="28"/>
-      <c r="G207" s="28"/>
-      <c r="H207" s="29"/>
-    </row>
-    <row r="208" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B208" s="34"/>
-      <c r="C208" s="34"/>
-      <c r="D208" s="34"/>
-      <c r="E208" s="34"/>
-      <c r="F208" s="34"/>
-      <c r="G208" s="34"/>
-      <c r="H208" s="35"/>
-    </row>
-    <row r="209" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+        <v>1</v>
+      </c>
+      <c r="B207" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C207" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D207" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E207" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F207" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G207" s="21"/>
+      <c r="H207" s="22"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>2</v>
+      </c>
+      <c r="B208" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="C208" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D208" s="21"/>
+      <c r="E208" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F208" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G208" s="21"/>
+      <c r="H208" s="22"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>3</v>
+      </c>
+      <c r="B209" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="C209" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D209" s="21"/>
+      <c r="E209" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F209" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G209" s="21"/>
+      <c r="H209" s="22"/>
+    </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A210" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B210" s="37"/>
-      <c r="C210" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="D210" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E210" s="37"/>
-      <c r="F210" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="G210" s="38"/>
-      <c r="H210" s="39"/>
+      <c r="A210" s="1">
+        <v>4</v>
+      </c>
+      <c r="B210" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="C210" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D210" s="21"/>
+      <c r="E210" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F210" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G210" s="21"/>
+      <c r="H210" s="22"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A211" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B211" s="41"/>
-      <c r="C211" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="D211" s="32"/>
-      <c r="E211" s="32"/>
-      <c r="F211" s="32"/>
-      <c r="G211" s="32"/>
-      <c r="H211" s="33"/>
+      <c r="A211" s="1">
+        <v>5</v>
+      </c>
+      <c r="B211" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C211" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D211" s="21"/>
+      <c r="E211" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F211" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G211" s="21"/>
+      <c r="H211" s="22"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A212" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B212" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C212" s="11" t="s">
+      <c r="A212" s="1">
         <v>6</v>
       </c>
-      <c r="D212" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E212" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F212" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G212" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H212" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="B212" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C212" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E212" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F212" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G212" s="21"/>
+      <c r="H212" s="22"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>1</v>
-      </c>
-      <c r="B213" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="C213" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D213" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="E213" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F213" s="21" t="s">
-        <v>62</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B213" s="21"/>
+      <c r="C213" s="21"/>
+      <c r="D213" s="21"/>
+      <c r="E213" s="21"/>
+      <c r="F213" s="21"/>
       <c r="G213" s="21"/>
       <c r="H213" s="22"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>2</v>
-      </c>
-      <c r="B214" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="C214" s="21" t="s">
-        <v>145</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
       <c r="D214" s="21"/>
-      <c r="E214" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F214" s="21" t="s">
-        <v>64</v>
-      </c>
+      <c r="E214" s="21"/>
+      <c r="F214" s="21"/>
       <c r="G214" s="21"/>
       <c r="H214" s="22"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>3</v>
-      </c>
-      <c r="B215" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="C215" s="21" t="s">
-        <v>147</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B215" s="21"/>
+      <c r="C215" s="21"/>
       <c r="D215" s="21"/>
-      <c r="E215" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F215" s="21" t="s">
-        <v>64</v>
-      </c>
+      <c r="E215" s="21"/>
+      <c r="F215" s="21"/>
       <c r="G215" s="21"/>
       <c r="H215" s="22"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>4</v>
-      </c>
-      <c r="B216" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="C216" s="21" t="s">
-        <v>146</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B216" s="21"/>
+      <c r="C216" s="21"/>
       <c r="D216" s="21"/>
-      <c r="E216" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F216" s="21" t="s">
-        <v>64</v>
-      </c>
+      <c r="E216" s="21"/>
+      <c r="F216" s="21"/>
       <c r="G216" s="21"/>
       <c r="H216" s="22"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A217" s="1">
+    <row r="217" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B217" s="42"/>
+      <c r="C217" s="42"/>
+      <c r="D217" s="42"/>
+      <c r="E217" s="42"/>
+      <c r="F217" s="42"/>
+      <c r="G217" s="42"/>
+      <c r="H217" s="43"/>
+    </row>
+    <row r="219" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B220" s="45"/>
+      <c r="C220" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="D220" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E220" s="45"/>
+      <c r="F220" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="G220" s="46"/>
+      <c r="H220" s="47"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B221" s="49"/>
+      <c r="C221" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="D221" s="40"/>
+      <c r="E221" s="40"/>
+      <c r="F221" s="40"/>
+      <c r="G221" s="40"/>
+      <c r="H221" s="41"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B222" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B217" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="C217" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="D217" s="21"/>
-      <c r="E217" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F217" s="21" t="s">
+      <c r="C222" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F222" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G222" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H222" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>1</v>
+      </c>
+      <c r="B223" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C223" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D223" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E223" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F223" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G223" s="21"/>
+      <c r="H223" s="22"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>2</v>
+      </c>
+      <c r="B224" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C224" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D224" s="21"/>
+      <c r="E224" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F224" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G224" s="21"/>
+      <c r="H224" s="22"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>3</v>
+      </c>
+      <c r="B225" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C225" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D225" s="21"/>
+      <c r="E225" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F225" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="G217" s="21"/>
-      <c r="H217" s="22"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A218" s="1">
+      <c r="G225" s="21"/>
+      <c r="H225" s="22"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>4</v>
+      </c>
+      <c r="B226" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C226" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D226" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E226" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F226" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G226" s="21"/>
+      <c r="H226" s="22"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>5</v>
+      </c>
+      <c r="B227" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="C227" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D227" s="38"/>
+      <c r="E227" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F227" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G227" s="21"/>
+      <c r="H227" s="22"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
         <v>6</v>
       </c>
-      <c r="B218" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="C218" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D218" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="E218" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F218" s="21" t="s">
+      <c r="B228" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="C228" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="D228" s="38"/>
+      <c r="E228" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F228" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="G218" s="21"/>
-      <c r="H218" s="22"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A219" s="1">
-        <v>7</v>
-      </c>
-      <c r="B219" s="21"/>
-      <c r="C219" s="21"/>
-      <c r="D219" s="21"/>
-      <c r="E219" s="21"/>
-      <c r="F219" s="21"/>
-      <c r="G219" s="21"/>
-      <c r="H219" s="22"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A220" s="1">
-        <v>8</v>
-      </c>
-      <c r="B220" s="21"/>
-      <c r="C220" s="21"/>
-      <c r="D220" s="21"/>
-      <c r="E220" s="21"/>
-      <c r="F220" s="21"/>
-      <c r="G220" s="21"/>
-      <c r="H220" s="22"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A221" s="1">
-        <v>9</v>
-      </c>
-      <c r="B221" s="21"/>
-      <c r="C221" s="21"/>
-      <c r="D221" s="21"/>
-      <c r="E221" s="21"/>
-      <c r="F221" s="21"/>
-      <c r="G221" s="21"/>
-      <c r="H221" s="22"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A222" s="1">
-        <v>10</v>
-      </c>
-      <c r="B222" s="21"/>
-      <c r="C222" s="21"/>
-      <c r="D222" s="21"/>
-      <c r="E222" s="21"/>
-      <c r="F222" s="21"/>
-      <c r="G222" s="21"/>
-      <c r="H222" s="22"/>
-    </row>
-    <row r="223" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B223" s="34"/>
-      <c r="C223" s="34"/>
-      <c r="D223" s="34"/>
-      <c r="E223" s="34"/>
-      <c r="F223" s="34"/>
-      <c r="G223" s="34"/>
-      <c r="H223" s="35"/>
-    </row>
-    <row r="225" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A226" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B226" s="37"/>
-      <c r="C226" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="D226" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E226" s="37"/>
-      <c r="F226" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="G226" s="38"/>
-      <c r="H226" s="39"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A227" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B227" s="41"/>
-      <c r="C227" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="D227" s="32"/>
-      <c r="E227" s="32"/>
-      <c r="F227" s="32"/>
-      <c r="G227" s="32"/>
-      <c r="H227" s="33"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A228" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B228" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C228" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D228" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E228" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F228" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G228" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H228" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="G228" s="21"/>
+      <c r="H228" s="22"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <v>1</v>
-      </c>
-      <c r="B229" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="C229" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="D229" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E229" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F229" s="21" t="s">
-        <v>62</v>
+        <v>7</v>
+      </c>
+      <c r="B229" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="C229" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D229" s="38"/>
+      <c r="E229" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F229" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="G229" s="21"/>
       <c r="H229" s="22"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <v>2</v>
-      </c>
-      <c r="B230" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C230" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D230" s="21"/>
-      <c r="E230" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F230" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="C230" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="D230" s="38"/>
+      <c r="E230" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F230" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G230" s="21"/>
-      <c r="H230" s="22"/>
+      <c r="G230" s="38"/>
+      <c r="H230" s="39"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <v>3</v>
-      </c>
-      <c r="B231" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C231" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D231" s="21"/>
-      <c r="E231" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F231" s="21" t="s">
-        <v>177</v>
+        <v>9</v>
+      </c>
+      <c r="B231" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="C231" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="D231" s="38"/>
+      <c r="E231" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F231" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="G231" s="21"/>
       <c r="H231" s="22"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <v>4</v>
-      </c>
-      <c r="B232" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="C232" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D232" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="E232" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F232" s="21" t="s">
-        <v>62</v>
+        <v>10</v>
+      </c>
+      <c r="B232" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="C232" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D232" s="38"/>
+      <c r="E232" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F232" s="38" t="s">
+        <v>66</v>
       </c>
       <c r="G232" s="21"/>
       <c r="H232" s="22"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <v>5</v>
-      </c>
-      <c r="B233" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="C233" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D233" s="21"/>
-      <c r="E233" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F233" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B233" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="C233" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D233" s="38"/>
+      <c r="E233" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F233" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G233" s="21"/>
       <c r="H233" s="22"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A234" s="1">
+    <row r="234" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B234" s="42"/>
+      <c r="C234" s="42"/>
+      <c r="D234" s="42"/>
+      <c r="E234" s="42"/>
+      <c r="F234" s="42"/>
+      <c r="G234" s="42"/>
+      <c r="H234" s="43"/>
+    </row>
+    <row r="236" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B237" s="45"/>
+      <c r="C237" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D237" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E237" s="45"/>
+      <c r="F237" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="G237" s="46"/>
+      <c r="H237" s="47"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B238" s="49"/>
+      <c r="C238" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D238" s="40"/>
+      <c r="E238" s="40"/>
+      <c r="F238" s="40"/>
+      <c r="G238" s="40"/>
+      <c r="H238" s="41"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B234" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="C234" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D234" s="21"/>
-      <c r="E234" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F234" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G234" s="21"/>
-      <c r="H234" s="22"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A235" s="1">
+      <c r="D239" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B235" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="C235" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="D235" s="21"/>
-      <c r="E235" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F235" s="21" t="s">
+      <c r="E239" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F239" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G239" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H239" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>1</v>
+      </c>
+      <c r="B240" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C240" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D240" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E240" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F240" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G240" s="21"/>
+      <c r="H240" s="22"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>2</v>
+      </c>
+      <c r="B241" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C241" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="D241" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E241" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F241" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G241" s="21"/>
+      <c r="H241" s="22"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>3</v>
+      </c>
+      <c r="B242" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C242" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D242" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E242" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F242" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G242" s="21"/>
+      <c r="H242" s="22"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>4</v>
+      </c>
+      <c r="B243" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C243" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="D243" s="38"/>
+      <c r="E243" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F243" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="G243" s="21"/>
+      <c r="H243" s="22"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>5</v>
+      </c>
+      <c r="B244" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="C244" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D244" s="38"/>
+      <c r="E244" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F244" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G235" s="21"/>
-      <c r="H235" s="22"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A236" s="1">
-        <v>8</v>
-      </c>
-      <c r="B236" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="C236" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="D236" s="28"/>
-      <c r="E236" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F236" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G236" s="21"/>
-      <c r="H236" s="22"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A237" s="1">
-        <v>9</v>
-      </c>
-      <c r="B237" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C237" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="D237" s="21"/>
-      <c r="E237" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F237" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G237" s="21"/>
-      <c r="H237" s="22"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A238" s="1">
-        <v>10</v>
-      </c>
-      <c r="B238" s="21"/>
-      <c r="C238" s="21"/>
-      <c r="D238" s="21"/>
-      <c r="E238" s="21"/>
-      <c r="F238" s="21"/>
-      <c r="G238" s="21"/>
-      <c r="H238" s="22"/>
-    </row>
-    <row r="239" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B239" s="34"/>
-      <c r="C239" s="34"/>
-      <c r="D239" s="34"/>
-      <c r="E239" s="34"/>
-      <c r="F239" s="34"/>
-      <c r="G239" s="34"/>
-      <c r="H239" s="35"/>
-    </row>
-    <row r="241" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A242" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B242" s="37"/>
-      <c r="C242" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="D242" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E242" s="37"/>
-      <c r="F242" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="G242" s="38"/>
-      <c r="H242" s="39"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A243" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B243" s="41"/>
-      <c r="C243" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="D243" s="32"/>
-      <c r="E243" s="32"/>
-      <c r="F243" s="32"/>
-      <c r="G243" s="32"/>
-      <c r="H243" s="33"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A244" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B244" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C244" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D244" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E244" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F244" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G244" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H244" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="G244" s="21"/>
+      <c r="H244" s="22"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <v>1</v>
-      </c>
-      <c r="B245" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="C245" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D245" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="E245" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F245" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B245" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C245" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D245" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E245" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="F245" s="38" t="s">
         <v>62</v>
       </c>
       <c r="G245" s="21"/>
@@ -6225,310 +6377,264 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <v>2</v>
-      </c>
-      <c r="B246" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="C246" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="D246" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="E246" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F246" s="21" t="s">
-        <v>62</v>
+        <v>7</v>
+      </c>
+      <c r="B246" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="C246" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D246" s="38"/>
+      <c r="E246" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F246" s="38" t="s">
+        <v>66</v>
       </c>
       <c r="G246" s="21"/>
       <c r="H246" s="22"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <v>3</v>
-      </c>
-      <c r="B247" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="C247" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D247" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="E247" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F247" s="21" t="s">
-        <v>62</v>
+        <v>8</v>
+      </c>
+      <c r="B247" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="C247" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D247" s="38"/>
+      <c r="E247" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F247" s="38" t="s">
+        <v>66</v>
       </c>
       <c r="G247" s="21"/>
       <c r="H247" s="22"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <v>4</v>
-      </c>
-      <c r="B248" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="C248" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D248" s="28"/>
-      <c r="E248" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F248" s="28" t="s">
-        <v>66</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B248" s="21"/>
+      <c r="C248" s="21"/>
+      <c r="D248" s="21"/>
+      <c r="E248" s="21"/>
+      <c r="F248" s="21"/>
       <c r="G248" s="21"/>
       <c r="H248" s="22"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <v>5</v>
-      </c>
-      <c r="B249" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="C249" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D249" s="28"/>
-      <c r="E249" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F249" s="28" t="s">
-        <v>66</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B249" s="21"/>
+      <c r="C249" s="21"/>
+      <c r="D249" s="21"/>
+      <c r="E249" s="21"/>
+      <c r="F249" s="21"/>
       <c r="G249" s="21"/>
       <c r="H249" s="22"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A250" s="1">
+    <row r="250" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B250" s="42"/>
+      <c r="C250" s="42"/>
+      <c r="D250" s="42"/>
+      <c r="E250" s="42"/>
+      <c r="F250" s="42"/>
+      <c r="G250" s="42"/>
+      <c r="H250" s="43"/>
+    </row>
+    <row r="251" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B252" s="45"/>
+      <c r="C252" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D252" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E252" s="45"/>
+      <c r="F252" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="G252" s="46"/>
+      <c r="H252" s="47"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B253" s="49"/>
+      <c r="C253" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="D253" s="40"/>
+      <c r="E253" s="40"/>
+      <c r="F253" s="40"/>
+      <c r="G253" s="40"/>
+      <c r="H253" s="41"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B250" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="C250" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D250" s="21"/>
-      <c r="E250" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F250" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="G250" s="21"/>
-      <c r="H250" s="22"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A251" s="1">
+      <c r="D254" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B251" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C251" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D251" s="21"/>
-      <c r="E251" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F251" s="21" t="s">
+      <c r="E254" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F254" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G254" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H254" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>1</v>
+      </c>
+      <c r="B255" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="C255" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D255" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="E255" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F255" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G255" s="24"/>
+      <c r="H255" s="25"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>2</v>
+      </c>
+      <c r="B256" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="C256" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D256" s="24"/>
+      <c r="E256" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F256" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G256" s="24"/>
+      <c r="H256" s="25"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>3</v>
+      </c>
+      <c r="B257" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="C257" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D257" s="24"/>
+      <c r="E257" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F257" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G251" s="21"/>
-      <c r="H251" s="22"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A252" s="1">
-        <v>8</v>
-      </c>
-      <c r="B252" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="C252" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D252" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="E252" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F252" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G252" s="21"/>
-      <c r="H252" s="22"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A253" s="1">
-        <v>9</v>
-      </c>
-      <c r="B253" s="21"/>
-      <c r="C253" s="21"/>
-      <c r="D253" s="21"/>
-      <c r="E253" s="21"/>
-      <c r="F253" s="21"/>
-      <c r="G253" s="21"/>
-      <c r="H253" s="22"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A254" s="1">
-        <v>10</v>
-      </c>
-      <c r="B254" s="21"/>
-      <c r="C254" s="21"/>
-      <c r="D254" s="21"/>
-      <c r="E254" s="21"/>
-      <c r="F254" s="21"/>
-      <c r="G254" s="21"/>
-      <c r="H254" s="22"/>
-    </row>
-    <row r="255" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B255" s="34"/>
-      <c r="C255" s="34"/>
-      <c r="D255" s="34"/>
-      <c r="E255" s="34"/>
-      <c r="F255" s="34"/>
-      <c r="G255" s="34"/>
-      <c r="H255" s="35"/>
-    </row>
-    <row r="256" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A257" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B257" s="37"/>
-      <c r="C257" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="D257" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E257" s="37"/>
-      <c r="F257" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="G257" s="38"/>
-      <c r="H257" s="39"/>
+      <c r="G257" s="24"/>
+      <c r="H257" s="25"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A258" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B258" s="41"/>
-      <c r="C258" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="D258" s="32"/>
-      <c r="E258" s="32"/>
-      <c r="F258" s="32"/>
-      <c r="G258" s="32"/>
-      <c r="H258" s="33"/>
+      <c r="A258" s="1">
+        <v>4</v>
+      </c>
+      <c r="B258" s="24"/>
+      <c r="C258" s="24"/>
+      <c r="D258" s="24"/>
+      <c r="E258" s="24"/>
+      <c r="F258" s="24"/>
+      <c r="G258" s="24"/>
+      <c r="H258" s="25"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A259" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B259" s="11" t="s">
+      <c r="A259" s="1">
         <v>5</v>
       </c>
-      <c r="C259" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D259" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E259" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F259" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G259" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H259" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="B259" s="24"/>
+      <c r="C259" s="24"/>
+      <c r="D259" s="24"/>
+      <c r="E259" s="24"/>
+      <c r="F259" s="24"/>
+      <c r="G259" s="24"/>
+      <c r="H259" s="25"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <v>1</v>
-      </c>
-      <c r="B260" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C260" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="D260" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="E260" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F260" s="24" t="s">
-        <v>62</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B260" s="24"/>
+      <c r="C260" s="24"/>
+      <c r="D260" s="24"/>
+      <c r="E260" s="24"/>
+      <c r="F260" s="24"/>
       <c r="G260" s="24"/>
       <c r="H260" s="25"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <v>2</v>
-      </c>
-      <c r="B261" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="C261" s="24" t="s">
-        <v>165</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B261" s="24"/>
+      <c r="C261" s="24"/>
       <c r="D261" s="24"/>
-      <c r="E261" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F261" s="24" t="s">
-        <v>66</v>
-      </c>
+      <c r="E261" s="24"/>
+      <c r="F261" s="24"/>
       <c r="G261" s="24"/>
       <c r="H261" s="25"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <v>3</v>
-      </c>
-      <c r="B262" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="C262" s="24" t="s">
-        <v>166</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B262" s="24"/>
+      <c r="C262" s="24"/>
       <c r="D262" s="24"/>
-      <c r="E262" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F262" s="24" t="s">
-        <v>64</v>
-      </c>
+      <c r="E262" s="24"/>
+      <c r="F262" s="24"/>
       <c r="G262" s="24"/>
       <c r="H262" s="25"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B263" s="24"/>
       <c r="C263" s="24"/>
@@ -6540,7 +6646,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B264" s="24"/>
       <c r="C264" s="24"/>
@@ -6550,194 +6656,236 @@
       <c r="G264" s="24"/>
       <c r="H264" s="25"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A265" s="1">
+    <row r="265" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B265" s="42"/>
+      <c r="C265" s="42"/>
+      <c r="D265" s="42"/>
+      <c r="E265" s="42"/>
+      <c r="F265" s="42"/>
+      <c r="G265" s="42"/>
+      <c r="H265" s="43"/>
+    </row>
+    <row r="266" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B267" s="45"/>
+      <c r="C267" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="D267" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E267" s="45"/>
+      <c r="F267" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="G267" s="46"/>
+      <c r="H267" s="47"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B268" s="49"/>
+      <c r="C268" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="D268" s="40"/>
+      <c r="E268" s="40"/>
+      <c r="F268" s="40"/>
+      <c r="G268" s="40"/>
+      <c r="H268" s="41"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B265" s="24"/>
-      <c r="C265" s="24"/>
-      <c r="D265" s="24"/>
-      <c r="E265" s="24"/>
-      <c r="F265" s="24"/>
-      <c r="G265" s="24"/>
-      <c r="H265" s="25"/>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A266" s="1">
+      <c r="D269" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B266" s="24"/>
-      <c r="C266" s="24"/>
-      <c r="D266" s="24"/>
-      <c r="E266" s="24"/>
-      <c r="F266" s="24"/>
-      <c r="G266" s="24"/>
-      <c r="H266" s="25"/>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A267" s="1">
+      <c r="E269" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B267" s="24"/>
-      <c r="C267" s="24"/>
-      <c r="D267" s="24"/>
-      <c r="E267" s="24"/>
-      <c r="F267" s="24"/>
-      <c r="G267" s="24"/>
-      <c r="H267" s="25"/>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A268" s="1">
+      <c r="F269" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B268" s="24"/>
-      <c r="C268" s="24"/>
-      <c r="D268" s="24"/>
-      <c r="E268" s="24"/>
-      <c r="F268" s="24"/>
-      <c r="G268" s="24"/>
-      <c r="H268" s="25"/>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A269" s="1">
+      <c r="G269" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B269" s="24"/>
-      <c r="C269" s="24"/>
-      <c r="D269" s="24"/>
-      <c r="E269" s="24"/>
-      <c r="F269" s="24"/>
-      <c r="G269" s="24"/>
-      <c r="H269" s="25"/>
-    </row>
-    <row r="270" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B270" s="34"/>
-      <c r="C270" s="34"/>
-      <c r="D270" s="34"/>
-      <c r="E270" s="34"/>
-      <c r="F270" s="34"/>
-      <c r="G270" s="34"/>
-      <c r="H270" s="35"/>
-    </row>
-    <row r="271" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="H269" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>1</v>
+      </c>
+      <c r="B270" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="C270" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="D270" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E270" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F270" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G270" s="24"/>
+      <c r="H270" s="25"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>2</v>
+      </c>
+      <c r="B271" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="C271" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="D271" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="E271" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F271" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G271" s="24"/>
+      <c r="H271" s="25"/>
+    </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A272" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B272" s="37"/>
-      <c r="C272" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="D272" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E272" s="37"/>
-      <c r="F272" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="G272" s="38"/>
-      <c r="H272" s="39"/>
+      <c r="A272" s="1">
+        <v>3</v>
+      </c>
+      <c r="B272" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="C272" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D272" s="24"/>
+      <c r="E272" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F272" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G272" s="24"/>
+      <c r="H272" s="25"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A273" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B273" s="41"/>
-      <c r="C273" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="D273" s="32"/>
-      <c r="E273" s="32"/>
-      <c r="F273" s="32"/>
-      <c r="G273" s="32"/>
-      <c r="H273" s="33"/>
+      <c r="A273" s="1">
+        <v>4</v>
+      </c>
+      <c r="B273" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="C273" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D273" s="24"/>
+      <c r="E273" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F273" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G273" s="24"/>
+      <c r="H273" s="25"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A274" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B274" s="11" t="s">
+      <c r="A274" s="1">
         <v>5</v>
       </c>
-      <c r="C274" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D274" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E274" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F274" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G274" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H274" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="B274" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="C274" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="D274" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E274" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F274" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G274" s="24"/>
+      <c r="H274" s="25"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B275" s="24" t="s">
         <v>283</v>
       </c>
       <c r="C275" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="D275" s="24" t="s">
-        <v>199</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="D275" s="24"/>
       <c r="E275" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F275" s="24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G275" s="24"/>
       <c r="H275" s="25"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B276" s="24" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="C276" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="D276" s="24" t="s">
-        <v>287</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="D276" s="24"/>
       <c r="E276" s="24" t="s">
         <v>94</v>
       </c>
       <c r="F276" s="24" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="G276" s="24"/>
       <c r="H276" s="25"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B277" s="24" t="s">
         <v>284</v>
       </c>
       <c r="C277" s="24" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D277" s="24"/>
       <c r="E277" s="24" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="F277" s="24" t="s">
         <v>66</v>
@@ -6747,271 +6895,229 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <v>4</v>
-      </c>
-      <c r="B278" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="C278" s="24" t="s">
-        <v>160</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B278" s="24"/>
+      <c r="C278" s="24"/>
       <c r="D278" s="24"/>
-      <c r="E278" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F278" s="24" t="s">
-        <v>64</v>
-      </c>
+      <c r="E278" s="24"/>
+      <c r="F278" s="24"/>
       <c r="G278" s="24"/>
       <c r="H278" s="25"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <v>5</v>
-      </c>
-      <c r="B279" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C279" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="D279" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="E279" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F279" s="24" t="s">
-        <v>62</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B279" s="24"/>
+      <c r="C279" s="24"/>
+      <c r="D279" s="24"/>
+      <c r="E279" s="24"/>
+      <c r="F279" s="24"/>
       <c r="G279" s="24"/>
       <c r="H279" s="25"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A280" s="1">
+    <row r="280" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B280" s="42"/>
+      <c r="C280" s="42"/>
+      <c r="D280" s="42"/>
+      <c r="E280" s="42"/>
+      <c r="F280" s="42"/>
+      <c r="G280" s="42"/>
+      <c r="H280" s="43"/>
+    </row>
+    <row r="282" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B283" s="45"/>
+      <c r="C283" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="D283" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E283" s="45"/>
+      <c r="F283" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="G283" s="46"/>
+      <c r="H283" s="47"/>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B284" s="49"/>
+      <c r="C284" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="D284" s="40"/>
+      <c r="E284" s="40"/>
+      <c r="F284" s="40"/>
+      <c r="G284" s="40"/>
+      <c r="H284" s="41"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B280" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="C280" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D280" s="24"/>
-      <c r="E280" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F280" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G280" s="24"/>
-      <c r="H280" s="25"/>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A281" s="1">
+      <c r="D285" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B281" s="24" t="s">
+      <c r="E285" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F285" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G285" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H285" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>1</v>
+      </c>
+      <c r="B286" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="C286" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="D286" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E286" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F286" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G286" s="24"/>
+      <c r="H286" s="25"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>2</v>
+      </c>
+      <c r="B287" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="C287" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="D287" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="C281" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="D281" s="24"/>
-      <c r="E281" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F281" s="24" t="s">
+      <c r="E287" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F287" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G287" s="24"/>
+      <c r="H287" s="25"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>3</v>
+      </c>
+      <c r="B288" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="C288" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D288" s="24"/>
+      <c r="E288" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F288" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="G281" s="24"/>
-      <c r="H281" s="25"/>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A282" s="1">
-        <v>8</v>
-      </c>
-      <c r="B282" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="C282" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D282" s="24"/>
-      <c r="E282" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="F282" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="G282" s="24"/>
-      <c r="H282" s="25"/>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A283" s="1">
-        <v>9</v>
-      </c>
-      <c r="B283" s="24"/>
-      <c r="C283" s="24"/>
-      <c r="D283" s="24"/>
-      <c r="E283" s="24"/>
-      <c r="F283" s="24"/>
-      <c r="G283" s="24"/>
-      <c r="H283" s="25"/>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A284" s="1">
-        <v>10</v>
-      </c>
-      <c r="B284" s="24"/>
-      <c r="C284" s="24"/>
-      <c r="D284" s="24"/>
-      <c r="E284" s="24"/>
-      <c r="F284" s="24"/>
-      <c r="G284" s="24"/>
-      <c r="H284" s="25"/>
-    </row>
-    <row r="285" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A285" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B285" s="34"/>
-      <c r="C285" s="34"/>
-      <c r="D285" s="34"/>
-      <c r="E285" s="34"/>
-      <c r="F285" s="34"/>
-      <c r="G285" s="34"/>
-      <c r="H285" s="35"/>
-    </row>
-    <row r="287" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A288" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B288" s="37"/>
-      <c r="C288" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="D288" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E288" s="37"/>
-      <c r="F288" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="G288" s="38"/>
-      <c r="H288" s="39"/>
+      <c r="G288" s="24"/>
+      <c r="H288" s="25"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A289" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B289" s="41"/>
-      <c r="C289" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="D289" s="32"/>
-      <c r="E289" s="32"/>
-      <c r="F289" s="32"/>
-      <c r="G289" s="32"/>
-      <c r="H289" s="33"/>
+      <c r="A289" s="1">
+        <v>4</v>
+      </c>
+      <c r="B289" s="24"/>
+      <c r="C289" s="28"/>
+      <c r="D289" s="24"/>
+      <c r="E289" s="24"/>
+      <c r="F289" s="24"/>
+      <c r="G289" s="24"/>
+      <c r="H289" s="25"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A290" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B290" s="11" t="s">
+      <c r="A290" s="1">
         <v>5</v>
       </c>
-      <c r="C290" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D290" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E290" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F290" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G290" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H290" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="B290" s="24"/>
+      <c r="C290" s="24"/>
+      <c r="D290" s="24"/>
+      <c r="E290" s="24"/>
+      <c r="F290" s="24"/>
+      <c r="G290" s="24"/>
+      <c r="H290" s="25"/>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <v>1</v>
-      </c>
-      <c r="B291" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="C291" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="D291" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="E291" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F291" s="24" t="s">
-        <v>62</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B291" s="24"/>
+      <c r="C291" s="24"/>
+      <c r="D291" s="24"/>
+      <c r="E291" s="24"/>
+      <c r="F291" s="24"/>
       <c r="G291" s="24"/>
       <c r="H291" s="25"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <v>2</v>
-      </c>
-      <c r="B292" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="C292" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="D292" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="E292" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F292" s="24" t="s">
-        <v>62</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B292" s="24"/>
+      <c r="C292" s="24"/>
+      <c r="D292" s="24"/>
+      <c r="E292" s="24"/>
+      <c r="F292" s="24"/>
       <c r="G292" s="24"/>
       <c r="H292" s="25"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
-        <v>3</v>
-      </c>
-      <c r="B293" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="C293" s="28" t="s">
-        <v>164</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B293" s="24"/>
+      <c r="C293" s="24"/>
       <c r="D293" s="24"/>
-      <c r="E293" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F293" s="24" t="s">
-        <v>177</v>
-      </c>
+      <c r="E293" s="24"/>
+      <c r="F293" s="24"/>
       <c r="G293" s="24"/>
       <c r="H293" s="25"/>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B294" s="24"/>
-      <c r="C294" s="28"/>
+      <c r="C294" s="24"/>
       <c r="D294" s="24"/>
       <c r="E294" s="24"/>
       <c r="F294" s="24"/>
@@ -7020,7 +7126,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B295" s="24"/>
       <c r="C295" s="24"/>
@@ -7030,119 +7136,59 @@
       <c r="G295" s="24"/>
       <c r="H295" s="25"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A296" s="1">
-        <v>6</v>
-      </c>
-      <c r="B296" s="24"/>
-      <c r="C296" s="24"/>
-      <c r="D296" s="24"/>
-      <c r="E296" s="24"/>
-      <c r="F296" s="24"/>
-      <c r="G296" s="24"/>
-      <c r="H296" s="25"/>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A297" s="1">
-        <v>7</v>
-      </c>
-      <c r="B297" s="24"/>
-      <c r="C297" s="24"/>
-      <c r="D297" s="24"/>
-      <c r="E297" s="24"/>
-      <c r="F297" s="24"/>
-      <c r="G297" s="24"/>
-      <c r="H297" s="25"/>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A298" s="1">
-        <v>8</v>
-      </c>
-      <c r="B298" s="24"/>
-      <c r="C298" s="24"/>
-      <c r="D298" s="24"/>
-      <c r="E298" s="24"/>
-      <c r="F298" s="24"/>
-      <c r="G298" s="24"/>
-      <c r="H298" s="25"/>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A299" s="1">
-        <v>9</v>
-      </c>
-      <c r="B299" s="24"/>
-      <c r="C299" s="24"/>
-      <c r="D299" s="24"/>
-      <c r="E299" s="24"/>
-      <c r="F299" s="24"/>
-      <c r="G299" s="24"/>
-      <c r="H299" s="25"/>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A300" s="1">
-        <v>10</v>
-      </c>
-      <c r="B300" s="24"/>
-      <c r="C300" s="24"/>
-      <c r="D300" s="24"/>
-      <c r="E300" s="24"/>
-      <c r="F300" s="24"/>
-      <c r="G300" s="24"/>
-      <c r="H300" s="25"/>
-    </row>
-    <row r="301" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A301" s="2" t="s">
+    <row r="296" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B301" s="34"/>
-      <c r="C301" s="34"/>
-      <c r="D301" s="34"/>
-      <c r="E301" s="34"/>
-      <c r="F301" s="34"/>
-      <c r="G301" s="34"/>
-      <c r="H301" s="35"/>
+      <c r="B296" s="42"/>
+      <c r="C296" s="42"/>
+      <c r="D296" s="42"/>
+      <c r="E296" s="42"/>
+      <c r="F296" s="42"/>
+      <c r="G296" s="42"/>
+      <c r="H296" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="C150:H150"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="F165:H165"/>
-    <mergeCell ref="B223:H223"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="C211:H211"/>
-    <mergeCell ref="B255:H255"/>
-    <mergeCell ref="B239:H239"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="F242:H242"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="C243:H243"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="F226:H226"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="C227:H227"/>
-    <mergeCell ref="B193:H193"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="F210:H210"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="C181:H181"/>
-    <mergeCell ref="B208:H208"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="F195:H195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="C196:H196"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="C166:H166"/>
-    <mergeCell ref="B178:H178"/>
-    <mergeCell ref="F180:H180"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:H144"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="F159:H159"/>
+    <mergeCell ref="B217:H217"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="C205:H205"/>
+    <mergeCell ref="B250:H250"/>
+    <mergeCell ref="B234:H234"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="F237:H237"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="C238:H238"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="F220:H220"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="C221:H221"/>
+    <mergeCell ref="B187:H187"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="F204:H204"/>
+    <mergeCell ref="B156:H156"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="C175:H175"/>
+    <mergeCell ref="B202:H202"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="F189:H189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="C190:H190"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:H160"/>
+    <mergeCell ref="B172:H172"/>
+    <mergeCell ref="F174:H174"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="B27:H27"/>
@@ -7158,82 +7204,82 @@
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:H31"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="B124:H124"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="F62:H62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="C63:H63"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:H80"/>
     <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="A78:B78"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F46:H46"/>
     <mergeCell ref="A47:B47"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="B98:H98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:H134"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="B140:H140"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="B108:H108"/>
     <mergeCell ref="C47:H47"/>
     <mergeCell ref="B59:H59"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="B301:H301"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="F257:H257"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="C258:H258"/>
-    <mergeCell ref="B270:H270"/>
-    <mergeCell ref="B285:H285"/>
-    <mergeCell ref="A288:B288"/>
-    <mergeCell ref="D288:E288"/>
-    <mergeCell ref="F288:H288"/>
-    <mergeCell ref="A289:B289"/>
-    <mergeCell ref="C289:H289"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="D272:E272"/>
-    <mergeCell ref="F272:H272"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="C273:H273"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="B296:H296"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="F252:H252"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="C253:H253"/>
+    <mergeCell ref="B265:H265"/>
+    <mergeCell ref="B280:H280"/>
+    <mergeCell ref="A283:B283"/>
+    <mergeCell ref="D283:E283"/>
+    <mergeCell ref="F283:H283"/>
+    <mergeCell ref="A284:B284"/>
+    <mergeCell ref="C284:H284"/>
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="F267:H267"/>
+    <mergeCell ref="A268:B268"/>
+    <mergeCell ref="C268:H268"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>비고!$C$3:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>F33:F42 F65:F74 F81:F97 F104:F113 F120:F129 F136:F145 F152:F161 F183:F192 F213:F222 F7:F26 F49:F58 F229:F238 F198:F207 F275:F284 F291:F300 F260:F269 F168:F177 F245:F254</xm:sqref>
+          <xm:sqref>F33:F42 F223:F233 F82:F91 F98:F107 F114:F123 F130:F139 F65:F75 F177:F186 F207:F216 F7:F26 F49:F58 F162:F171 F192:F201 F270:F279 F286:F295 F255:F264 F146:F155 F240:F249</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>비고!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E33:E42 E65:E74 E81:E97 E104:E113 E120:E129 E136:E145 E152:E161 E168:E177 E198:E207 E7:E26 E49:E58 E229:E238 E213:E222 E275:E284 E291:E300 E260:E269 E183:E192 E245:E254</xm:sqref>
+          <xm:sqref>E33:E42 E223:E233 E82:E91 E98:E107 E114:E123 E130:E139 E65:E75 E146:E155 E192:E201 E7:E26 E49:E58 E162:E171 E207:E216 E270:E279 E286:E295 E255:E264 E177:E186 E240:E249</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7245,36 +7291,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
@@ -7510,13 +7558,13 @@
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="35"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7552,9 +7600,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C27"/>
+  <dimension ref="B2:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7562,176 +7612,199 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="35" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="35" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="35" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="35" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="65"/>
+      <c r="C9" s="69"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="35" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="35" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="35" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="69" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="69"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="69" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" s="69"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="C14" s="65"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="65" t="s">
+      <c r="C20" s="35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="C19" s="65"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="62" t="s">
+      <c r="C21" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="C20" s="62" t="s">
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="69" t="s">
+        <v>324</v>
+      </c>
+      <c r="C23" s="69"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="62" t="s">
-        <v>330</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="C23" s="65"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="62" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="C25" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="C24" s="62" t="s">
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="35" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="62" t="s">
+      <c r="C26" s="35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="C27" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="C25" s="62" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="62" t="s">
-        <v>336</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="62" t="s">
-        <v>338</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>339</v>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="69" t="s">
+        <v>343</v>
+      </c>
+      <c r="C29" s="69"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
